--- a/backend/食品標準成分表示_野菜類.xlsx
+++ b/backend/食品標準成分表示_野菜類.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncuit-my.sharepoint.com/personal/c223062_ed_nagoya-cu_ac_jp/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{ABBBF425-B777-4466-8C63-388CD85EB31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83796780-88BC-4F02-B7F2-B99599A2558B}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="8_{ABBBF425-B777-4466-8C63-388CD85EB31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2167C434-F28E-4ACA-8F40-D71F9F766BF3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="117">
   <si>
     <t>元の名前</t>
     <rPh sb="0" eb="1">
@@ -558,12 +559,91 @@
     <t>こんにゃく</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>アミノ酸組成による
+たんぱく質</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脂肪酸の
+トリアシルグリセロール当量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用可能炭水化物
+（単糖当量）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食物繊維総量</t>
+    <rPh sb="0" eb="2">
+      <t>ショクモツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糖アルコール</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有機酸</t>
+    <rPh sb="0" eb="3">
+      <t>ユウキサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルコール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脂質のエネルギー</t>
+  </si>
+  <si>
+    <t>タンパク質のエネルギー</t>
+  </si>
+  <si>
+    <t>炭水化物のエネルギー</t>
+  </si>
+  <si>
+    <t>総エネルギー</t>
+  </si>
+  <si>
+    <t>pi-0.13ti</t>
+  </si>
+  <si>
+    <t>ti-0.2pi</t>
+  </si>
+  <si>
+    <t>fi-0.2ti</t>
+  </si>
+  <si>
+    <t>ti-0.3fi</t>
+  </si>
+  <si>
+    <t>ci-0.5ti</t>
+  </si>
+  <si>
+    <t>ti-0.65ci</t>
+  </si>
+  <si>
+    <t>kcal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +714,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -643,7 +729,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -770,13 +856,157 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -786,7 +1016,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,18 +1032,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -821,9 +1039,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -834,6 +1049,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,8 +1122,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1194,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4954CF37-5B10-4F36-9A3C-57E2CD2BDD68}">
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="J20" zoomScale="71" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -1208,23 +1513,23 @@
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="18">
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+    <row r="1" spans="1:29" ht="18">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
     </row>
-    <row r="2" spans="1:43" ht="144">
+    <row r="2" spans="1:29" ht="150">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1237,84 +1542,106 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="26" t="s">
         <v>17</v>
       </c>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
     </row>
-    <row r="3" spans="1:43" ht="18">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+    <row r="3" spans="1:29" ht="18" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="17" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="11" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="24" t="s">
         <v>22</v>
       </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
     </row>
-    <row r="4" spans="1:43" ht="18">
+    <row r="4" spans="1:29" ht="18" customHeight="1">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1324,50 +1651,53 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="15">
-        <v>3.3</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
         <v>150</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="10">
         <v>110</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="10">
         <v>10</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="10">
         <v>0.02</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="10">
         <v>0.4</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="10">
         <v>38</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="10">
         <v>0.3</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="10">
         <v>0.04</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="10">
         <v>0.15</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="10">
         <v>0.03</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="10">
         <v>5</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="10">
         <v>1</v>
       </c>
+      <c r="S4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:43" ht="18">
+    <row r="5" spans="1:29" ht="18" customHeight="1">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1377,50 +1707,53 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="15">
-        <v>22.7</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="E5" s="10">
+        <v>21.6</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
         <v>60</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <v>630</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="10">
         <v>19</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="10">
         <v>0.3</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="10">
         <v>3.2</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="10">
         <v>250</v>
       </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
         <v>0.03</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="10">
         <v>0.38</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="10">
         <v>0.01</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="10">
         <v>27</v>
       </c>
-      <c r="R5" s="15">
-        <v>0</v>
-      </c>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="W5" s="10"/>
     </row>
-    <row r="6" spans="1:43" ht="18">
+    <row r="6" spans="1:29" ht="18" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1430,50 +1763,53 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
+      <c r="E6" s="10">
+        <v>17.7</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
         <v>120</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <v>460</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="10">
         <v>20</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="10">
         <v>0.2</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="10">
         <v>2.8</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="10">
         <v>240</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="10">
         <v>0.2</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="10">
         <v>0.03</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="10">
         <v>0.48</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="10">
         <v>0.08</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="10">
         <v>47</v>
       </c>
-      <c r="R6" s="15">
-        <v>0</v>
-      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="1:43" ht="18">
+    <row r="7" spans="1:29" ht="18" customHeight="1">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1483,50 +1819,53 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="E7" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
         <v>170</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="10">
         <v>120</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="10">
         <v>12</v>
       </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
         <v>0.4</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="10">
         <v>33</v>
       </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
         <v>0.04</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="10">
         <v>0.04</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="10">
         <v>11</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="10">
         <v>1</v>
       </c>
+      <c r="S7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:43" ht="18">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1536,50 +1875,53 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="15">
-        <v>12.2</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="E8" s="10">
+        <v>11.3</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
         <v>130</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <v>46</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="10">
         <v>10</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="10">
         <v>1.5</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="10">
         <v>210</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="10">
         <v>3.8</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="10">
         <v>0.06</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="10">
         <v>0.37</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="10">
         <v>0.09</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="10">
         <v>49</v>
       </c>
-      <c r="R8" s="15">
-        <v>0</v>
-      </c>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="W8" s="10"/>
     </row>
-    <row r="9" spans="1:43" ht="18">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1589,54 +1931,53 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="15">
-        <v>1.2</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="E9" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="10">
         <v>1.8</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="10">
         <v>190</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="10">
         <v>42</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="10">
         <v>14</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="10">
         <v>0.3</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="10">
         <v>0.1</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="10">
         <v>2</v>
       </c>
-      <c r="M9" s="15">
-        <v>0</v>
-      </c>
-      <c r="N9" s="15">
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
         <v>0.04</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="10">
         <v>0.03</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="10">
         <v>0.1</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="10">
         <v>66</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="10">
         <v>38</v>
       </c>
-      <c r="AQ9" t="str">
-        <f>_xlfn.TEXTJOIN(",", TRUE, G9:I9)</f>
-        <v>190,42,14</v>
-      </c>
+      <c r="S9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:43" ht="18">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1646,54 +1987,53 @@
       <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="E10" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="F10" s="10">
         <v>2.8</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="10">
         <v>690</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="10">
         <v>49</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="10">
         <v>69</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="10">
         <v>2</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="10">
         <v>0.7</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="10">
         <v>350</v>
       </c>
-      <c r="M10" s="15">
-        <v>0</v>
-      </c>
-      <c r="N10" s="15">
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
         <v>0.11</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="10">
         <v>0.2</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="10">
         <v>210</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="10">
         <v>35</v>
       </c>
-      <c r="AQ10" t="str">
-        <f t="shared" ref="AQ10:AQ35" si="0">_xlfn.TEXTJOIN(",", TRUE, G10:I10)</f>
-        <v>690,49,69</v>
-      </c>
+      <c r="S10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="W10" s="10"/>
     </row>
-    <row r="11" spans="1:43" ht="18">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1703,54 +2043,53 @@
       <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="E11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="10">
         <v>1.3</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="10">
         <v>220</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="10">
         <v>43</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="10">
         <v>10</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="10">
         <v>0.3</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="10">
         <v>0.2</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="10">
         <v>8</v>
       </c>
-      <c r="M11" s="15">
-        <v>0</v>
-      </c>
-      <c r="N11" s="15">
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
         <v>0.03</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="10">
         <v>0.03</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="10">
         <v>0.09</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="10">
         <v>61</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="10">
         <v>19</v>
       </c>
-      <c r="AQ11" t="str">
-        <f t="shared" si="0"/>
-        <v>220,43,10</v>
-      </c>
+      <c r="S11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:43" ht="18">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1760,54 +2099,53 @@
       <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
         <v>2.5</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="10">
         <v>200</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="10">
         <v>36</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="10">
         <v>13</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="10">
         <v>0.3</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="10">
         <v>0.3</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="10">
         <v>7</v>
       </c>
-      <c r="M12" s="15">
-        <v>0</v>
-      </c>
-      <c r="N12" s="15">
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
         <v>0.05</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="10">
         <v>0.04</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="10">
         <v>0.12</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="10">
         <v>72</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="10">
         <v>14</v>
       </c>
-      <c r="AQ12" t="str">
-        <f t="shared" si="0"/>
-        <v>200,36,13</v>
-      </c>
+      <c r="S12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:43" ht="18">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1817,54 +2155,53 @@
       <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="15">
-        <v>0.6</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="E13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="10">
         <v>200</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="10">
         <v>19</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="10">
         <v>8</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="10">
         <v>0.3</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="10">
         <v>0.2</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="10">
         <v>20</v>
       </c>
-      <c r="M13" s="15">
-        <v>0</v>
-      </c>
-      <c r="N13" s="15">
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
         <v>0.05</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="10">
         <v>0.03</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="10">
         <v>0.05</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="10">
         <v>73</v>
       </c>
-      <c r="R13" s="15">
+      <c r="R13" s="10">
         <v>5</v>
       </c>
-      <c r="AQ13" t="str">
-        <f t="shared" si="0"/>
-        <v>200,19,8</v>
-      </c>
+      <c r="S13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:43" ht="18">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1874,54 +2211,53 @@
       <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="15">
-        <v>3.6</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="E14" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="F14" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="10">
         <v>160</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="10">
         <v>25</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="10">
         <v>23</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="10">
         <v>0.5</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="10">
         <v>0.3</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="10">
         <v>2</v>
       </c>
-      <c r="M14" s="15">
-        <v>0</v>
-      </c>
-      <c r="N14" s="15">
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
         <v>0.08</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="10">
         <v>0.06</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="10">
         <v>0.08</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="10">
         <v>44</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="10">
         <v>4</v>
       </c>
-      <c r="AQ14" t="str">
-        <f t="shared" si="0"/>
-        <v>160,25,23</v>
-      </c>
+      <c r="S14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="1:43" ht="18">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1931,54 +2267,53 @@
       <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="15">
-        <v>5.4</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="E15" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="F15" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="10">
         <v>460</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="10">
         <v>50</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="10">
         <v>29</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="10">
         <v>1.3</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="10">
         <v>0.8</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="10">
         <v>75</v>
       </c>
-      <c r="M15" s="15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15">
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
         <v>0.17</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="10">
         <v>0.23</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="10">
         <v>0.3</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="10">
         <v>220</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="10">
         <v>140</v>
       </c>
-      <c r="AQ15" t="str">
-        <f t="shared" si="0"/>
-        <v>460,50,29</v>
-      </c>
+      <c r="S15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:43" ht="18">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1988,54 +2323,53 @@
       <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="15">
-        <v>2.6</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="E16" s="10">
         <v>1.8</v>
       </c>
-      <c r="G16" s="15">
+      <c r="F16" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="G16" s="10">
         <v>270</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="10">
         <v>19</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="10">
         <v>9</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="10">
         <v>0.7</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="10">
         <v>0.5</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="10">
         <v>31</v>
       </c>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-      <c r="N16" s="15">
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="10">
         <v>0.15</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="10">
         <v>0.12</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="10">
         <v>190</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="10">
         <v>15</v>
       </c>
-      <c r="AQ16" t="str">
-        <f t="shared" si="0"/>
-        <v>270,19,9</v>
-      </c>
+      <c r="S16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:43" ht="18">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2045,54 +2379,53 @@
       <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F17" s="15">
+      <c r="E17" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="10">
         <v>2.8</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="10">
         <v>380</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="10">
         <v>40</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="10">
         <v>24</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="10">
         <v>0.5</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="10">
         <v>0.2</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="10">
         <v>3</v>
       </c>
-      <c r="M17" s="15">
-        <v>0</v>
-      </c>
-      <c r="N17" s="15">
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
         <v>0.1</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="10">
         <v>0.02</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="10">
         <v>49</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="10">
         <v>25</v>
       </c>
-      <c r="AQ17" t="str">
-        <f t="shared" si="0"/>
-        <v>380,40,24</v>
-      </c>
+      <c r="S17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:43" ht="18">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2102,54 +2435,53 @@
       <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="F18" s="15">
+      <c r="E18" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="F18" s="10">
         <v>8.9</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="10">
         <v>410</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="10">
         <v>4</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="10">
         <v>19</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="10">
         <v>0.4</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="10">
         <v>0.2</v>
       </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-      <c r="N18" s="15">
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
         <v>0.09</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="10">
         <v>0.03</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="10">
         <v>0.2</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="10">
         <v>20</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="10">
         <v>28</v>
       </c>
-      <c r="AQ18" t="str">
-        <f t="shared" si="0"/>
-        <v>410,4,19</v>
-      </c>
+      <c r="S18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:43" ht="18">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2159,54 +2491,53 @@
       <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="F19" s="15">
+      <c r="E19" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="F19" s="10">
         <v>2.4</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="10">
         <v>560</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="10">
         <v>14</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="10">
         <v>17</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="10">
         <v>0.4</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="10">
         <v>0.3</v>
       </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="M19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="15">
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
         <v>0.06</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="10">
         <v>0.02</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="10">
         <v>28</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="10">
         <v>5</v>
       </c>
-      <c r="AQ19" t="str">
-        <f t="shared" si="0"/>
-        <v>560,14,17</v>
-      </c>
+      <c r="S19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:43" ht="18">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2216,54 +2547,53 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="E20" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="10">
         <v>1.3</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="10">
         <v>230</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="10">
         <v>23</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="10">
         <v>10</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="10">
         <v>0.2</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="10">
         <v>0.1</v>
       </c>
-      <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="M20" s="15">
-        <v>0</v>
-      </c>
-      <c r="N20" s="15">
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
         <v>0.02</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="10">
         <v>0.01</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="10">
         <v>0.05</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="10">
         <v>33</v>
       </c>
-      <c r="R20" s="15">
+      <c r="R20" s="10">
         <v>11</v>
       </c>
-      <c r="AQ20" t="str">
-        <f t="shared" si="0"/>
-        <v>230,23,10</v>
-      </c>
+      <c r="S20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="1:43" ht="18">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2273,54 +2603,53 @@
       <c r="D21" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="F21" s="15">
+      <c r="E21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="10">
         <v>2.8</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="10">
         <v>300</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="10">
         <v>24</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="10">
         <v>9</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="10">
         <v>0.2</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="10">
         <v>0.2</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="10">
         <v>630</v>
       </c>
-      <c r="M21" s="15">
-        <v>0</v>
-      </c>
-      <c r="N21" s="15">
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
         <v>0.04</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="10">
         <v>0.03</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="10">
         <v>0.09</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="10">
         <v>23</v>
       </c>
-      <c r="R21" s="15">
+      <c r="R21" s="10">
         <v>4</v>
       </c>
-      <c r="AQ21" t="str">
-        <f t="shared" si="0"/>
-        <v>300,24,9</v>
-      </c>
+      <c r="S21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="W21" s="10"/>
     </row>
-    <row r="22" spans="1:43" ht="18">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2330,54 +2659,53 @@
       <c r="D22" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="F22" s="15">
+      <c r="E22" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22" s="10">
         <v>5.7</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="10">
         <v>320</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="10">
         <v>46</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="10">
         <v>54</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="10">
         <v>0.7</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="10">
         <v>0.8</v>
       </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0</v>
-      </c>
-      <c r="N22" s="15">
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
         <v>0.05</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="10">
         <v>0.04</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="10">
         <v>0.1</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="10">
         <v>68</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="10">
         <v>3</v>
       </c>
-      <c r="AQ22" t="str">
-        <f t="shared" si="0"/>
-        <v>320,46,54</v>
-      </c>
+      <c r="S22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="W22" s="10"/>
     </row>
-    <row r="23" spans="1:43" ht="18">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2387,54 +2715,53 @@
       <c r="D23" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="15">
-        <v>1</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="E23" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F23" s="10">
         <v>1.5</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="10">
         <v>150</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="10">
         <v>17</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="10">
         <v>9</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="10">
         <v>0.3</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="10">
         <v>0.2</v>
       </c>
-      <c r="L23" s="15">
-        <v>0</v>
-      </c>
-      <c r="M23" s="15">
-        <v>0</v>
-      </c>
-      <c r="N23" s="15">
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
         <v>0.04</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="10">
         <v>0.01</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="10">
         <v>15</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R23" s="10">
         <v>7</v>
       </c>
-      <c r="AQ23" t="str">
-        <f t="shared" si="0"/>
-        <v>150,17,9</v>
-      </c>
+      <c r="S23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:43" ht="18">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -2444,54 +2771,53 @@
       <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="F24" s="15">
+      <c r="E24" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="F24" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="10">
         <v>240</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="10">
         <v>20</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="10">
         <v>13</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="10">
         <v>0.4</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="10">
         <v>0.3</v>
       </c>
-      <c r="L24" s="15">
-        <v>0</v>
-      </c>
-      <c r="M24" s="15">
-        <v>0</v>
-      </c>
-      <c r="N24" s="15">
+      <c r="L24" s="10">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
         <v>0.06</v>
       </c>
-      <c r="O24" s="15">
-        <v>0</v>
-      </c>
-      <c r="P24" s="15">
+      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="10">
         <v>8</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24" s="10">
         <v>18</v>
       </c>
-      <c r="AQ24" t="str">
-        <f t="shared" si="0"/>
-        <v>240,20,13</v>
-      </c>
+      <c r="S24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:43" ht="18">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2501,54 +2827,53 @@
       <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F25" s="15">
+      <c r="E25" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="10">
         <v>1</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="10">
         <v>430</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="10">
         <v>17</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="10">
         <v>17</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="10">
         <v>0.4</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="10">
         <v>0.3</v>
       </c>
-      <c r="L25" s="15">
-        <v>0</v>
-      </c>
-      <c r="M25" s="15">
-        <v>0</v>
-      </c>
-      <c r="N25" s="15">
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
         <v>0.1</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="10">
         <v>0.02</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="10">
         <v>0.09</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="10">
         <v>8</v>
       </c>
-      <c r="R25" s="15">
+      <c r="R25" s="10">
         <v>6</v>
       </c>
-      <c r="AQ25" t="str">
-        <f t="shared" si="0"/>
-        <v>430,17,17</v>
-      </c>
+      <c r="S25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:43" ht="18">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2558,54 +2883,53 @@
       <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="E26" s="10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F26" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="10">
         <v>490</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="10">
         <v>76</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="10">
         <v>72</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="10">
         <v>2.5</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="10">
         <v>1.3</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="10">
         <v>24</v>
       </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-      <c r="N26" s="15">
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
         <v>0.24</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="10">
         <v>0.13</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="10">
         <v>0.08</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="10">
         <v>260</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26" s="10">
         <v>15</v>
       </c>
-      <c r="AQ26" t="str">
-        <f t="shared" si="0"/>
-        <v>490,76,72</v>
-      </c>
+      <c r="S26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:43" ht="18">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2615,54 +2939,53 @@
       <c r="D27" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="15">
-        <v>1.8</v>
-      </c>
-      <c r="F27" s="15">
+      <c r="E27" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="F27" s="10">
         <v>3.9</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="10">
         <v>270</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="10">
         <v>53</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="10">
         <v>22</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="10">
         <v>0.7</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="10">
         <v>0.3</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="10">
         <v>48</v>
       </c>
-      <c r="M27" s="15">
-        <v>0</v>
-      </c>
-      <c r="N27" s="15">
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
         <v>0.06</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="10">
         <v>0.1</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="10">
         <v>53</v>
       </c>
-      <c r="R27" s="15">
+      <c r="R27" s="10">
         <v>6</v>
       </c>
-      <c r="AQ27" t="str">
-        <f t="shared" si="0"/>
-        <v>270,53,22</v>
-      </c>
+      <c r="S27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="1:43" ht="18">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -2672,54 +2995,53 @@
       <c r="D28" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="15">
-        <v>1.9</v>
-      </c>
-      <c r="F28" s="15">
+      <c r="E28" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="F28" s="10">
         <v>3.5</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="10">
         <v>430</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="10">
         <v>22</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="10">
         <v>25</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="10">
         <v>0.4</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="10">
         <v>0.3</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="10">
         <v>210</v>
       </c>
-      <c r="M28" s="15">
-        <v>0</v>
-      </c>
-      <c r="N28" s="15">
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O28" s="10">
         <v>0.08</v>
       </c>
-      <c r="P28" s="15">
+      <c r="P28" s="10">
         <v>0.23</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="10">
         <v>42</v>
       </c>
-      <c r="R28" s="15">
+      <c r="R28" s="10">
         <v>43</v>
       </c>
-      <c r="AQ28" t="str">
-        <f t="shared" si="0"/>
-        <v>430,22,25</v>
-      </c>
+      <c r="S28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:43" ht="18">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -2729,54 +3051,53 @@
       <c r="D29" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="15">
-        <v>1</v>
-      </c>
-      <c r="F29" s="15">
+      <c r="E29" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="10">
         <v>200</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="10">
         <v>26</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="10">
         <v>15</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="10">
         <v>0.3</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="10">
         <v>0.2</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="10">
         <v>28</v>
       </c>
-      <c r="M29" s="15">
-        <v>0</v>
-      </c>
-      <c r="N29" s="15">
+      <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10">
         <v>0.03</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="10">
         <v>0.03</v>
       </c>
-      <c r="P29" s="15">
+      <c r="P29" s="10">
         <v>0.05</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="10">
         <v>25</v>
       </c>
-      <c r="R29" s="15">
+      <c r="R29" s="10">
         <v>14</v>
       </c>
-      <c r="AQ29" t="str">
-        <f t="shared" si="0"/>
-        <v>200,26,15</v>
-      </c>
+      <c r="S29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:43" ht="18">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2786,54 +3107,53 @@
       <c r="D30" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F30" s="15">
+      <c r="E30" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="10">
         <v>220</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="10">
         <v>18</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="10">
         <v>17</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="10">
         <v>0.3</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="10">
         <v>0.2</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="10">
         <v>8</v>
       </c>
-      <c r="M30" s="15">
-        <v>0</v>
-      </c>
-      <c r="N30" s="15">
+      <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
         <v>0.05</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="10">
         <v>0.05</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="10">
         <v>0.05</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="10">
         <v>32</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="10">
         <v>4</v>
       </c>
-      <c r="AQ30" t="str">
-        <f t="shared" si="0"/>
-        <v>220,18,17</v>
-      </c>
+      <c r="S30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:43" ht="18">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -2843,54 +3163,53 @@
       <c r="D31" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="F31" s="15">
+      <c r="E31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="10">
         <v>1</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="10">
         <v>210</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="10">
         <v>7</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="10">
         <v>9</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="10">
         <v>0.2</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="10">
         <v>0.1</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="10">
         <v>45</v>
       </c>
-      <c r="M31" s="15">
-        <v>0</v>
-      </c>
-      <c r="N31" s="15">
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
         <v>0.05</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O31" s="10">
         <v>0.02</v>
       </c>
-      <c r="P31" s="15">
+      <c r="P31" s="10">
         <v>0.08</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q31" s="10">
         <v>22</v>
       </c>
-      <c r="R31" s="15">
+      <c r="R31" s="10">
         <v>15</v>
       </c>
-      <c r="AQ31" t="str">
-        <f t="shared" si="0"/>
-        <v>210,7,9</v>
-      </c>
+      <c r="S31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:43" ht="18">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2900,54 +3219,53 @@
       <c r="D32" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="F32" s="15">
+      <c r="E32" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F32" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="10">
         <v>190</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="10">
         <v>11</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="10">
         <v>11</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="10">
         <v>0.4</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="10">
         <v>0.2</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="10">
         <v>33</v>
       </c>
-      <c r="M32" s="15">
-        <v>0</v>
-      </c>
-      <c r="N32" s="15">
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
         <v>0.03</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="10">
         <v>0.03</v>
       </c>
-      <c r="P32" s="15">
+      <c r="P32" s="10">
         <v>0.19</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32" s="10">
         <v>26</v>
       </c>
-      <c r="R32" s="15">
+      <c r="R32" s="10">
         <v>76</v>
       </c>
-      <c r="AQ32" t="str">
-        <f t="shared" si="0"/>
-        <v>190,11,11</v>
-      </c>
+      <c r="S32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:43" ht="18">
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -2957,54 +3275,53 @@
       <c r="D33" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="F33" s="15">
+      <c r="E33" s="10">
+        <v>2</v>
+      </c>
+      <c r="F33" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="10">
         <v>290</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="10">
         <v>1</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="10">
         <v>14</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="10">
         <v>0.4</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="10">
         <v>0.9</v>
       </c>
-      <c r="L33" s="15">
-        <v>0</v>
-      </c>
-      <c r="M33" s="15">
+      <c r="L33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
         <v>0.3</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="10">
         <v>0.13</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="10">
         <v>0.21</v>
       </c>
-      <c r="P33" s="15">
+      <c r="P33" s="10">
         <v>0.21</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="Q33" s="10">
         <v>49</v>
       </c>
-      <c r="R33" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="str">
-        <f t="shared" si="0"/>
-        <v>290,1,14</v>
-      </c>
+      <c r="R33" s="10">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="W33" s="10"/>
     </row>
-    <row r="34" spans="1:43" ht="18">
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
         <v>83</v>
       </c>
@@ -3014,54 +3331,53 @@
       <c r="D34" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="15">
-        <v>2.7</v>
-      </c>
-      <c r="F34" s="15">
+      <c r="E34" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="F34" s="10">
         <v>3.9</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="10">
         <v>340</v>
       </c>
-      <c r="H34" s="15">
-        <v>0</v>
-      </c>
-      <c r="I34" s="15">
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
         <v>15</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="10">
         <v>0.6</v>
       </c>
-      <c r="L34" s="15">
-        <v>0</v>
-      </c>
-      <c r="M34" s="15">
+      <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
         <v>0.9</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="10">
         <v>0.24</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O34" s="10">
         <v>0.17</v>
       </c>
-      <c r="P34" s="15">
+      <c r="P34" s="10">
         <v>0.12</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q34" s="10">
         <v>75</v>
       </c>
-      <c r="R34" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ34" t="str">
-        <f t="shared" si="0"/>
-        <v>340,0,15</v>
-      </c>
+      <c r="R34" s="10">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:43" ht="18">
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -3071,54 +3387,53 @@
       <c r="D35" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="15">
-        <v>2.7</v>
-      </c>
-      <c r="F35" s="15">
+      <c r="E35" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="F35" s="10">
         <v>3</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="10">
         <v>370</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="10">
         <v>1</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="10">
         <v>11</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="10">
         <v>0.5</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="10">
         <v>0.5</v>
       </c>
-      <c r="L35" s="15">
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
         <v>0.5</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="10">
         <v>0.15</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O35" s="10">
         <v>0.17</v>
       </c>
-      <c r="P35" s="15">
+      <c r="P35" s="10">
         <v>0.09</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q35" s="10">
         <v>29</v>
       </c>
-      <c r="R35" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ35" t="str">
-        <f t="shared" si="0"/>
-        <v>370,1,11</v>
-      </c>
+      <c r="R35" s="10">
+        <v>0</v>
+      </c>
+      <c r="S35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="W35" s="10"/>
     </row>
-    <row r="36" spans="1:43" ht="18">
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -3128,50 +3443,53 @@
       <c r="D36" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="15">
-        <v>1.9</v>
-      </c>
-      <c r="F36" s="15">
+      <c r="E36" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="F36" s="10">
         <v>3.6</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="10">
         <v>730</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="10">
         <v>100</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="10">
         <v>110</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="10">
         <v>0.7</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="10">
         <v>0.3</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="10">
         <v>79</v>
       </c>
-      <c r="M36" s="15">
-        <v>0</v>
-      </c>
-      <c r="N36" s="15">
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="10">
         <v>0.18</v>
       </c>
-      <c r="P36" s="15">
+      <c r="P36" s="10">
         <v>0.03</v>
       </c>
-      <c r="Q36" s="15">
+      <c r="Q36" s="10">
         <v>29</v>
       </c>
-      <c r="R36" s="15">
+      <c r="R36" s="10">
         <v>15</v>
       </c>
+      <c r="S36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="1:43" ht="18">
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
         <v>89</v>
       </c>
@@ -3181,50 +3499,53 @@
       <c r="D37" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="15">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F37" s="15">
+      <c r="E37" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="F37" s="10">
         <v>51.8</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="10">
         <v>6400</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="10">
         <v>1000</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="10">
         <v>640</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="10">
         <v>6.2</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37" s="10">
         <v>1</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="10">
         <v>360</v>
       </c>
-      <c r="M37" s="15">
-        <v>0</v>
-      </c>
-      <c r="N37" s="15">
+      <c r="M37" s="10">
+        <v>0</v>
+      </c>
+      <c r="N37" s="10">
         <v>0.09</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O37" s="10">
         <v>0.42</v>
       </c>
-      <c r="P37" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="15">
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="10">
         <v>93</v>
       </c>
-      <c r="R37" s="15">
-        <v>0</v>
-      </c>
+      <c r="R37" s="10">
+        <v>0</v>
+      </c>
+      <c r="S37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="W37" s="10"/>
     </row>
-    <row r="38" spans="1:43" ht="18">
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -3234,105 +3555,108 @@
       <c r="D38" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="15">
-        <v>7</v>
-      </c>
-      <c r="F38" s="15">
+      <c r="E38" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="F38" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="10">
         <v>110</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="10">
         <v>93</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="10">
         <v>57</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="10">
         <v>1.5</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="10">
         <v>0.6</v>
       </c>
-      <c r="L38" s="15">
-        <v>0</v>
-      </c>
-      <c r="M38" s="15">
-        <v>0</v>
-      </c>
-      <c r="N38" s="15">
+      <c r="L38" s="10">
+        <v>0</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
         <v>0.09</v>
       </c>
-      <c r="O38" s="15">
+      <c r="O38" s="10">
         <v>0.04</v>
       </c>
-      <c r="P38" s="15">
+      <c r="P38" s="10">
         <v>0.05</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q38" s="10">
         <v>12</v>
       </c>
-      <c r="R38" s="15">
-        <v>0</v>
-      </c>
+      <c r="R38" s="10">
+        <v>0</v>
+      </c>
+      <c r="S38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:43" s="13" customFormat="1" ht="18">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:33" s="8" customFormat="1">
+      <c r="A39" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="8">
         <v>1000</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="14">
-        <v>12.4</v>
-      </c>
-      <c r="F39" s="14">
+      <c r="E39" s="9">
+        <v>12.3</v>
+      </c>
+      <c r="F39" s="9">
         <v>0.6</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="9">
         <v>12</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="9">
         <v>140</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="9">
         <v>59</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="9">
         <v>1.6</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="9">
         <v>1.4</v>
       </c>
-      <c r="L39" s="14">
-        <v>0</v>
-      </c>
-      <c r="M39" s="14">
-        <v>0</v>
-      </c>
-      <c r="N39" s="14">
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
         <v>0.01</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="9">
         <v>0.01</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="9">
         <v>0.01</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="9">
         <v>3</v>
       </c>
-      <c r="R39" s="14">
-        <v>0</v>
-      </c>
-      <c r="T39"/>
-      <c r="U39"/>
+      <c r="R39" s="9">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10"/>
+      <c r="U39" s="10"/>
       <c r="V39"/>
-      <c r="W39"/>
+      <c r="W39" s="10"/>
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
@@ -3344,116 +3668,124 @@
       <c r="AF39"/>
       <c r="AG39"/>
     </row>
-    <row r="40" spans="1:43" ht="18">
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="8">
         <v>150</v>
       </c>
-      <c r="C40" s="13"/>
+      <c r="C40" s="8"/>
       <c r="D40" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="F40" s="15">
+      <c r="E40" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="F40" s="10">
         <v>9.5</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="10">
         <v>690</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="10">
         <v>91</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="10">
         <v>100</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="10">
         <v>3.3</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="10">
         <v>1.9</v>
       </c>
-      <c r="L40" s="15">
-        <v>0</v>
-      </c>
-      <c r="M40" s="15">
-        <v>0</v>
-      </c>
-      <c r="N40" s="15">
+      <c r="L40" s="10">
+        <v>0</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
         <v>0.13</v>
       </c>
-      <c r="O40" s="15">
+      <c r="O40" s="10">
         <v>0.3</v>
       </c>
-      <c r="P40" s="15">
+      <c r="P40" s="10">
         <v>0.24</v>
       </c>
-      <c r="Q40" s="15">
+      <c r="Q40" s="10">
         <v>130</v>
       </c>
-      <c r="R40" s="15">
+      <c r="R40" s="10">
         <v>3</v>
       </c>
+      <c r="S40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="W40" s="10"/>
     </row>
-    <row r="41" spans="1:43" ht="18">
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="8">
         <v>1000</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="8"/>
       <c r="D41" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="10">
         <v>0.1</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="10">
         <v>33</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="10">
         <v>43</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="10">
         <v>2</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="10">
         <v>0.4</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="10">
         <v>0.1</v>
       </c>
-      <c r="L41" s="15">
-        <v>0</v>
-      </c>
-      <c r="M41" s="15">
-        <v>0</v>
-      </c>
-      <c r="N41" s="15">
-        <v>0</v>
-      </c>
-      <c r="O41" s="15">
-        <v>0</v>
-      </c>
-      <c r="P41" s="15">
+      <c r="L41" s="10">
+        <v>0</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
+        <v>0</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10">
         <v>0.02</v>
       </c>
-      <c r="Q41" s="15">
+      <c r="Q41" s="10">
         <v>1</v>
       </c>
-      <c r="R41" s="15">
-        <v>0</v>
-      </c>
+      <c r="R41" s="10">
+        <v>0</v>
+      </c>
+      <c r="S41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="W41" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="S3:Y3"/>
     <mergeCell ref="E1:R1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:K3"/>
@@ -3463,4 +3795,4402 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24534400-F245-4B3F-A75E-948BF1262C7E}">
+  <dimension ref="A1:AQ41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AA33" workbookViewId="0">
+      <selection activeCell="AJ41" sqref="AJ41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="54.375" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="17" width="11.25" customWidth="1"/>
+    <col min="18" max="29" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+    </row>
+    <row r="2" spans="1:35" ht="285">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC2" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD2" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI2" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="39"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="47"/>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1032</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>150</v>
+      </c>
+      <c r="H4" s="10">
+        <v>110</v>
+      </c>
+      <c r="I4" s="10">
+        <v>10</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="10">
+        <v>38</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>5</v>
+      </c>
+      <c r="R4" s="43">
+        <v>1</v>
+      </c>
+      <c r="S4" s="10">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>3.5</v>
+      </c>
+      <c r="U4" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="10">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0.2</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>31.5</v>
+      </c>
+      <c r="AA4">
+        <v>12</v>
+      </c>
+      <c r="AB4">
+        <v>18.225000000000001</v>
+      </c>
+      <c r="AC4" s="46">
+        <v>61.725000000000001</v>
+      </c>
+      <c r="AD4">
+        <f>AA4-0.13*AC4</f>
+        <v>3.9757499999999997</v>
+      </c>
+      <c r="AE4">
+        <f>AA4-0.2*AC4</f>
+        <v>-0.34500000000000064</v>
+      </c>
+      <c r="AF4">
+        <f>Z4-0.2*AC4</f>
+        <v>19.155000000000001</v>
+      </c>
+      <c r="AG4">
+        <f>AA4-0.3*AC4</f>
+        <v>-6.5174999999999983</v>
+      </c>
+      <c r="AH4">
+        <f>AB4-0.5*AC4</f>
+        <v>-12.637499999999999</v>
+      </c>
+      <c r="AI4">
+        <f>AB4-0.65*AC4</f>
+        <v>-21.896250000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10">
+        <v>21.6</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>60</v>
+      </c>
+      <c r="H5" s="10">
+        <v>630</v>
+      </c>
+      <c r="I5" s="10">
+        <v>19</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K5" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="L5" s="10">
+        <v>250</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>27</v>
+      </c>
+      <c r="R5" s="43">
+        <v>0</v>
+      </c>
+      <c r="S5" s="10">
+        <v>21.6</v>
+      </c>
+      <c r="T5">
+        <v>24.7</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1.3</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>222.29999999999998</v>
+      </c>
+      <c r="AA5">
+        <v>86.4</v>
+      </c>
+      <c r="AB5">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="AC5" s="46">
+        <v>312.97499999999997</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AD41" si="0">AA5-0.13*AC5</f>
+        <v>45.713250000000009</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE41" si="1">AA5-0.2*AC5</f>
+        <v>23.805000000000007</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ref="AF5:AF41" si="2">Z5-0.2*AC5</f>
+        <v>159.70499999999998</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ref="AG5:AG41" si="3">AA5-0.3*AC5</f>
+        <v>-7.4924999999999784</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ref="AH5:AH41" si="4">AB5-0.5*AC5</f>
+        <v>-152.21249999999998</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" ref="AI5:AI41" si="5">AB5-0.65*AC5</f>
+        <v>-199.15874999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>125</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10">
+        <v>17.7</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>120</v>
+      </c>
+      <c r="H6" s="10">
+        <v>460</v>
+      </c>
+      <c r="I6" s="10">
+        <v>20</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="L6" s="10">
+        <v>240</v>
+      </c>
+      <c r="M6" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="O6" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>47</v>
+      </c>
+      <c r="R6" s="43">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>17.7</v>
+      </c>
+      <c r="T6">
+        <v>22.5</v>
+      </c>
+      <c r="U6" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0.3</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>202.5</v>
+      </c>
+      <c r="AA6">
+        <v>70.8</v>
+      </c>
+      <c r="AB6">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="AC6" s="46">
+        <v>289.95</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>33.106499999999997</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>12.809999999999995</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="2"/>
+        <v>144.51</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>-16.185000000000002</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="4"/>
+        <v>-128.32499999999999</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="5"/>
+        <v>-171.8175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>170</v>
+      </c>
+      <c r="H7" s="10">
+        <v>120</v>
+      </c>
+      <c r="I7" s="10">
+        <v>12</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="10">
+        <v>33</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>11</v>
+      </c>
+      <c r="R7" s="43">
+        <v>1</v>
+      </c>
+      <c r="S7" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="T7">
+        <v>2.8</v>
+      </c>
+      <c r="U7" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0.9</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>25.2</v>
+      </c>
+      <c r="AA7">
+        <v>13.2</v>
+      </c>
+      <c r="AB7">
+        <v>17.324999999999999</v>
+      </c>
+      <c r="AC7" s="46">
+        <v>55.724999999999994</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>5.9557500000000001</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>2.0549999999999997</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>14.055</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>-3.5174999999999983</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="4"/>
+        <v>-10.537499999999998</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="5"/>
+        <v>-18.896249999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>630</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10">
+        <v>11.3</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>130</v>
+      </c>
+      <c r="H8" s="10">
+        <v>46</v>
+      </c>
+      <c r="I8" s="10">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L8" s="10">
+        <v>210</v>
+      </c>
+      <c r="M8" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>49</v>
+      </c>
+      <c r="R8" s="43">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
+        <v>11.3</v>
+      </c>
+      <c r="T8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="U8" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>83.7</v>
+      </c>
+      <c r="AA8">
+        <v>45.2</v>
+      </c>
+      <c r="AB8">
+        <v>12.75</v>
+      </c>
+      <c r="AC8" s="46">
+        <v>141.65</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>26.785500000000003</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="1"/>
+        <v>16.87</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>55.370000000000005</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="3"/>
+        <v>2.7050000000000054</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="4"/>
+        <v>-58.075000000000003</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="5"/>
+        <v>-79.322500000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="G9" s="10">
+        <v>190</v>
+      </c>
+      <c r="H9" s="10">
+        <v>42</v>
+      </c>
+      <c r="I9" s="10">
+        <v>14</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="10">
+        <v>2</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>66</v>
+      </c>
+      <c r="R9" s="43">
+        <v>38</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="V9">
+        <v>1.8</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0.1</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>3.2</v>
+      </c>
+      <c r="AB9">
+        <v>18.525000000000002</v>
+      </c>
+      <c r="AC9" s="46">
+        <v>21.725000000000001</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>0.37575000000000003</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="1"/>
+        <v>-1.1450000000000005</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>-4.3450000000000006</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="3"/>
+        <v>-3.3174999999999999</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="4"/>
+        <v>7.6625000000000014</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="5"/>
+        <v>4.4037500000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="G10" s="10">
+        <v>690</v>
+      </c>
+      <c r="H10" s="10">
+        <v>49</v>
+      </c>
+      <c r="I10" s="10">
+        <v>69</v>
+      </c>
+      <c r="J10" s="10">
+        <v>2</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="L10" s="10">
+        <v>350</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>210</v>
+      </c>
+      <c r="R10" s="43">
+        <v>35</v>
+      </c>
+      <c r="S10" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="T10">
+        <v>0.2</v>
+      </c>
+      <c r="U10" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="V10">
+        <v>2.8</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.9</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>1.8</v>
+      </c>
+      <c r="AA10">
+        <v>6.8</v>
+      </c>
+      <c r="AB10">
+        <v>9.4250000000000007</v>
+      </c>
+      <c r="AC10" s="46">
+        <v>18.024999999999999</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>4.4567499999999995</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>-1.8049999999999999</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="3"/>
+        <v>1.3925000000000001</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="4"/>
+        <v>0.41250000000000142</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="5"/>
+        <v>-2.291249999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="G11" s="10">
+        <v>220</v>
+      </c>
+      <c r="H11" s="10">
+        <v>43</v>
+      </c>
+      <c r="I11" s="10">
+        <v>10</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L11" s="10">
+        <v>8</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>61</v>
+      </c>
+      <c r="R11" s="43">
+        <v>19</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1.3</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>2.4</v>
+      </c>
+      <c r="AB11">
+        <v>10.1</v>
+      </c>
+      <c r="AC11" s="46">
+        <v>12.5</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="0"/>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="1"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>-2.5</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="3"/>
+        <v>-1.35</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="4"/>
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="5"/>
+        <v>1.9749999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G12" s="10">
+        <v>200</v>
+      </c>
+      <c r="H12" s="10">
+        <v>36</v>
+      </c>
+      <c r="I12" s="10">
+        <v>13</v>
+      </c>
+      <c r="J12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="10">
+        <v>7</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>72</v>
+      </c>
+      <c r="R12" s="43">
+        <v>14</v>
+      </c>
+      <c r="S12" s="10">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="V12">
+        <v>2.5</v>
+      </c>
+      <c r="W12" s="10">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AB12">
+        <v>29</v>
+      </c>
+      <c r="AC12" s="46">
+        <v>33</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="0"/>
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="1"/>
+        <v>-2.6000000000000005</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>-6.6000000000000005</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="3"/>
+        <v>-5.9</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="5"/>
+        <v>7.5500000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G13" s="10">
+        <v>200</v>
+      </c>
+      <c r="H13" s="10">
+        <v>19</v>
+      </c>
+      <c r="I13" s="10">
+        <v>8</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="10">
+        <v>20</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>73</v>
+      </c>
+      <c r="R13" s="43">
+        <v>5</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="V13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W13" s="10">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="AC13" s="46">
+        <v>10.574999999999999</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="0"/>
+        <v>0.62525000000000008</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="1"/>
+        <v>-0.11499999999999977</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>-2.1149999999999998</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="3"/>
+        <v>-1.1724999999999999</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="4"/>
+        <v>3.2874999999999996</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="5"/>
+        <v>1.7012499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G14" s="10">
+        <v>160</v>
+      </c>
+      <c r="H14" s="10">
+        <v>25</v>
+      </c>
+      <c r="I14" s="10">
+        <v>23</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L14" s="10">
+        <v>2</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>44</v>
+      </c>
+      <c r="R14" s="43">
+        <v>4</v>
+      </c>
+      <c r="S14" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="T14">
+        <v>1.2</v>
+      </c>
+      <c r="U14" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="V14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W14" s="10">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="AA14">
+        <v>11.2</v>
+      </c>
+      <c r="AB14">
+        <v>6.85</v>
+      </c>
+      <c r="AC14" s="46">
+        <v>28.85</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="0"/>
+        <v>7.4494999999999987</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>5.4299999999999988</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>5.0299999999999985</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="3"/>
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="4"/>
+        <v>-7.5750000000000011</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="5"/>
+        <v>-11.902500000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="F15" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G15" s="10">
+        <v>460</v>
+      </c>
+      <c r="H15" s="10">
+        <v>50</v>
+      </c>
+      <c r="I15" s="10">
+        <v>29</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L15" s="10">
+        <v>75</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>220</v>
+      </c>
+      <c r="R15" s="43">
+        <v>140</v>
+      </c>
+      <c r="S15" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="T15">
+        <v>0.3</v>
+      </c>
+      <c r="U15" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="V15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0.3</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="AA15">
+        <v>15.2</v>
+      </c>
+      <c r="AB15">
+        <v>20.099999999999998</v>
+      </c>
+      <c r="AC15" s="46">
+        <v>38</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>10.259999999999998</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>7.5999999999999988</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="3"/>
+        <v>3.7999999999999989</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="4"/>
+        <v>1.0999999999999979</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="5"/>
+        <v>-4.6000000000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="G16" s="10">
+        <v>270</v>
+      </c>
+      <c r="H16" s="10">
+        <v>19</v>
+      </c>
+      <c r="I16" s="10">
+        <v>9</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="10">
+        <v>31</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
+      <c r="N16" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>190</v>
+      </c>
+      <c r="R16" s="43">
+        <v>15</v>
+      </c>
+      <c r="S16" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="T16">
+        <v>0.2</v>
+      </c>
+      <c r="U16" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="V16">
+        <v>1.8</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0.2</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1.8</v>
+      </c>
+      <c r="AA16">
+        <v>7.2</v>
+      </c>
+      <c r="AB16">
+        <v>12.074999999999999</v>
+      </c>
+      <c r="AC16" s="46">
+        <v>21.074999999999999</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="0"/>
+        <v>4.4602500000000003</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="1"/>
+        <v>2.9850000000000003</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>-2.415</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="3"/>
+        <v>0.87750000000000039</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="4"/>
+        <v>1.5374999999999996</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="5"/>
+        <v>-1.6237500000000011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="G17" s="10">
+        <v>380</v>
+      </c>
+      <c r="H17" s="10">
+        <v>40</v>
+      </c>
+      <c r="I17" s="10">
+        <v>24</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="10">
+        <v>3</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>49</v>
+      </c>
+      <c r="R17" s="43">
+        <v>25</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="T17">
+        <v>0.1</v>
+      </c>
+      <c r="U17" s="10">
+        <v>31</v>
+      </c>
+      <c r="V17">
+        <v>2.8</v>
+      </c>
+      <c r="W17" s="10">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0.4</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0.9</v>
+      </c>
+      <c r="AA17">
+        <v>3.2</v>
+      </c>
+      <c r="AB17">
+        <v>123.05</v>
+      </c>
+      <c r="AC17" s="46">
+        <v>127.14999999999999</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="0"/>
+        <v>-13.329499999999999</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="1"/>
+        <v>-22.23</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="2"/>
+        <v>-24.53</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>-34.944999999999993</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>59.475000000000001</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="5"/>
+        <v>40.402500000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="F18" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="G18" s="10">
+        <v>410</v>
+      </c>
+      <c r="H18" s="10">
+        <v>4</v>
+      </c>
+      <c r="I18" s="10">
+        <v>19</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>20</v>
+      </c>
+      <c r="R18" s="43">
+        <v>28</v>
+      </c>
+      <c r="S18" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="V18">
+        <v>8.9</v>
+      </c>
+      <c r="W18" s="10">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0.5</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>5.2</v>
+      </c>
+      <c r="AB18">
+        <v>51.174999999999997</v>
+      </c>
+      <c r="AC18" s="46">
+        <v>56.375</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="0"/>
+        <v>-2.1287500000000001</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="1"/>
+        <v>-6.0750000000000002</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="2"/>
+        <v>-11.275</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="3"/>
+        <v>-11.712499999999999</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="4"/>
+        <v>22.987499999999997</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="5"/>
+        <v>14.531249999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="G19" s="10">
+        <v>560</v>
+      </c>
+      <c r="H19" s="10">
+        <v>14</v>
+      </c>
+      <c r="I19" s="10">
+        <v>17</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>28</v>
+      </c>
+      <c r="R19" s="43">
+        <v>5</v>
+      </c>
+      <c r="S19" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="T19">
+        <v>0.1</v>
+      </c>
+      <c r="U19" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="V19">
+        <v>2.4</v>
+      </c>
+      <c r="W19" s="10">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0.9</v>
+      </c>
+      <c r="AA19">
+        <v>5.2</v>
+      </c>
+      <c r="AB19">
+        <v>46.424999999999997</v>
+      </c>
+      <c r="AC19" s="46">
+        <v>52.524999999999999</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="0"/>
+        <v>-1.6282499999999995</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="1"/>
+        <v>-5.3050000000000006</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="2"/>
+        <v>-9.6050000000000004</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="3"/>
+        <v>-10.557499999999997</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="4"/>
+        <v>20.162499999999998</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="5"/>
+        <v>12.283749999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="G20" s="10">
+        <v>230</v>
+      </c>
+      <c r="H20" s="10">
+        <v>23</v>
+      </c>
+      <c r="I20" s="10">
+        <v>10</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>33</v>
+      </c>
+      <c r="R20" s="43">
+        <v>11</v>
+      </c>
+      <c r="S20" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="V20">
+        <v>1.3</v>
+      </c>
+      <c r="W20" s="10">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>1.2</v>
+      </c>
+      <c r="AB20">
+        <v>13.475</v>
+      </c>
+      <c r="AC20" s="46">
+        <v>14.674999999999999</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="0"/>
+        <v>-0.70774999999999988</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="1"/>
+        <v>-1.7350000000000001</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="2"/>
+        <v>-2.9350000000000001</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="3"/>
+        <v>-3.2024999999999997</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="4"/>
+        <v>6.1375000000000002</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="5"/>
+        <v>3.9362499999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="G21" s="10">
+        <v>300</v>
+      </c>
+      <c r="H21" s="10">
+        <v>24</v>
+      </c>
+      <c r="I21" s="10">
+        <v>9</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="10">
+        <v>630</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="P21" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>23</v>
+      </c>
+      <c r="R21" s="43">
+        <v>4</v>
+      </c>
+      <c r="S21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="T21">
+        <v>0.1</v>
+      </c>
+      <c r="U21" s="10">
+        <v>6</v>
+      </c>
+      <c r="V21">
+        <v>2.8</v>
+      </c>
+      <c r="W21" s="10">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0.3</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0.9</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>29</v>
+      </c>
+      <c r="AC21" s="46">
+        <v>31.9</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="0"/>
+        <v>-2.1470000000000002</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="1"/>
+        <v>-4.38</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="2"/>
+        <v>-5.4799999999999995</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="3"/>
+        <v>-7.5699999999999985</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="4"/>
+        <v>13.05</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="5"/>
+        <v>8.2650000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="G22" s="10">
+        <v>320</v>
+      </c>
+      <c r="H22" s="10">
+        <v>46</v>
+      </c>
+      <c r="I22" s="10">
+        <v>54</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>68</v>
+      </c>
+      <c r="R22" s="43">
+        <v>3</v>
+      </c>
+      <c r="S22" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T22">
+        <v>0.1</v>
+      </c>
+      <c r="U22" s="10">
+        <v>10.4</v>
+      </c>
+      <c r="V22">
+        <v>5.7</v>
+      </c>
+      <c r="W22" s="10">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0.9</v>
+      </c>
+      <c r="AA22">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AB22">
+        <v>50.4</v>
+      </c>
+      <c r="AC22" s="46">
+        <v>55.7</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="0"/>
+        <v>-2.8410000000000002</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="1"/>
+        <v>-6.74</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="2"/>
+        <v>-10.24</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="3"/>
+        <v>-12.31</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="4"/>
+        <v>22.549999999999997</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="5"/>
+        <v>14.194999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23">
+        <v>1000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G23" s="10">
+        <v>150</v>
+      </c>
+      <c r="H23" s="10">
+        <v>17</v>
+      </c>
+      <c r="I23" s="10">
+        <v>9</v>
+      </c>
+      <c r="J23" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>15</v>
+      </c>
+      <c r="R23" s="43">
+        <v>7</v>
+      </c>
+      <c r="S23" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" s="10">
+        <v>7</v>
+      </c>
+      <c r="V23">
+        <v>1.5</v>
+      </c>
+      <c r="W23" s="10">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0.2</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>2.8</v>
+      </c>
+      <c r="AB23">
+        <v>29.85</v>
+      </c>
+      <c r="AC23" s="46">
+        <v>32.65</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="0"/>
+        <v>-1.4445000000000006</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="1"/>
+        <v>-3.7300000000000004</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="2"/>
+        <v>-6.53</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="3"/>
+        <v>-6.9950000000000001</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="4"/>
+        <v>13.525000000000002</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="5"/>
+        <v>8.6275000000000013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>1000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="F24" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G24" s="10">
+        <v>240</v>
+      </c>
+      <c r="H24" s="10">
+        <v>20</v>
+      </c>
+      <c r="I24" s="10">
+        <v>13</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L24" s="10">
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>8</v>
+      </c>
+      <c r="R24" s="43">
+        <v>18</v>
+      </c>
+      <c r="S24" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" s="10">
+        <v>14.3</v>
+      </c>
+      <c r="V24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W24" s="10">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>3.6</v>
+      </c>
+      <c r="AB24">
+        <v>58.225000000000001</v>
+      </c>
+      <c r="AC24" s="46">
+        <v>61.825000000000003</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="0"/>
+        <v>-4.4372500000000006</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="1"/>
+        <v>-8.7650000000000023</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="2"/>
+        <v>-12.365000000000002</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="3"/>
+        <v>-14.9475</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="4"/>
+        <v>27.3125</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="5"/>
+        <v>18.03875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25">
+        <v>1000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>430</v>
+      </c>
+      <c r="H25" s="10">
+        <v>17</v>
+      </c>
+      <c r="I25" s="10">
+        <v>17</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P25" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>8</v>
+      </c>
+      <c r="R25" s="43">
+        <v>6</v>
+      </c>
+      <c r="S25" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="T25">
+        <v>0.1</v>
+      </c>
+      <c r="U25" s="10">
+        <v>13.8</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0.9</v>
+      </c>
+      <c r="AA25">
+        <v>6</v>
+      </c>
+      <c r="AB25">
+        <v>53.75</v>
+      </c>
+      <c r="AC25" s="46">
+        <v>60.65</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="0"/>
+        <v>-1.8845000000000001</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="1"/>
+        <v>-6.1300000000000008</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="2"/>
+        <v>-11.23</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="3"/>
+        <v>-12.195</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="4"/>
+        <v>23.425000000000001</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="5"/>
+        <v>14.327500000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26">
+        <v>1000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F26" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G26" s="10">
+        <v>490</v>
+      </c>
+      <c r="H26" s="10">
+        <v>76</v>
+      </c>
+      <c r="I26" s="10">
+        <v>72</v>
+      </c>
+      <c r="J26" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="L26" s="10">
+        <v>24</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>260</v>
+      </c>
+      <c r="R26" s="43">
+        <v>15</v>
+      </c>
+      <c r="S26" s="10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T26">
+        <v>5.8</v>
+      </c>
+      <c r="U26" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V26">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W26" s="10">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>52.199999999999996</v>
+      </c>
+      <c r="AA26">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AB26">
+        <v>26.45</v>
+      </c>
+      <c r="AC26" s="46">
+        <v>117.85000000000001</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="0"/>
+        <v>23.8795</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="1"/>
+        <v>15.629999999999999</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="2"/>
+        <v>28.629999999999992</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="3"/>
+        <v>3.8449999999999989</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="4"/>
+        <v>-32.475000000000009</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="5"/>
+        <v>-50.152500000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="F27" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="G27" s="10">
+        <v>270</v>
+      </c>
+      <c r="H27" s="10">
+        <v>53</v>
+      </c>
+      <c r="I27" s="10">
+        <v>22</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L27" s="10">
+        <v>48</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P27" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>53</v>
+      </c>
+      <c r="R27" s="43">
+        <v>6</v>
+      </c>
+      <c r="S27" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="T27">
+        <v>0.2</v>
+      </c>
+      <c r="U27" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="V27">
+        <v>3.9</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0.3</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>1.8</v>
+      </c>
+      <c r="AA27">
+        <v>4.8</v>
+      </c>
+      <c r="AB27">
+        <v>17.7</v>
+      </c>
+      <c r="AC27" s="46">
+        <v>24.299999999999997</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="0"/>
+        <v>1.641</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="1"/>
+        <v>-5.9999999999999609E-2</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="2"/>
+        <v>-3.0599999999999996</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="3"/>
+        <v>-2.4899999999999993</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="4"/>
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="5"/>
+        <v>1.9050000000000011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28">
+        <v>1000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="F28" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="G28" s="10">
+        <v>430</v>
+      </c>
+      <c r="H28" s="10">
+        <v>22</v>
+      </c>
+      <c r="I28" s="10">
+        <v>25</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L28" s="10">
+        <v>210</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>42</v>
+      </c>
+      <c r="R28" s="43">
+        <v>43</v>
+      </c>
+      <c r="S28" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="T28">
+        <v>0.2</v>
+      </c>
+      <c r="U28" s="10">
+        <v>17</v>
+      </c>
+      <c r="V28">
+        <v>3.5</v>
+      </c>
+      <c r="W28" s="10">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0.4</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>1.8</v>
+      </c>
+      <c r="AA28">
+        <v>4.8</v>
+      </c>
+      <c r="AB28">
+        <v>71.95</v>
+      </c>
+      <c r="AC28" s="46">
+        <v>78.55</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="0"/>
+        <v>-5.4114999999999993</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="1"/>
+        <v>-10.91</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="2"/>
+        <v>-13.91</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="3"/>
+        <v>-18.764999999999997</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="4"/>
+        <v>32.675000000000004</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="5"/>
+        <v>20.892500000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29">
+        <v>1000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G29" s="10">
+        <v>200</v>
+      </c>
+      <c r="H29" s="10">
+        <v>26</v>
+      </c>
+      <c r="I29" s="10">
+        <v>15</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L29" s="10">
+        <v>28</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>25</v>
+      </c>
+      <c r="R29" s="43">
+        <v>14</v>
+      </c>
+      <c r="S29" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29" s="10">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W29" s="10">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0.3</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>2.8</v>
+      </c>
+      <c r="AB29">
+        <v>10.6</v>
+      </c>
+      <c r="AC29" s="46">
+        <v>13.399999999999999</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="0"/>
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="2"/>
+        <v>-2.6799999999999997</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="3"/>
+        <v>-1.2199999999999998</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="4"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="5"/>
+        <v>1.8900000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30">
+        <v>1000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G30" s="10">
+        <v>220</v>
+      </c>
+      <c r="H30" s="10">
+        <v>18</v>
+      </c>
+      <c r="I30" s="10">
+        <v>17</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L30" s="10">
+        <v>8</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>32</v>
+      </c>
+      <c r="R30" s="43">
+        <v>4</v>
+      </c>
+      <c r="S30" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="V30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W30" s="10">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0.4</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>2.8</v>
+      </c>
+      <c r="AB30">
+        <v>15.350000000000001</v>
+      </c>
+      <c r="AC30" s="46">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="0"/>
+        <v>0.44049999999999967</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="1"/>
+        <v>-0.83000000000000096</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="2"/>
+        <v>-3.6300000000000008</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="3"/>
+        <v>-2.6450000000000005</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="4"/>
+        <v>6.2750000000000004</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="5"/>
+        <v>3.5525000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10">
+        <v>210</v>
+      </c>
+      <c r="H31" s="10">
+        <v>7</v>
+      </c>
+      <c r="I31" s="10">
+        <v>9</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L31" s="10">
+        <v>45</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>22</v>
+      </c>
+      <c r="R31" s="43">
+        <v>15</v>
+      </c>
+      <c r="S31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="T31">
+        <v>0.1</v>
+      </c>
+      <c r="U31" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31" s="10">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0.4</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0.9</v>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <v>16.324999999999999</v>
+      </c>
+      <c r="AC31" s="46">
+        <v>19.224999999999998</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="0"/>
+        <v>-0.49924999999999997</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="1"/>
+        <v>-1.8449999999999998</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="2"/>
+        <v>-2.9449999999999998</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="3"/>
+        <v>-3.7674999999999992</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="4"/>
+        <v>6.7125000000000004</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="5"/>
+        <v>3.8287499999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32">
+        <v>1000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="F32" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G32" s="10">
+        <v>190</v>
+      </c>
+      <c r="H32" s="10">
+        <v>11</v>
+      </c>
+      <c r="I32" s="10">
+        <v>11</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L32" s="10">
+        <v>33</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>26</v>
+      </c>
+      <c r="R32" s="43">
+        <v>76</v>
+      </c>
+      <c r="S32" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="T32">
+        <v>0.1</v>
+      </c>
+      <c r="U32" s="10">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W32" s="10">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0.2</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0.9</v>
+      </c>
+      <c r="AA32">
+        <v>2.8</v>
+      </c>
+      <c r="AB32">
+        <v>16.45</v>
+      </c>
+      <c r="AC32" s="46">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="0"/>
+        <v>0.18049999999999988</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="1"/>
+        <v>-1.2300000000000004</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="2"/>
+        <v>-3.1300000000000003</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="3"/>
+        <v>-3.2449999999999992</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="4"/>
+        <v>6.375</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="5"/>
+        <v>3.3524999999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33">
+        <v>1000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="10">
+        <v>2</v>
+      </c>
+      <c r="F33" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G33" s="10">
+        <v>290</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10">
+        <v>14</v>
+      </c>
+      <c r="J33" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="L33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>49</v>
+      </c>
+      <c r="R33" s="43">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>0.2</v>
+      </c>
+      <c r="U33" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="V33">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W33" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="X33">
+        <v>0.2</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>1.8</v>
+      </c>
+      <c r="AA33">
+        <v>8</v>
+      </c>
+      <c r="AB33">
+        <v>15.904999999999999</v>
+      </c>
+      <c r="AC33" s="46">
+        <v>25.704999999999998</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="0"/>
+        <v>4.6583500000000004</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="1"/>
+        <v>2.859</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="2"/>
+        <v>-3.3410000000000002</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="3"/>
+        <v>0.28850000000000087</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="4"/>
+        <v>3.0525000000000002</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="5"/>
+        <v>-0.80325000000000024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34">
+        <v>1000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="F34" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="G34" s="10">
+        <v>340</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>15</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>75</v>
+      </c>
+      <c r="R34" s="43">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="T34">
+        <v>0.1</v>
+      </c>
+      <c r="U34" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="V34">
+        <v>3.9</v>
+      </c>
+      <c r="W34" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0.9</v>
+      </c>
+      <c r="AA34">
+        <v>6.4</v>
+      </c>
+      <c r="AB34">
+        <v>26.04</v>
+      </c>
+      <c r="AC34" s="46">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="0"/>
+        <v>2.0657999999999994</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="1"/>
+        <v>-0.26800000000000068</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="2"/>
+        <v>-5.7680000000000007</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="3"/>
+        <v>-3.6020000000000003</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="4"/>
+        <v>9.3699999999999974</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="5"/>
+        <v>4.3689999999999962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>1000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="F35" s="10">
+        <v>3</v>
+      </c>
+      <c r="G35" s="10">
+        <v>370</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
+        <v>11</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>29</v>
+      </c>
+      <c r="R35" s="43">
+        <v>0</v>
+      </c>
+      <c r="S35" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="T35">
+        <v>0.2</v>
+      </c>
+      <c r="U35" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="X35">
+        <v>0.3</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>1.8</v>
+      </c>
+      <c r="AA35">
+        <v>6.4</v>
+      </c>
+      <c r="AB35">
+        <v>17.234999999999999</v>
+      </c>
+      <c r="AC35" s="46">
+        <v>25.435000000000002</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="0"/>
+        <v>3.0934499999999998</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="1"/>
+        <v>1.3129999999999997</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="2"/>
+        <v>-3.2870000000000008</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="3"/>
+        <v>-1.2305000000000001</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="4"/>
+        <v>4.5174999999999983</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="5"/>
+        <v>0.70224999999999582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="F36" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="G36" s="10">
+        <v>730</v>
+      </c>
+      <c r="H36" s="10">
+        <v>100</v>
+      </c>
+      <c r="I36" s="10">
+        <v>110</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L36" s="10">
+        <v>79</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>29</v>
+      </c>
+      <c r="R36" s="43">
+        <v>15</v>
+      </c>
+      <c r="S36" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="T36">
+        <v>0.1</v>
+      </c>
+      <c r="U36" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="V36">
+        <v>3.6</v>
+      </c>
+      <c r="W36" s="10">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0.9</v>
+      </c>
+      <c r="AA36">
+        <v>5.6</v>
+      </c>
+      <c r="AB36">
+        <v>16.95</v>
+      </c>
+      <c r="AC36" s="46">
+        <v>23.45</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="0"/>
+        <v>2.5514999999999994</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="1"/>
+        <v>0.90999999999999925</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="2"/>
+        <v>-3.7900000000000005</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="3"/>
+        <v>-1.4349999999999996</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="4"/>
+        <v>5.2249999999999996</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="5"/>
+        <v>1.7074999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="F37" s="10">
+        <v>51.8</v>
+      </c>
+      <c r="G37" s="10">
+        <v>6400</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="10">
+        <v>640</v>
+      </c>
+      <c r="J37" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="K37" s="10">
+        <v>1</v>
+      </c>
+      <c r="L37" s="10">
+        <v>360</v>
+      </c>
+      <c r="M37" s="10">
+        <v>0</v>
+      </c>
+      <c r="N37" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>93</v>
+      </c>
+      <c r="R37" s="43">
+        <v>0</v>
+      </c>
+      <c r="S37" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="T37">
+        <v>1.7</v>
+      </c>
+      <c r="U37" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="V37">
+        <v>51.8</v>
+      </c>
+      <c r="W37" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>15.299999999999999</v>
+      </c>
+      <c r="AA37">
+        <v>29.6</v>
+      </c>
+      <c r="AB37">
+        <v>136.54</v>
+      </c>
+      <c r="AC37" s="46">
+        <v>181.44</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="0"/>
+        <v>6.0128000000000021</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="1"/>
+        <v>-6.6880000000000024</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="2"/>
+        <v>-20.988000000000007</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="3"/>
+        <v>-24.831999999999994</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="4"/>
+        <v>45.819999999999993</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="5"/>
+        <v>18.603999999999985</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38">
+        <v>1000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G38" s="10">
+        <v>110</v>
+      </c>
+      <c r="H38" s="10">
+        <v>93</v>
+      </c>
+      <c r="I38" s="10">
+        <v>57</v>
+      </c>
+      <c r="J38" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="L38" s="10">
+        <v>0</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0</v>
+      </c>
+      <c r="N38" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>12</v>
+      </c>
+      <c r="R38" s="43">
+        <v>0</v>
+      </c>
+      <c r="S38" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="T38">
+        <v>4.5</v>
+      </c>
+      <c r="U38" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="V38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W38" s="10">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0.2</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>40.5</v>
+      </c>
+      <c r="AA38">
+        <v>26.8</v>
+      </c>
+      <c r="AB38">
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="AC38" s="46">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="0"/>
+        <v>17.297000000000001</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="1"/>
+        <v>12.180000000000001</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="2"/>
+        <v>25.880000000000003</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="3"/>
+        <v>4.8700000000000045</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="4"/>
+        <v>-30.749999999999996</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="5"/>
+        <v>-41.715000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
+      <c r="A39" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="9">
+        <v>12.3</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="G39" s="9">
+        <v>12</v>
+      </c>
+      <c r="H39" s="9">
+        <v>140</v>
+      </c>
+      <c r="I39" s="9">
+        <v>59</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="K39" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="O39" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="P39" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>3</v>
+      </c>
+      <c r="R39" s="44">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="T39" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="U39" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="V39">
+        <v>0.6</v>
+      </c>
+      <c r="W39" s="10">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>112.5</v>
+      </c>
+      <c r="AA39">
+        <v>49.2</v>
+      </c>
+      <c r="AB39">
+        <v>1.575</v>
+      </c>
+      <c r="AC39" s="46">
+        <v>163.27499999999998</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="0"/>
+        <v>27.974250000000005</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="1"/>
+        <v>16.545000000000009</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="2"/>
+        <v>79.844999999999999</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="3"/>
+        <v>0.21750000000000824</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="4"/>
+        <v>-80.062499999999986</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="5"/>
+        <v>-104.55374999999998</v>
+      </c>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="8"/>
+      <c r="AP39" s="8"/>
+      <c r="AQ39" s="8"/>
+    </row>
+    <row r="40" spans="1:43">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="8">
+        <v>150</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="F40" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="G40" s="10">
+        <v>690</v>
+      </c>
+      <c r="H40" s="10">
+        <v>91</v>
+      </c>
+      <c r="I40" s="10">
+        <v>100</v>
+      </c>
+      <c r="J40" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="K40" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="L40" s="10">
+        <v>0</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>130</v>
+      </c>
+      <c r="R40" s="43">
+        <v>3</v>
+      </c>
+      <c r="S40" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="T40">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="U40" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="V40">
+        <v>9.5</v>
+      </c>
+      <c r="W40" s="10">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>87.3</v>
+      </c>
+      <c r="AA40">
+        <v>58</v>
+      </c>
+      <c r="AB40">
+        <v>37</v>
+      </c>
+      <c r="AC40" s="46">
+        <v>182.3</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="0"/>
+        <v>34.301000000000002</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="1"/>
+        <v>21.54</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="2"/>
+        <v>50.839999999999996</v>
+      </c>
+      <c r="AG40">
+        <f t="shared" si="3"/>
+        <v>3.3099999999999952</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="4"/>
+        <v>-54.150000000000006</v>
+      </c>
+      <c r="AI40">
+        <f t="shared" si="5"/>
+        <v>-81.495000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G41" s="10">
+        <v>33</v>
+      </c>
+      <c r="H41" s="10">
+        <v>43</v>
+      </c>
+      <c r="I41" s="10">
+        <v>2</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L41" s="10">
+        <v>0</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
+        <v>0</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>1</v>
+      </c>
+      <c r="R41" s="43">
+        <v>0</v>
+      </c>
+      <c r="S41" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="V41">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W41" s="10">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0.4</v>
+      </c>
+      <c r="AB41">
+        <v>4.7750000000000004</v>
+      </c>
+      <c r="AC41" s="46">
+        <v>5.1750000000000007</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="0"/>
+        <v>-0.27275000000000005</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="1"/>
+        <v>-0.63500000000000012</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="2"/>
+        <v>-1.0350000000000001</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="3"/>
+        <v>-1.1525000000000003</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="4"/>
+        <v>2.1875</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="5"/>
+        <v>1.4112499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="E1:R1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="S3:Y3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/backend/食品標準成分表示_野菜類.xlsx
+++ b/backend/食品標準成分表示_野菜類.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ncuit-my.sharepoint.com/personal/c223062_ed_nagoya-cu_ac_jp/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="8_{ABBBF425-B777-4466-8C63-388CD85EB31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2167C434-F28E-4ACA-8F40-D71F9F766BF3}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="8_{ABBBF425-B777-4466-8C63-388CD85EB31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{898124DC-73CF-46D0-A78E-0F1BFB937B74}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="野菜類" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t>元の名前</t>
     <rPh sb="0" eb="1">
@@ -49,33 +48,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>価格の単位(g)</t>
-    <rPh sb="0" eb="2">
-      <t>カカク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成人男性の1食分の目安量(g)</t>
-    <rPh sb="0" eb="2">
-      <t>セイジン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショクブン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>メヤス</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>価格の単位</t>
   </si>
   <si>
     <t>食　品　名</t>
@@ -89,6 +62,9 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1食分の目安量</t>
   </si>
   <si>
     <t>たんぱく質</t>
@@ -234,11 +210,83 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単位</t>
+    <t>アミノ酸組成による
+たんぱく質</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脂肪酸の
+トリアシルグリセロール当量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用可能炭水化物
+（単糖当量）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食物繊維総量</t>
     <rPh sb="0" eb="2">
-      <t>タンイ</t>
+      <t>ショクモツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>糖アルコール</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有機酸</t>
+    <rPh sb="0" eb="3">
+      <t>ユウキサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルコール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脂質のエネルギー</t>
+  </si>
+  <si>
+    <t>タンパク質のエネルギー</t>
+  </si>
+  <si>
+    <t>炭水化物のエネルギー</t>
+  </si>
+  <si>
+    <t>総エネルギー</t>
+  </si>
+  <si>
+    <t>pi-0.13ti</t>
+  </si>
+  <si>
+    <t>ti-0.2pi</t>
+  </si>
+  <si>
+    <t>fi-0.2ti</t>
+  </si>
+  <si>
+    <t>ti-0.3fi</t>
+  </si>
+  <si>
+    <t>ci-0.5ti</t>
+  </si>
+  <si>
+    <t>ti-0.65ci</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
   <si>
     <t>g</t>
@@ -276,6 +324,9 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>kcal</t>
+  </si>
+  <si>
     <t>＜牛乳及び乳製品＞　（液状乳類）　普通牛乳</t>
   </si>
   <si>
@@ -558,85 +609,6 @@
   <si>
     <t>こんにゃく</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アミノ酸組成による
-たんぱく質</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>脂肪酸の
-トリアシルグリセロール当量</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用可能炭水化物
-（単糖当量）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食物繊維総量</t>
-    <rPh sb="0" eb="2">
-      <t>ショクモツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>糖アルコール</t>
-    <rPh sb="0" eb="1">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有機酸</t>
-    <rPh sb="0" eb="3">
-      <t>ユウキサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルコール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>脂質のエネルギー</t>
-  </si>
-  <si>
-    <t>タンパク質のエネルギー</t>
-  </si>
-  <si>
-    <t>炭水化物のエネルギー</t>
-  </si>
-  <si>
-    <t>総エネルギー</t>
-  </si>
-  <si>
-    <t>pi-0.13ti</t>
-  </si>
-  <si>
-    <t>ti-0.2pi</t>
-  </si>
-  <si>
-    <t>fi-0.2ti</t>
-  </si>
-  <si>
-    <t>ti-0.3fi</t>
-  </si>
-  <si>
-    <t>ci-0.5ti</t>
-  </si>
-  <si>
-    <t>ti-0.65ci</t>
-  </si>
-  <si>
-    <t>kcal</t>
   </si>
 </sst>
 </file>
@@ -729,7 +701,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -938,19 +910,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="double">
         <color rgb="FF000000"/>
@@ -1016,7 +975,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,25 +1039,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1134,35 +1096,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1498,2319 +1439,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4954CF37-5B10-4F36-9A3C-57E2CD2BDD68}">
-  <dimension ref="A1:AG41"/>
-  <sheetViews>
-    <sheetView topLeftCell="J20" zoomScale="71" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="18">
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-    </row>
-    <row r="2" spans="1:29" ht="150">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-    </row>
-    <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-    </row>
-    <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>1032</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>150</v>
-      </c>
-      <c r="H4" s="10">
-        <v>110</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="L4" s="10">
-        <v>38</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>5</v>
-      </c>
-      <c r="R4" s="10">
-        <v>1</v>
-      </c>
-      <c r="S4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="W4" s="10"/>
-    </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="10">
-        <v>21.6</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>60</v>
-      </c>
-      <c r="H5" s="10">
-        <v>630</v>
-      </c>
-      <c r="I5" s="10">
-        <v>19</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K5" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="L5" s="10">
-        <v>250</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>27</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0</v>
-      </c>
-      <c r="S5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="W5" s="10"/>
-    </row>
-    <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>125</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="10">
-        <v>17.7</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>120</v>
-      </c>
-      <c r="H6" s="10">
-        <v>460</v>
-      </c>
-      <c r="I6" s="10">
-        <v>20</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="K6" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="L6" s="10">
-        <v>240</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="O6" s="10">
-        <v>0.48</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>47</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="W6" s="10"/>
-    </row>
-    <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>400</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="10">
-        <v>3.3</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>170</v>
-      </c>
-      <c r="H7" s="10">
-        <v>120</v>
-      </c>
-      <c r="I7" s="10">
-        <v>12</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="L7" s="10">
-        <v>33</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>11</v>
-      </c>
-      <c r="R7" s="10">
-        <v>1</v>
-      </c>
-      <c r="S7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="W7" s="10"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
-        <v>630</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="10">
-        <v>11.3</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>130</v>
-      </c>
-      <c r="H8" s="10">
-        <v>46</v>
-      </c>
-      <c r="I8" s="10">
-        <v>10</v>
-      </c>
-      <c r="J8" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L8" s="10">
-        <v>210</v>
-      </c>
-      <c r="M8" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0.37</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>49</v>
-      </c>
-      <c r="R8" s="10">
-        <v>0</v>
-      </c>
-      <c r="S8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="W8" s="10"/>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="G9" s="10">
-        <v>190</v>
-      </c>
-      <c r="H9" s="10">
-        <v>42</v>
-      </c>
-      <c r="I9" s="10">
-        <v>14</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="10">
-        <v>2</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>66</v>
-      </c>
-      <c r="R9" s="10">
-        <v>38</v>
-      </c>
-      <c r="S9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="W9" s="10"/>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>1000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="F10" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="G10" s="10">
-        <v>690</v>
-      </c>
-      <c r="H10" s="10">
-        <v>49</v>
-      </c>
-      <c r="I10" s="10">
-        <v>69</v>
-      </c>
-      <c r="J10" s="10">
-        <v>2</v>
-      </c>
-      <c r="K10" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="L10" s="10">
-        <v>350</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="O10" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>210</v>
-      </c>
-      <c r="R10" s="10">
-        <v>35</v>
-      </c>
-      <c r="S10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="W10" s="10"/>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="G11" s="10">
-        <v>220</v>
-      </c>
-      <c r="H11" s="10">
-        <v>43</v>
-      </c>
-      <c r="I11" s="10">
-        <v>10</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L11" s="10">
-        <v>8</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>61</v>
-      </c>
-      <c r="R11" s="10">
-        <v>19</v>
-      </c>
-      <c r="S11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="W11" s="10"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12">
-        <v>1000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="G12" s="10">
-        <v>200</v>
-      </c>
-      <c r="H12" s="10">
-        <v>36</v>
-      </c>
-      <c r="I12" s="10">
-        <v>13</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L12" s="10">
-        <v>7</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="O12" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="P12" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>72</v>
-      </c>
-      <c r="R12" s="10">
-        <v>14</v>
-      </c>
-      <c r="S12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="W12" s="10"/>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G13" s="10">
-        <v>200</v>
-      </c>
-      <c r="H13" s="10">
-        <v>19</v>
-      </c>
-      <c r="I13" s="10">
-        <v>8</v>
-      </c>
-      <c r="J13" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="10">
-        <v>20</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>73</v>
-      </c>
-      <c r="R13" s="10">
-        <v>5</v>
-      </c>
-      <c r="S13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="W13" s="10"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14">
-        <v>1000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="F14" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G14" s="10">
-        <v>160</v>
-      </c>
-      <c r="H14" s="10">
-        <v>25</v>
-      </c>
-      <c r="I14" s="10">
-        <v>23</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L14" s="10">
-        <v>2</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>44</v>
-      </c>
-      <c r="R14" s="10">
-        <v>4</v>
-      </c>
-      <c r="S14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>1000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="F15" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G15" s="10">
-        <v>460</v>
-      </c>
-      <c r="H15" s="10">
-        <v>50</v>
-      </c>
-      <c r="I15" s="10">
-        <v>29</v>
-      </c>
-      <c r="J15" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="L15" s="10">
-        <v>75</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>220</v>
-      </c>
-      <c r="R15" s="10">
-        <v>140</v>
-      </c>
-      <c r="S15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="W15" s="10"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16">
-        <v>1000</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1.8</v>
-      </c>
-      <c r="G16" s="10">
-        <v>270</v>
-      </c>
-      <c r="H16" s="10">
-        <v>19</v>
-      </c>
-      <c r="I16" s="10">
-        <v>9</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="10">
-        <v>31</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0</v>
-      </c>
-      <c r="N16" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O16" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>190</v>
-      </c>
-      <c r="R16" s="10">
-        <v>15</v>
-      </c>
-      <c r="S16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="W16" s="10"/>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17">
-        <v>1000</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="F17" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="G17" s="10">
-        <v>380</v>
-      </c>
-      <c r="H17" s="10">
-        <v>40</v>
-      </c>
-      <c r="I17" s="10">
-        <v>24</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L17" s="10">
-        <v>3</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>49</v>
-      </c>
-      <c r="R17" s="10">
-        <v>25</v>
-      </c>
-      <c r="S17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="W17" s="10"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18">
-        <v>1000</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="F18" s="10">
-        <v>8.9</v>
-      </c>
-      <c r="G18" s="10">
-        <v>410</v>
-      </c>
-      <c r="H18" s="10">
-        <v>4</v>
-      </c>
-      <c r="I18" s="10">
-        <v>19</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>20</v>
-      </c>
-      <c r="R18" s="10">
-        <v>28</v>
-      </c>
-      <c r="S18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="W18" s="10"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19">
-        <v>1000</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="F19" s="10">
-        <v>2.4</v>
-      </c>
-      <c r="G19" s="10">
-        <v>560</v>
-      </c>
-      <c r="H19" s="10">
-        <v>14</v>
-      </c>
-      <c r="I19" s="10">
-        <v>17</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="O19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>28</v>
-      </c>
-      <c r="R19" s="10">
-        <v>5</v>
-      </c>
-      <c r="S19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="W19" s="10"/>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20">
-        <v>1000</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="G20" s="10">
-        <v>230</v>
-      </c>
-      <c r="H20" s="10">
-        <v>23</v>
-      </c>
-      <c r="I20" s="10">
-        <v>10</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L20" s="10">
-        <v>0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="O20" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="P20" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>33</v>
-      </c>
-      <c r="R20" s="10">
-        <v>11</v>
-      </c>
-      <c r="S20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="W20" s="10"/>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21">
-        <v>1000</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="G21" s="10">
-        <v>300</v>
-      </c>
-      <c r="H21" s="10">
-        <v>24</v>
-      </c>
-      <c r="I21" s="10">
-        <v>9</v>
-      </c>
-      <c r="J21" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="K21" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L21" s="10">
-        <v>630</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="O21" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>23</v>
-      </c>
-      <c r="R21" s="10">
-        <v>4</v>
-      </c>
-      <c r="S21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="W21" s="10"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22">
-        <v>1000</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F22" s="10">
-        <v>5.7</v>
-      </c>
-      <c r="G22" s="10">
-        <v>320</v>
-      </c>
-      <c r="H22" s="10">
-        <v>46</v>
-      </c>
-      <c r="I22" s="10">
-        <v>54</v>
-      </c>
-      <c r="J22" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="K22" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="L22" s="10">
-        <v>0</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0</v>
-      </c>
-      <c r="N22" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="O22" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>68</v>
-      </c>
-      <c r="R22" s="10">
-        <v>3</v>
-      </c>
-      <c r="S22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="W22" s="10"/>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23">
-        <v>1000</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="G23" s="10">
-        <v>150</v>
-      </c>
-      <c r="H23" s="10">
-        <v>17</v>
-      </c>
-      <c r="I23" s="10">
-        <v>9</v>
-      </c>
-      <c r="J23" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K23" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L23" s="10">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
-      <c r="N23" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="O23" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>15</v>
-      </c>
-      <c r="R23" s="10">
-        <v>7</v>
-      </c>
-      <c r="S23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="W23" s="10"/>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24">
-        <v>1000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="F24" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G24" s="10">
-        <v>240</v>
-      </c>
-      <c r="H24" s="10">
-        <v>20</v>
-      </c>
-      <c r="I24" s="10">
-        <v>13</v>
-      </c>
-      <c r="J24" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L24" s="10">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="O24" s="10">
-        <v>0</v>
-      </c>
-      <c r="P24" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>8</v>
-      </c>
-      <c r="R24" s="10">
-        <v>18</v>
-      </c>
-      <c r="S24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="W24" s="10"/>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25">
-        <v>1000</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>430</v>
-      </c>
-      <c r="H25" s="10">
-        <v>17</v>
-      </c>
-      <c r="I25" s="10">
-        <v>17</v>
-      </c>
-      <c r="J25" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="K25" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0</v>
-      </c>
-      <c r="N25" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="O25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="P25" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>8</v>
-      </c>
-      <c r="R25" s="10">
-        <v>6</v>
-      </c>
-      <c r="S25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="W25" s="10"/>
-    </row>
-    <row r="26" spans="1:23">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26">
-        <v>1000</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="10">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F26" s="10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G26" s="10">
-        <v>490</v>
-      </c>
-      <c r="H26" s="10">
-        <v>76</v>
-      </c>
-      <c r="I26" s="10">
-        <v>72</v>
-      </c>
-      <c r="J26" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="K26" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="L26" s="10">
-        <v>24</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="10">
-        <v>0.24</v>
-      </c>
-      <c r="O26" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="P26" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>260</v>
-      </c>
-      <c r="R26" s="10">
-        <v>15</v>
-      </c>
-      <c r="S26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="W26" s="10"/>
-    </row>
-    <row r="27" spans="1:23">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27">
-        <v>1000</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="F27" s="10">
-        <v>3.9</v>
-      </c>
-      <c r="G27" s="10">
-        <v>270</v>
-      </c>
-      <c r="H27" s="10">
-        <v>53</v>
-      </c>
-      <c r="I27" s="10">
-        <v>22</v>
-      </c>
-      <c r="J27" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="K27" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L27" s="10">
-        <v>48</v>
-      </c>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
-      <c r="N27" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="O27" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P27" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q27" s="10">
-        <v>53</v>
-      </c>
-      <c r="R27" s="10">
-        <v>6</v>
-      </c>
-      <c r="S27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="W27" s="10"/>
-    </row>
-    <row r="28" spans="1:23">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28">
-        <v>1000</v>
-      </c>
-      <c r="D28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="F28" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="G28" s="10">
-        <v>430</v>
-      </c>
-      <c r="H28" s="10">
-        <v>22</v>
-      </c>
-      <c r="I28" s="10">
-        <v>25</v>
-      </c>
-      <c r="J28" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="K28" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L28" s="10">
-        <v>210</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0</v>
-      </c>
-      <c r="N28" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O28" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="P28" s="10">
-        <v>0.23</v>
-      </c>
-      <c r="Q28" s="10">
-        <v>42</v>
-      </c>
-      <c r="R28" s="10">
-        <v>43</v>
-      </c>
-      <c r="S28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="W28" s="10"/>
-    </row>
-    <row r="29" spans="1:23">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29">
-        <v>1000</v>
-      </c>
-      <c r="D29" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G29" s="10">
-        <v>200</v>
-      </c>
-      <c r="H29" s="10">
-        <v>26</v>
-      </c>
-      <c r="I29" s="10">
-        <v>15</v>
-      </c>
-      <c r="J29" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L29" s="10">
-        <v>28</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0</v>
-      </c>
-      <c r="N29" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="O29" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="Q29" s="10">
-        <v>25</v>
-      </c>
-      <c r="R29" s="10">
-        <v>14</v>
-      </c>
-      <c r="S29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="W29" s="10"/>
-    </row>
-    <row r="30" spans="1:23">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30">
-        <v>1000</v>
-      </c>
-      <c r="D30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="F30" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G30" s="10">
-        <v>220</v>
-      </c>
-      <c r="H30" s="10">
-        <v>18</v>
-      </c>
-      <c r="I30" s="10">
-        <v>17</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K30" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L30" s="10">
-        <v>8</v>
-      </c>
-      <c r="M30" s="10">
-        <v>0</v>
-      </c>
-      <c r="N30" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="O30" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="P30" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="Q30" s="10">
-        <v>32</v>
-      </c>
-      <c r="R30" s="10">
-        <v>4</v>
-      </c>
-      <c r="S30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="W30" s="10"/>
-    </row>
-    <row r="31" spans="1:23">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31">
-        <v>1000</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>210</v>
-      </c>
-      <c r="H31" s="10">
-        <v>7</v>
-      </c>
-      <c r="I31" s="10">
-        <v>9</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="K31" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L31" s="10">
-        <v>45</v>
-      </c>
-      <c r="M31" s="10">
-        <v>0</v>
-      </c>
-      <c r="N31" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="O31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="P31" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>22</v>
-      </c>
-      <c r="R31" s="10">
-        <v>15</v>
-      </c>
-      <c r="S31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="W31" s="10"/>
-    </row>
-    <row r="32" spans="1:23">
-      <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32">
-        <v>1000</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="F32" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G32" s="10">
-        <v>190</v>
-      </c>
-      <c r="H32" s="10">
-        <v>11</v>
-      </c>
-      <c r="I32" s="10">
-        <v>11</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="K32" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L32" s="10">
-        <v>33</v>
-      </c>
-      <c r="M32" s="10">
-        <v>0</v>
-      </c>
-      <c r="N32" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="O32" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="P32" s="10">
-        <v>0.19</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>26</v>
-      </c>
-      <c r="R32" s="10">
-        <v>76</v>
-      </c>
-      <c r="S32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="W32" s="10"/>
-    </row>
-    <row r="33" spans="1:33">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33">
-        <v>1000</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="10">
-        <v>2</v>
-      </c>
-      <c r="F33" s="10">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G33" s="10">
-        <v>290</v>
-      </c>
-      <c r="H33" s="10">
-        <v>1</v>
-      </c>
-      <c r="I33" s="10">
-        <v>14</v>
-      </c>
-      <c r="J33" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="L33" s="10">
-        <v>0</v>
-      </c>
-      <c r="M33" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="N33" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="O33" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="P33" s="10">
-        <v>0.21</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>49</v>
-      </c>
-      <c r="R33" s="10">
-        <v>0</v>
-      </c>
-      <c r="S33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="W33" s="10"/>
-    </row>
-    <row r="34" spans="1:33">
-      <c r="A34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34">
-        <v>1000</v>
-      </c>
-      <c r="D34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="F34" s="10">
-        <v>3.9</v>
-      </c>
-      <c r="G34" s="10">
-        <v>340</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <v>15</v>
-      </c>
-      <c r="J34" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K34" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0</v>
-      </c>
-      <c r="M34" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="N34" s="10">
-        <v>0.24</v>
-      </c>
-      <c r="O34" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="P34" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>75</v>
-      </c>
-      <c r="R34" s="10">
-        <v>0</v>
-      </c>
-      <c r="S34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="W34" s="10"/>
-    </row>
-    <row r="35" spans="1:33">
-      <c r="A35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35">
-        <v>1000</v>
-      </c>
-      <c r="D35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="F35" s="10">
-        <v>3</v>
-      </c>
-      <c r="G35" s="10">
-        <v>370</v>
-      </c>
-      <c r="H35" s="10">
-        <v>1</v>
-      </c>
-      <c r="I35" s="10">
-        <v>11</v>
-      </c>
-      <c r="J35" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K35" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="N35" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="O35" s="10">
-        <v>0.17</v>
-      </c>
-      <c r="P35" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>29</v>
-      </c>
-      <c r="R35" s="10">
-        <v>0</v>
-      </c>
-      <c r="S35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="W35" s="10"/>
-    </row>
-    <row r="36" spans="1:33">
-      <c r="A36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36">
-        <v>100</v>
-      </c>
-      <c r="D36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="F36" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="G36" s="10">
-        <v>730</v>
-      </c>
-      <c r="H36" s="10">
-        <v>100</v>
-      </c>
-      <c r="I36" s="10">
-        <v>110</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="K36" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L36" s="10">
-        <v>79</v>
-      </c>
-      <c r="M36" s="10">
-        <v>0</v>
-      </c>
-      <c r="N36" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O36" s="10">
-        <v>0.18</v>
-      </c>
-      <c r="P36" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>29</v>
-      </c>
-      <c r="R36" s="10">
-        <v>15</v>
-      </c>
-      <c r="S36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="W36" s="10"/>
-    </row>
-    <row r="37" spans="1:33">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37">
-        <v>100</v>
-      </c>
-      <c r="D37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="10">
-        <v>7.4</v>
-      </c>
-      <c r="F37" s="10">
-        <v>51.8</v>
-      </c>
-      <c r="G37" s="10">
-        <v>6400</v>
-      </c>
-      <c r="H37" s="10">
-        <v>1000</v>
-      </c>
-      <c r="I37" s="10">
-        <v>640</v>
-      </c>
-      <c r="J37" s="10">
-        <v>6.2</v>
-      </c>
-      <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="L37" s="10">
-        <v>360</v>
-      </c>
-      <c r="M37" s="10">
-        <v>0</v>
-      </c>
-      <c r="N37" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="O37" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="P37" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>93</v>
-      </c>
-      <c r="R37" s="10">
-        <v>0</v>
-      </c>
-      <c r="S37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="W37" s="10"/>
-    </row>
-    <row r="38" spans="1:33">
-      <c r="A38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38">
-        <v>1000</v>
-      </c>
-      <c r="D38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="10">
-        <v>6.7</v>
-      </c>
-      <c r="F38" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G38" s="10">
-        <v>110</v>
-      </c>
-      <c r="H38" s="10">
-        <v>93</v>
-      </c>
-      <c r="I38" s="10">
-        <v>57</v>
-      </c>
-      <c r="J38" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="K38" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="L38" s="10">
-        <v>0</v>
-      </c>
-      <c r="M38" s="10">
-        <v>0</v>
-      </c>
-      <c r="N38" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="O38" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="P38" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>12</v>
-      </c>
-      <c r="R38" s="10">
-        <v>0</v>
-      </c>
-      <c r="S38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="W38" s="10"/>
-    </row>
-    <row r="39" spans="1:33" s="8" customFormat="1">
-      <c r="A39" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="9">
-        <v>12.3</v>
-      </c>
-      <c r="F39" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="G39" s="9">
-        <v>12</v>
-      </c>
-      <c r="H39" s="9">
-        <v>140</v>
-      </c>
-      <c r="I39" s="9">
-        <v>59</v>
-      </c>
-      <c r="J39" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="K39" s="9">
-        <v>1.4</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0</v>
-      </c>
-      <c r="M39" s="9">
-        <v>0</v>
-      </c>
-      <c r="N39" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="O39" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="P39" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>3</v>
-      </c>
-      <c r="R39" s="9">
-        <v>0</v>
-      </c>
-      <c r="S39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39"/>
-      <c r="W39" s="10"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
-      <c r="AE39"/>
-      <c r="AF39"/>
-      <c r="AG39"/>
-    </row>
-    <row r="40" spans="1:33">
-      <c r="A40" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="8">
-        <v>150</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="10">
-        <v>14.5</v>
-      </c>
-      <c r="F40" s="10">
-        <v>9.5</v>
-      </c>
-      <c r="G40" s="10">
-        <v>690</v>
-      </c>
-      <c r="H40" s="10">
-        <v>91</v>
-      </c>
-      <c r="I40" s="10">
-        <v>100</v>
-      </c>
-      <c r="J40" s="10">
-        <v>3.3</v>
-      </c>
-      <c r="K40" s="10">
-        <v>1.9</v>
-      </c>
-      <c r="L40" s="10">
-        <v>0</v>
-      </c>
-      <c r="M40" s="10">
-        <v>0</v>
-      </c>
-      <c r="N40" s="10">
-        <v>0.13</v>
-      </c>
-      <c r="O40" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="P40" s="10">
-        <v>0.24</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>130</v>
-      </c>
-      <c r="R40" s="10">
-        <v>3</v>
-      </c>
-      <c r="S40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="W40" s="10"/>
-    </row>
-    <row r="41" spans="1:33">
-      <c r="A41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F41" s="10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G41" s="10">
-        <v>33</v>
-      </c>
-      <c r="H41" s="10">
-        <v>43</v>
-      </c>
-      <c r="I41" s="10">
-        <v>2</v>
-      </c>
-      <c r="J41" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="K41" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L41" s="10">
-        <v>0</v>
-      </c>
-      <c r="M41" s="10">
-        <v>0</v>
-      </c>
-      <c r="N41" s="10">
-        <v>0</v>
-      </c>
-      <c r="O41" s="10">
-        <v>0</v>
-      </c>
-      <c r="P41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Q41" s="10">
-        <v>1</v>
-      </c>
-      <c r="R41" s="10">
-        <v>0</v>
-      </c>
-      <c r="S41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="W41" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="E1:R1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24534400-F245-4B3F-A75E-948BF1262C7E}">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA33" workbookViewId="0">
-      <selection activeCell="AJ41" sqref="AJ41"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="54.375" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="8.125" customWidth="1"/>
     <col min="7" max="10" width="12.125" customWidth="1"/>
@@ -3819,20 +1460,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:35" ht="285">
       <c r="A2" s="1" t="s">
@@ -3841,10 +1482,10 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -3886,119 +1527,124 @@
       <c r="Q2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="U2" s="16" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="AB2" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC2" s="48" t="s">
-        <v>109</v>
+        <v>27</v>
+      </c>
+      <c r="AC2" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="AD2" s="19" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="AE2" s="18" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="AG2" s="17" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="AH2" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI2" s="45" t="s">
-        <v>115</v>
+        <v>33</v>
+      </c>
+      <c r="AI2" s="25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="30"/>
+      <c r="B3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="36"/>
+      <c r="N3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="37"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="47"/>
+        <v>38</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="42"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="40"/>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
+        <v>41</v>
+      </c>
+      <c r="B4" s="10">
         <v>1032</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
       </c>
       <c r="E4" s="10">
         <v>3</v>
@@ -4039,7 +1685,7 @@
       <c r="Q4" s="10">
         <v>5</v>
       </c>
-      <c r="R4" s="43">
+      <c r="R4" s="23">
         <v>1</v>
       </c>
       <c r="S4" s="10">
@@ -4072,43 +1718,40 @@
       <c r="AB4">
         <v>18.225000000000001</v>
       </c>
-      <c r="AC4" s="46">
+      <c r="AC4" s="26">
         <v>61.725000000000001</v>
       </c>
       <c r="AD4">
-        <f>AA4-0.13*AC4</f>
         <v>3.9757499999999997</v>
       </c>
       <c r="AE4">
-        <f>AA4-0.2*AC4</f>
         <v>-0.34500000000000064</v>
       </c>
       <c r="AF4">
-        <f>Z4-0.2*AC4</f>
         <v>19.155000000000001</v>
       </c>
       <c r="AG4">
-        <f>AA4-0.3*AC4</f>
         <v>-6.5174999999999983</v>
       </c>
       <c r="AH4">
-        <f>AB4-0.5*AC4</f>
         <v>-12.637499999999999</v>
       </c>
       <c r="AI4">
-        <f>AB4-0.65*AC4</f>
         <v>-21.896250000000002</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
       </c>
       <c r="E5" s="10">
         <v>21.6</v>
@@ -4149,7 +1792,7 @@
       <c r="Q5" s="10">
         <v>27</v>
       </c>
-      <c r="R5" s="43">
+      <c r="R5" s="23">
         <v>0</v>
       </c>
       <c r="S5" s="10">
@@ -4182,43 +1825,40 @@
       <c r="AB5">
         <v>4.2750000000000004</v>
       </c>
-      <c r="AC5" s="46">
+      <c r="AC5" s="26">
         <v>312.97499999999997</v>
       </c>
       <c r="AD5">
-        <f t="shared" ref="AD5:AD41" si="0">AA5-0.13*AC5</f>
         <v>45.713250000000009</v>
       </c>
       <c r="AE5">
-        <f t="shared" ref="AE5:AE41" si="1">AA5-0.2*AC5</f>
         <v>23.805000000000007</v>
       </c>
       <c r="AF5">
-        <f t="shared" ref="AF5:AF41" si="2">Z5-0.2*AC5</f>
         <v>159.70499999999998</v>
       </c>
       <c r="AG5">
-        <f t="shared" ref="AG5:AG41" si="3">AA5-0.3*AC5</f>
         <v>-7.4924999999999784</v>
       </c>
       <c r="AH5">
-        <f t="shared" ref="AH5:AH41" si="4">AB5-0.5*AC5</f>
         <v>-152.21249999999998</v>
       </c>
       <c r="AI5">
-        <f t="shared" ref="AI5:AI41" si="5">AB5-0.65*AC5</f>
         <v>-199.15874999999997</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>125</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
       </c>
       <c r="E6" s="10">
         <v>17.7</v>
@@ -4259,7 +1899,7 @@
       <c r="Q6" s="10">
         <v>47</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="23">
         <v>0</v>
       </c>
       <c r="S6" s="10">
@@ -4292,43 +1932,40 @@
       <c r="AB6">
         <v>16.649999999999999</v>
       </c>
-      <c r="AC6" s="46">
+      <c r="AC6" s="26">
         <v>289.95</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="0"/>
         <v>33.106499999999997</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="1"/>
         <v>12.809999999999995</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="2"/>
         <v>144.51</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="3"/>
         <v>-16.185000000000002</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="4"/>
         <v>-128.32499999999999</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="5"/>
         <v>-171.8175</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>400</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
       </c>
       <c r="E7" s="10">
         <v>3.3</v>
@@ -4369,7 +2006,7 @@
       <c r="Q7" s="10">
         <v>11</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R7" s="23">
         <v>1</v>
       </c>
       <c r="S7" s="10">
@@ -4402,43 +2039,40 @@
       <c r="AB7">
         <v>17.324999999999999</v>
       </c>
-      <c r="AC7" s="46">
+      <c r="AC7" s="26">
         <v>55.724999999999994</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="0"/>
         <v>5.9557500000000001</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="1"/>
         <v>2.0549999999999997</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="2"/>
         <v>14.055</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="3"/>
         <v>-3.5174999999999983</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="4"/>
         <v>-10.537499999999998</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="5"/>
         <v>-18.896249999999998</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>630</v>
       </c>
-      <c r="D8" t="s">
-        <v>32</v>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
       </c>
       <c r="E8" s="10">
         <v>11.3</v>
@@ -4479,7 +2113,7 @@
       <c r="Q8" s="10">
         <v>49</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="23">
         <v>0</v>
       </c>
       <c r="S8" s="10">
@@ -4512,43 +2146,40 @@
       <c r="AB8">
         <v>12.75</v>
       </c>
-      <c r="AC8" s="46">
+      <c r="AC8" s="26">
         <v>141.65</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="0"/>
         <v>26.785500000000003</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="1"/>
         <v>16.87</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="2"/>
         <v>55.370000000000005</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="3"/>
         <v>2.7050000000000054</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="4"/>
         <v>-58.075000000000003</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="5"/>
         <v>-79.322500000000005</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>1000</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
       </c>
       <c r="E9" s="10">
         <v>0.8</v>
@@ -4589,7 +2220,7 @@
       <c r="Q9" s="10">
         <v>66</v>
       </c>
-      <c r="R9" s="43">
+      <c r="R9" s="23">
         <v>38</v>
       </c>
       <c r="S9" s="10">
@@ -4622,43 +2253,40 @@
       <c r="AB9">
         <v>18.525000000000002</v>
       </c>
-      <c r="AC9" s="46">
+      <c r="AC9" s="26">
         <v>21.725000000000001</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="0"/>
         <v>0.37575000000000003</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="1"/>
         <v>-1.1450000000000005</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="2"/>
         <v>-4.3450000000000006</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="3"/>
         <v>-3.3174999999999999</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="4"/>
         <v>7.6625000000000014</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="5"/>
         <v>4.4037500000000005</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>1000</v>
       </c>
-      <c r="D10" t="s">
-        <v>36</v>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
       </c>
       <c r="E10" s="10">
         <v>1.7</v>
@@ -4699,7 +2327,7 @@
       <c r="Q10" s="10">
         <v>210</v>
       </c>
-      <c r="R10" s="43">
+      <c r="R10" s="23">
         <v>35</v>
       </c>
       <c r="S10" s="10">
@@ -4732,43 +2360,40 @@
       <c r="AB10">
         <v>9.4250000000000007</v>
       </c>
-      <c r="AC10" s="46">
+      <c r="AC10" s="26">
         <v>18.024999999999999</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="0"/>
         <v>4.4567499999999995</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="1"/>
         <v>3.1949999999999998</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="2"/>
         <v>-1.8049999999999999</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="3"/>
         <v>1.3925000000000001</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="4"/>
         <v>0.41250000000000142</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="5"/>
         <v>-2.291249999999998</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>1000</v>
       </c>
-      <c r="D11" t="s">
-        <v>38</v>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>70</v>
       </c>
       <c r="E11" s="10">
         <v>0.6</v>
@@ -4809,7 +2434,7 @@
       <c r="Q11" s="10">
         <v>61</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="23">
         <v>19</v>
       </c>
       <c r="S11" s="10">
@@ -4842,43 +2467,40 @@
       <c r="AB11">
         <v>10.1</v>
       </c>
-      <c r="AC11" s="46">
+      <c r="AC11" s="26">
         <v>12.5</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="0"/>
         <v>0.77499999999999991</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="1"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="2"/>
         <v>-2.5</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="3"/>
         <v>-1.35</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="4"/>
         <v>3.8499999999999996</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="5"/>
         <v>1.9749999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>1000</v>
       </c>
-      <c r="D12" t="s">
-        <v>40</v>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -4919,7 +2541,7 @@
       <c r="Q12" s="10">
         <v>72</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="23">
         <v>14</v>
       </c>
       <c r="S12" s="10">
@@ -4952,43 +2574,40 @@
       <c r="AB12">
         <v>29</v>
       </c>
-      <c r="AC12" s="46">
+      <c r="AC12" s="26">
         <v>33</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="0"/>
         <v>-0.29000000000000004</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="1"/>
         <v>-2.6000000000000005</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="2"/>
         <v>-6.6000000000000005</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="3"/>
         <v>-5.9</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="5"/>
         <v>7.5500000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>1000</v>
       </c>
-      <c r="D13" t="s">
-        <v>42</v>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
       </c>
       <c r="E13" s="10">
         <v>0.5</v>
@@ -5029,7 +2648,7 @@
       <c r="Q13" s="10">
         <v>73</v>
       </c>
-      <c r="R13" s="43">
+      <c r="R13" s="23">
         <v>5</v>
       </c>
       <c r="S13" s="10">
@@ -5062,43 +2681,40 @@
       <c r="AB13">
         <v>8.5749999999999993</v>
       </c>
-      <c r="AC13" s="46">
+      <c r="AC13" s="26">
         <v>10.574999999999999</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="0"/>
         <v>0.62525000000000008</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="1"/>
         <v>-0.11499999999999977</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="2"/>
         <v>-2.1149999999999998</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="3"/>
         <v>-1.1724999999999999</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="4"/>
         <v>3.2874999999999996</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="5"/>
         <v>1.7012499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>1000</v>
       </c>
-      <c r="D14" t="s">
-        <v>44</v>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>70</v>
       </c>
       <c r="E14" s="10">
         <v>2.8</v>
@@ -5139,7 +2755,7 @@
       <c r="Q14" s="10">
         <v>44</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="23">
         <v>4</v>
       </c>
       <c r="S14" s="10">
@@ -5172,43 +2788,40 @@
       <c r="AB14">
         <v>6.85</v>
       </c>
-      <c r="AC14" s="46">
+      <c r="AC14" s="26">
         <v>28.85</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="0"/>
         <v>7.4494999999999987</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="1"/>
         <v>5.4299999999999988</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="2"/>
         <v>5.0299999999999985</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="3"/>
         <v>2.5449999999999999</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="4"/>
         <v>-7.5750000000000011</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="5"/>
         <v>-11.902500000000002</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>1000</v>
       </c>
-      <c r="D15" t="s">
-        <v>46</v>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15">
+        <v>70</v>
       </c>
       <c r="E15" s="10">
         <v>3.8</v>
@@ -5249,7 +2862,7 @@
       <c r="Q15" s="10">
         <v>220</v>
       </c>
-      <c r="R15" s="43">
+      <c r="R15" s="23">
         <v>140</v>
       </c>
       <c r="S15" s="10">
@@ -5282,43 +2895,40 @@
       <c r="AB15">
         <v>20.099999999999998</v>
       </c>
-      <c r="AC15" s="46">
+      <c r="AC15" s="26">
         <v>38</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="0"/>
         <v>10.259999999999998</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="1"/>
         <v>7.5999999999999988</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="2"/>
         <v>-4.9000000000000004</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="3"/>
         <v>3.7999999999999989</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="4"/>
         <v>1.0999999999999979</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="5"/>
         <v>-4.6000000000000014</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>1000</v>
       </c>
-      <c r="D16" t="s">
-        <v>48</v>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
       </c>
       <c r="E16" s="10">
         <v>1.8</v>
@@ -5359,7 +2969,7 @@
       <c r="Q16" s="10">
         <v>190</v>
       </c>
-      <c r="R16" s="43">
+      <c r="R16" s="23">
         <v>15</v>
       </c>
       <c r="S16" s="10">
@@ -5392,43 +3002,40 @@
       <c r="AB16">
         <v>12.074999999999999</v>
       </c>
-      <c r="AC16" s="46">
+      <c r="AC16" s="26">
         <v>21.074999999999999</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="0"/>
         <v>4.4602500000000003</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="1"/>
         <v>2.9850000000000003</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="2"/>
         <v>-2.415</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="3"/>
         <v>0.87750000000000039</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="4"/>
         <v>1.5374999999999996</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="5"/>
         <v>-1.6237500000000011</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>1000</v>
       </c>
-      <c r="D17" t="s">
-        <v>50</v>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
       </c>
       <c r="E17" s="10">
         <v>0.8</v>
@@ -5469,7 +3076,7 @@
       <c r="Q17" s="10">
         <v>49</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="23">
         <v>25</v>
       </c>
       <c r="S17" s="10">
@@ -5502,43 +3109,40 @@
       <c r="AB17">
         <v>123.05</v>
       </c>
-      <c r="AC17" s="46">
+      <c r="AC17" s="26">
         <v>127.14999999999999</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="0"/>
         <v>-13.329499999999999</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="1"/>
         <v>-22.23</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="2"/>
         <v>-24.53</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="3"/>
         <v>-34.944999999999993</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="4"/>
         <v>59.475000000000001</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="5"/>
         <v>40.402500000000003</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>1000</v>
       </c>
-      <c r="D18" t="s">
-        <v>52</v>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
       </c>
       <c r="E18" s="10">
         <v>1.3</v>
@@ -5579,7 +3183,7 @@
       <c r="Q18" s="10">
         <v>20</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="23">
         <v>28</v>
       </c>
       <c r="S18" s="10">
@@ -5612,43 +3216,40 @@
       <c r="AB18">
         <v>51.174999999999997</v>
       </c>
-      <c r="AC18" s="46">
+      <c r="AC18" s="26">
         <v>56.375</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="0"/>
         <v>-2.1287500000000001</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="1"/>
         <v>-6.0750000000000002</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="2"/>
         <v>-11.275</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="3"/>
         <v>-11.712499999999999</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="4"/>
         <v>22.987499999999997</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="5"/>
         <v>14.531249999999993</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>1000</v>
       </c>
-      <c r="D19" t="s">
-        <v>54</v>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
       </c>
       <c r="E19" s="10">
         <v>1.3</v>
@@ -5689,7 +3290,7 @@
       <c r="Q19" s="10">
         <v>28</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="23">
         <v>5</v>
       </c>
       <c r="S19" s="10">
@@ -5722,43 +3323,40 @@
       <c r="AB19">
         <v>46.424999999999997</v>
       </c>
-      <c r="AC19" s="46">
+      <c r="AC19" s="26">
         <v>52.524999999999999</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="0"/>
         <v>-1.6282499999999995</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="1"/>
         <v>-5.3050000000000006</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="2"/>
         <v>-9.6050000000000004</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="3"/>
         <v>-10.557499999999997</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="4"/>
         <v>20.162499999999998</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="5"/>
         <v>12.283749999999998</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>1000</v>
       </c>
-      <c r="D20" t="s">
-        <v>56</v>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>70</v>
       </c>
       <c r="E20" s="10">
         <v>0.3</v>
@@ -5799,7 +3397,7 @@
       <c r="Q20" s="10">
         <v>33</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="23">
         <v>11</v>
       </c>
       <c r="S20" s="10">
@@ -5832,43 +3430,40 @@
       <c r="AB20">
         <v>13.475</v>
       </c>
-      <c r="AC20" s="46">
+      <c r="AC20" s="26">
         <v>14.674999999999999</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="0"/>
         <v>-0.70774999999999988</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="1"/>
         <v>-1.7350000000000001</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="2"/>
         <v>-2.9350000000000001</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="3"/>
         <v>-3.2024999999999997</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="4"/>
         <v>6.1375000000000002</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="5"/>
         <v>3.9362499999999994</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>1000</v>
       </c>
-      <c r="D21" t="s">
-        <v>58</v>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
       </c>
       <c r="E21" s="10">
         <v>0.5</v>
@@ -5909,7 +3504,7 @@
       <c r="Q21" s="10">
         <v>23</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="23">
         <v>4</v>
       </c>
       <c r="S21" s="10">
@@ -5942,43 +3537,40 @@
       <c r="AB21">
         <v>29</v>
       </c>
-      <c r="AC21" s="46">
+      <c r="AC21" s="26">
         <v>31.9</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="0"/>
         <v>-2.1470000000000002</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="1"/>
         <v>-4.38</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="2"/>
         <v>-5.4799999999999995</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="3"/>
         <v>-7.5699999999999985</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="4"/>
         <v>13.05</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="5"/>
         <v>8.2650000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>1000</v>
       </c>
-      <c r="D22" t="s">
-        <v>60</v>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
       </c>
       <c r="E22" s="10">
         <v>1.1000000000000001</v>
@@ -6019,7 +3611,7 @@
       <c r="Q22" s="10">
         <v>68</v>
       </c>
-      <c r="R22" s="43">
+      <c r="R22" s="23">
         <v>3</v>
       </c>
       <c r="S22" s="10">
@@ -6052,43 +3644,40 @@
       <c r="AB22">
         <v>50.4</v>
       </c>
-      <c r="AC22" s="46">
+      <c r="AC22" s="26">
         <v>55.7</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="0"/>
         <v>-2.8410000000000002</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="1"/>
         <v>-6.74</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="2"/>
         <v>-10.24</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="3"/>
         <v>-12.31</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="4"/>
         <v>22.549999999999997</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="5"/>
         <v>14.194999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B23">
         <v>1000</v>
       </c>
-      <c r="D23" t="s">
-        <v>62</v>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
       </c>
       <c r="E23" s="10">
         <v>0.7</v>
@@ -6129,7 +3718,7 @@
       <c r="Q23" s="10">
         <v>15</v>
       </c>
-      <c r="R23" s="43">
+      <c r="R23" s="23">
         <v>7</v>
       </c>
       <c r="S23" s="10">
@@ -6162,43 +3751,40 @@
       <c r="AB23">
         <v>29.85</v>
       </c>
-      <c r="AC23" s="46">
+      <c r="AC23" s="26">
         <v>32.65</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="0"/>
         <v>-1.4445000000000006</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="1"/>
         <v>-3.7300000000000004</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="2"/>
         <v>-6.53</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="3"/>
         <v>-6.9950000000000001</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="4"/>
         <v>13.525000000000002</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="5"/>
         <v>8.6275000000000013</v>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <v>1000</v>
       </c>
-      <c r="D24" t="s">
-        <v>64</v>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>70</v>
       </c>
       <c r="E24" s="10">
         <v>0.9</v>
@@ -6239,7 +3825,7 @@
       <c r="Q24" s="10">
         <v>8</v>
       </c>
-      <c r="R24" s="43">
+      <c r="R24" s="23">
         <v>18</v>
       </c>
       <c r="S24" s="10">
@@ -6272,43 +3858,40 @@
       <c r="AB24">
         <v>58.225000000000001</v>
       </c>
-      <c r="AC24" s="46">
+      <c r="AC24" s="26">
         <v>61.825000000000003</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="0"/>
         <v>-4.4372500000000006</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="1"/>
         <v>-8.7650000000000023</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="2"/>
         <v>-12.365000000000002</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="3"/>
         <v>-14.9475</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="4"/>
         <v>27.3125</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="5"/>
         <v>18.03875</v>
       </c>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B25">
         <v>1000</v>
       </c>
-      <c r="D25" t="s">
-        <v>66</v>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25">
+        <v>80</v>
       </c>
       <c r="E25" s="10">
         <v>1.5</v>
@@ -6349,7 +3932,7 @@
       <c r="Q25" s="10">
         <v>8</v>
       </c>
-      <c r="R25" s="43">
+      <c r="R25" s="23">
         <v>6</v>
       </c>
       <c r="S25" s="10">
@@ -6382,43 +3965,40 @@
       <c r="AB25">
         <v>53.75</v>
       </c>
-      <c r="AC25" s="46">
+      <c r="AC25" s="26">
         <v>60.65</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="0"/>
         <v>-1.8845000000000001</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="1"/>
         <v>-6.1300000000000008</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="2"/>
         <v>-11.23</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="3"/>
         <v>-12.195</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="4"/>
         <v>23.425000000000001</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="5"/>
         <v>14.327500000000001</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B26">
         <v>1000</v>
       </c>
-      <c r="D26" t="s">
-        <v>68</v>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>60</v>
       </c>
       <c r="E26" s="10">
         <v>9.8000000000000007</v>
@@ -6459,7 +4039,7 @@
       <c r="Q26" s="10">
         <v>260</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="23">
         <v>15</v>
       </c>
       <c r="S26" s="10">
@@ -6492,43 +4072,40 @@
       <c r="AB26">
         <v>26.45</v>
       </c>
-      <c r="AC26" s="46">
+      <c r="AC26" s="26">
         <v>117.85000000000001</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="0"/>
         <v>23.8795</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="1"/>
         <v>15.629999999999999</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="2"/>
         <v>28.629999999999992</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="3"/>
         <v>3.8449999999999989</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="4"/>
         <v>-32.475000000000009</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="5"/>
         <v>-50.152500000000003</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B27">
         <v>1000</v>
       </c>
-      <c r="D27" t="s">
-        <v>70</v>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27">
+        <v>60</v>
       </c>
       <c r="E27" s="10">
         <v>1.2</v>
@@ -6569,7 +4146,7 @@
       <c r="Q27" s="10">
         <v>53</v>
       </c>
-      <c r="R27" s="43">
+      <c r="R27" s="23">
         <v>6</v>
       </c>
       <c r="S27" s="10">
@@ -6602,43 +4179,40 @@
       <c r="AB27">
         <v>17.7</v>
       </c>
-      <c r="AC27" s="46">
+      <c r="AC27" s="26">
         <v>24.299999999999997</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="0"/>
         <v>1.641</v>
       </c>
       <c r="AE27">
-        <f t="shared" si="1"/>
         <v>-5.9999999999999609E-2</v>
       </c>
       <c r="AF27">
-        <f t="shared" si="2"/>
         <v>-3.0599999999999996</v>
       </c>
       <c r="AG27">
-        <f t="shared" si="3"/>
         <v>-2.4899999999999993</v>
       </c>
       <c r="AH27">
-        <f t="shared" si="4"/>
         <v>5.5500000000000007</v>
       </c>
       <c r="AI27">
-        <f t="shared" si="5"/>
         <v>1.9050000000000011</v>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B28">
         <v>1000</v>
       </c>
-      <c r="D28" t="s">
-        <v>72</v>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>70</v>
       </c>
       <c r="E28" s="10">
         <v>1.2</v>
@@ -6679,7 +4253,7 @@
       <c r="Q28" s="10">
         <v>42</v>
       </c>
-      <c r="R28" s="43">
+      <c r="R28" s="23">
         <v>43</v>
       </c>
       <c r="S28" s="10">
@@ -6712,43 +4286,40 @@
       <c r="AB28">
         <v>71.95</v>
       </c>
-      <c r="AC28" s="46">
+      <c r="AC28" s="26">
         <v>78.55</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="0"/>
         <v>-5.4114999999999993</v>
       </c>
       <c r="AE28">
-        <f t="shared" si="1"/>
         <v>-10.91</v>
       </c>
       <c r="AF28">
-        <f t="shared" si="2"/>
         <v>-13.91</v>
       </c>
       <c r="AG28">
-        <f t="shared" si="3"/>
         <v>-18.764999999999997</v>
       </c>
       <c r="AH28">
-        <f t="shared" si="4"/>
         <v>32.675000000000004</v>
       </c>
       <c r="AI28">
-        <f t="shared" si="5"/>
         <v>20.892500000000005</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B29">
         <v>1000</v>
       </c>
-      <c r="D29" t="s">
-        <v>74</v>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
       </c>
       <c r="E29" s="10">
         <v>0.7</v>
@@ -6789,7 +4360,7 @@
       <c r="Q29" s="10">
         <v>25</v>
       </c>
-      <c r="R29" s="43">
+      <c r="R29" s="23">
         <v>14</v>
       </c>
       <c r="S29" s="10">
@@ -6822,43 +4393,40 @@
       <c r="AB29">
         <v>10.6</v>
       </c>
-      <c r="AC29" s="46">
+      <c r="AC29" s="26">
         <v>13.399999999999999</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="0"/>
         <v>1.0580000000000001</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="1"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="2"/>
         <v>-2.6799999999999997</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="3"/>
         <v>-1.2199999999999998</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="4"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="5"/>
         <v>1.8900000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B30">
         <v>1000</v>
       </c>
-      <c r="D30" t="s">
-        <v>76</v>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
       </c>
       <c r="E30" s="10">
         <v>0.7</v>
@@ -6899,7 +4467,7 @@
       <c r="Q30" s="10">
         <v>32</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="23">
         <v>4</v>
       </c>
       <c r="S30" s="10">
@@ -6932,43 +4500,40 @@
       <c r="AB30">
         <v>15.350000000000001</v>
       </c>
-      <c r="AC30" s="46">
+      <c r="AC30" s="26">
         <v>18.150000000000002</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="0"/>
         <v>0.44049999999999967</v>
       </c>
       <c r="AE30">
-        <f t="shared" si="1"/>
         <v>-0.83000000000000096</v>
       </c>
       <c r="AF30">
-        <f t="shared" si="2"/>
         <v>-3.6300000000000008</v>
       </c>
       <c r="AG30">
-        <f t="shared" si="3"/>
         <v>-2.6450000000000005</v>
       </c>
       <c r="AH30">
-        <f t="shared" si="4"/>
         <v>6.2750000000000004</v>
       </c>
       <c r="AI30">
-        <f t="shared" si="5"/>
         <v>3.5525000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B31">
         <v>1000</v>
       </c>
-      <c r="D31" t="s">
-        <v>78</v>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31">
+        <v>70</v>
       </c>
       <c r="E31" s="10">
         <v>0.5</v>
@@ -7009,7 +4574,7 @@
       <c r="Q31" s="10">
         <v>22</v>
       </c>
-      <c r="R31" s="43">
+      <c r="R31" s="23">
         <v>15</v>
       </c>
       <c r="S31" s="10">
@@ -7042,43 +4607,40 @@
       <c r="AB31">
         <v>16.324999999999999</v>
       </c>
-      <c r="AC31" s="46">
+      <c r="AC31" s="26">
         <v>19.224999999999998</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="0"/>
         <v>-0.49924999999999997</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="1"/>
         <v>-1.8449999999999998</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="2"/>
         <v>-2.9449999999999998</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="3"/>
         <v>-3.7674999999999992</v>
       </c>
       <c r="AH31">
-        <f t="shared" si="4"/>
         <v>6.7125000000000004</v>
       </c>
       <c r="AI31">
-        <f t="shared" si="5"/>
         <v>3.8287499999999994</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B32">
         <v>1000</v>
       </c>
-      <c r="D32" t="s">
-        <v>80</v>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
       </c>
       <c r="E32" s="10">
         <v>0.7</v>
@@ -7119,7 +4681,7 @@
       <c r="Q32" s="10">
         <v>26</v>
       </c>
-      <c r="R32" s="43">
+      <c r="R32" s="23">
         <v>76</v>
       </c>
       <c r="S32" s="10">
@@ -7152,43 +4714,40 @@
       <c r="AB32">
         <v>16.45</v>
       </c>
-      <c r="AC32" s="46">
+      <c r="AC32" s="26">
         <v>20.149999999999999</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="0"/>
         <v>0.18049999999999988</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="1"/>
         <v>-1.2300000000000004</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="2"/>
         <v>-3.1300000000000003</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="3"/>
         <v>-3.2449999999999992</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="4"/>
         <v>6.375</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="5"/>
         <v>3.3524999999999991</v>
       </c>
     </row>
     <row r="33" spans="1:43">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B33">
         <v>1000</v>
       </c>
-      <c r="D33" t="s">
-        <v>82</v>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>30</v>
       </c>
       <c r="E33" s="10">
         <v>2</v>
@@ -7229,7 +4788,7 @@
       <c r="Q33" s="10">
         <v>49</v>
       </c>
-      <c r="R33" s="43">
+      <c r="R33" s="23">
         <v>0</v>
       </c>
       <c r="S33" s="10">
@@ -7262,43 +4821,40 @@
       <c r="AB33">
         <v>15.904999999999999</v>
       </c>
-      <c r="AC33" s="46">
+      <c r="AC33" s="26">
         <v>25.704999999999998</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="0"/>
         <v>4.6583500000000004</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="1"/>
         <v>2.859</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="2"/>
         <v>-3.3410000000000002</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="3"/>
         <v>0.28850000000000087</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="4"/>
         <v>3.0525000000000002</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="5"/>
         <v>-0.80325000000000024</v>
       </c>
     </row>
     <row r="34" spans="1:43">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B34">
         <v>1000</v>
       </c>
-      <c r="D34" t="s">
-        <v>84</v>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
       </c>
       <c r="E34" s="10">
         <v>1.6</v>
@@ -7339,7 +4895,7 @@
       <c r="Q34" s="10">
         <v>75</v>
       </c>
-      <c r="R34" s="43">
+      <c r="R34" s="23">
         <v>0</v>
       </c>
       <c r="S34" s="10">
@@ -7372,43 +4928,40 @@
       <c r="AB34">
         <v>26.04</v>
       </c>
-      <c r="AC34" s="46">
+      <c r="AC34" s="26">
         <v>33.340000000000003</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="0"/>
         <v>2.0657999999999994</v>
       </c>
       <c r="AE34">
-        <f t="shared" si="1"/>
         <v>-0.26800000000000068</v>
       </c>
       <c r="AF34">
-        <f t="shared" si="2"/>
         <v>-5.7680000000000007</v>
       </c>
       <c r="AG34">
-        <f t="shared" si="3"/>
         <v>-3.6020000000000003</v>
       </c>
       <c r="AH34">
-        <f t="shared" si="4"/>
         <v>9.3699999999999974</v>
       </c>
       <c r="AI34">
-        <f t="shared" si="5"/>
         <v>4.3689999999999962</v>
       </c>
     </row>
     <row r="35" spans="1:43">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B35">
         <v>1000</v>
       </c>
-      <c r="D35" t="s">
-        <v>86</v>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
       </c>
       <c r="E35" s="10">
         <v>1.6</v>
@@ -7449,7 +5002,7 @@
       <c r="Q35" s="10">
         <v>29</v>
       </c>
-      <c r="R35" s="43">
+      <c r="R35" s="23">
         <v>0</v>
       </c>
       <c r="S35" s="10">
@@ -7482,43 +5035,40 @@
       <c r="AB35">
         <v>17.234999999999999</v>
       </c>
-      <c r="AC35" s="46">
+      <c r="AC35" s="26">
         <v>25.435000000000002</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="0"/>
         <v>3.0934499999999998</v>
       </c>
       <c r="AE35">
-        <f t="shared" si="1"/>
         <v>1.3129999999999997</v>
       </c>
       <c r="AF35">
-        <f t="shared" si="2"/>
         <v>-3.2870000000000008</v>
       </c>
       <c r="AG35">
-        <f t="shared" si="3"/>
         <v>-1.2305000000000001</v>
       </c>
       <c r="AH35">
-        <f t="shared" si="4"/>
         <v>4.5174999999999983</v>
       </c>
       <c r="AI35">
-        <f t="shared" si="5"/>
         <v>0.70224999999999582</v>
       </c>
     </row>
     <row r="36" spans="1:43">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B36">
         <v>100</v>
       </c>
-      <c r="D36" t="s">
-        <v>88</v>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
       </c>
       <c r="E36" s="10">
         <v>1.4</v>
@@ -7559,7 +5109,7 @@
       <c r="Q36" s="10">
         <v>29</v>
       </c>
-      <c r="R36" s="43">
+      <c r="R36" s="23">
         <v>15</v>
       </c>
       <c r="S36" s="10">
@@ -7592,43 +5142,40 @@
       <c r="AB36">
         <v>16.95</v>
       </c>
-      <c r="AC36" s="46">
+      <c r="AC36" s="26">
         <v>23.45</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="0"/>
         <v>2.5514999999999994</v>
       </c>
       <c r="AE36">
-        <f t="shared" si="1"/>
         <v>0.90999999999999925</v>
       </c>
       <c r="AF36">
-        <f t="shared" si="2"/>
         <v>-3.7900000000000005</v>
       </c>
       <c r="AG36">
-        <f t="shared" si="3"/>
         <v>-1.4349999999999996</v>
       </c>
       <c r="AH36">
-        <f t="shared" si="4"/>
         <v>5.2249999999999996</v>
       </c>
       <c r="AI36">
-        <f t="shared" si="5"/>
         <v>1.7074999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:43">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B37">
         <v>100</v>
       </c>
-      <c r="D37" t="s">
-        <v>90</v>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
       </c>
       <c r="E37" s="10">
         <v>7.4</v>
@@ -7669,7 +5216,7 @@
       <c r="Q37" s="10">
         <v>93</v>
       </c>
-      <c r="R37" s="43">
+      <c r="R37" s="23">
         <v>0</v>
       </c>
       <c r="S37" s="10">
@@ -7702,43 +5249,40 @@
       <c r="AB37">
         <v>136.54</v>
       </c>
-      <c r="AC37" s="46">
+      <c r="AC37" s="26">
         <v>181.44</v>
       </c>
       <c r="AD37">
-        <f t="shared" si="0"/>
         <v>6.0128000000000021</v>
       </c>
       <c r="AE37">
-        <f t="shared" si="1"/>
         <v>-6.6880000000000024</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="2"/>
         <v>-20.988000000000007</v>
       </c>
       <c r="AG37">
-        <f t="shared" si="3"/>
         <v>-24.831999999999994</v>
       </c>
       <c r="AH37">
-        <f t="shared" si="4"/>
         <v>45.819999999999993</v>
       </c>
       <c r="AI37">
-        <f t="shared" si="5"/>
         <v>18.603999999999985</v>
       </c>
     </row>
     <row r="38" spans="1:43">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>1000</v>
       </c>
-      <c r="D38" t="s">
-        <v>92</v>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
       </c>
       <c r="E38" s="10">
         <v>6.7</v>
@@ -7779,7 +5323,7 @@
       <c r="Q38" s="10">
         <v>12</v>
       </c>
-      <c r="R38" s="43">
+      <c r="R38" s="23">
         <v>0</v>
       </c>
       <c r="S38" s="10">
@@ -7812,44 +5356,40 @@
       <c r="AB38">
         <v>5.8000000000000007</v>
       </c>
-      <c r="AC38" s="46">
+      <c r="AC38" s="26">
         <v>73.099999999999994</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="0"/>
         <v>17.297000000000001</v>
       </c>
       <c r="AE38">
-        <f t="shared" si="1"/>
         <v>12.180000000000001</v>
       </c>
       <c r="AF38">
-        <f t="shared" si="2"/>
         <v>25.880000000000003</v>
       </c>
       <c r="AG38">
-        <f t="shared" si="3"/>
         <v>4.8700000000000045</v>
       </c>
       <c r="AH38">
-        <f t="shared" si="4"/>
         <v>-30.749999999999996</v>
       </c>
       <c r="AI38">
-        <f t="shared" si="5"/>
         <v>-41.715000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:43">
       <c r="A39" s="8" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B39" s="8">
         <v>1000</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="s">
-        <v>94</v>
+      <c r="C39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="8">
+        <v>30</v>
       </c>
       <c r="E39" s="9">
         <v>12.3</v>
@@ -7890,7 +5430,7 @@
       <c r="Q39" s="9">
         <v>3</v>
       </c>
-      <c r="R39" s="44">
+      <c r="R39" s="24">
         <v>0</v>
       </c>
       <c r="S39" s="10">
@@ -7923,31 +5463,25 @@
       <c r="AB39">
         <v>1.575</v>
       </c>
-      <c r="AC39" s="46">
+      <c r="AC39" s="26">
         <v>163.27499999999998</v>
       </c>
       <c r="AD39">
-        <f t="shared" si="0"/>
         <v>27.974250000000005</v>
       </c>
       <c r="AE39">
-        <f t="shared" si="1"/>
         <v>16.545000000000009</v>
       </c>
       <c r="AF39">
-        <f t="shared" si="2"/>
         <v>79.844999999999999</v>
       </c>
       <c r="AG39">
-        <f t="shared" si="3"/>
         <v>0.21750000000000824</v>
       </c>
       <c r="AH39">
-        <f t="shared" si="4"/>
         <v>-80.062499999999986</v>
       </c>
       <c r="AI39">
-        <f t="shared" si="5"/>
         <v>-104.55374999999998</v>
       </c>
       <c r="AJ39" s="8"/>
@@ -7961,14 +5495,16 @@
     </row>
     <row r="40" spans="1:43">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B40" s="8">
         <v>150</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" t="s">
-        <v>96</v>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="8">
+        <v>40</v>
       </c>
       <c r="E40" s="10">
         <v>14.5</v>
@@ -8009,7 +5545,7 @@
       <c r="Q40" s="10">
         <v>130</v>
       </c>
-      <c r="R40" s="43">
+      <c r="R40" s="23">
         <v>3</v>
       </c>
       <c r="S40" s="10">
@@ -8042,44 +5578,40 @@
       <c r="AB40">
         <v>37</v>
       </c>
-      <c r="AC40" s="46">
+      <c r="AC40" s="26">
         <v>182.3</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="0"/>
         <v>34.301000000000002</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="1"/>
         <v>21.54</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="2"/>
         <v>50.839999999999996</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="3"/>
         <v>3.3099999999999952</v>
       </c>
       <c r="AH40">
-        <f t="shared" si="4"/>
         <v>-54.150000000000006</v>
       </c>
       <c r="AI40">
-        <f t="shared" si="5"/>
         <v>-81.495000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:43">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B41" s="8">
         <v>1000</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" t="s">
-        <v>98</v>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="8">
+        <v>80</v>
       </c>
       <c r="E41" s="10">
         <v>0.1</v>
@@ -8120,7 +5652,7 @@
       <c r="Q41" s="10">
         <v>1</v>
       </c>
-      <c r="R41" s="43">
+      <c r="R41" s="23">
         <v>0</v>
       </c>
       <c r="S41" s="10">
@@ -8153,31 +5685,25 @@
       <c r="AB41">
         <v>4.7750000000000004</v>
       </c>
-      <c r="AC41" s="46">
+      <c r="AC41" s="26">
         <v>5.1750000000000007</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="0"/>
         <v>-0.27275000000000005</v>
       </c>
       <c r="AE41">
-        <f t="shared" si="1"/>
         <v>-0.63500000000000012</v>
       </c>
       <c r="AF41">
-        <f t="shared" si="2"/>
         <v>-1.0350000000000001</v>
       </c>
       <c r="AG41">
-        <f t="shared" si="3"/>
         <v>-1.1525000000000003</v>
       </c>
       <c r="AH41">
-        <f t="shared" si="4"/>
         <v>2.1875</v>
       </c>
       <c r="AI41">
-        <f t="shared" si="5"/>
         <v>1.4112499999999999</v>
       </c>
     </row>

--- a/backend/食品標準成分表示_野菜類.xlsx
+++ b/backend/食品標準成分表示_野菜類.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive - 名古屋市立大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22854AA-9929-4B68-8BEF-E63FE0051690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09B8168-46C5-4EA9-A2AC-8D8E878E82F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
   </bookViews>
@@ -679,7 +679,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1004,6 +1004,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF000000"/>
       </left>
@@ -1015,14 +1026,60 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1032,7 +1089,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1147,13 +1204,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
@@ -1194,6 +1248,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1532,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31283A3F-C3F4-4FA8-B999-817263605465}">
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1551,20 +1635,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
     </row>
     <row r="2" spans="1:28" ht="199" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
@@ -1621,16 +1705,16 @@
       <c r="R2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="60" t="s">
         <v>23</v>
       </c>
       <c r="W2" s="17" t="s">
@@ -1661,38 +1745,38 @@
       <c r="D3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="44" t="s">
+      <c r="M3" s="47"/>
+      <c r="N3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="45"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="44"/>
       <c r="Q3" s="24" t="s">
         <v>110</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="52"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="57"/>
       <c r="W3" s="35"/>
       <c r="X3" s="36"/>
       <c r="Y3" s="36"/>
@@ -1764,7 +1848,7 @@
       <c r="U4">
         <v>18.225000000000001</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="58">
         <v>61.725000000000001</v>
       </c>
       <c r="W4">
@@ -1782,7 +1866,7 @@
       <c r="AA4">
         <v>-12.637499999999999</v>
       </c>
-      <c r="AB4" s="40">
+      <c r="AB4" s="39">
         <v>-21.896250000000002</v>
       </c>
     </row>
@@ -1850,7 +1934,7 @@
       <c r="U5">
         <v>4.2750000000000004</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="59">
         <v>312.97499999999997</v>
       </c>
       <c r="W5">
@@ -1868,7 +1952,7 @@
       <c r="AA5">
         <v>-152.21249999999998</v>
       </c>
-      <c r="AB5" s="41">
+      <c r="AB5" s="40">
         <v>-199.15874999999997</v>
       </c>
     </row>
@@ -1936,7 +2020,7 @@
       <c r="U6">
         <v>16.649999999999999</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="59">
         <v>289.95</v>
       </c>
       <c r="W6">
@@ -1954,7 +2038,7 @@
       <c r="AA6">
         <v>-128.32499999999999</v>
       </c>
-      <c r="AB6" s="41">
+      <c r="AB6" s="40">
         <v>-171.8175</v>
       </c>
     </row>
@@ -2022,7 +2106,7 @@
       <c r="U7">
         <v>17.324999999999999</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="59">
         <v>55.724999999999994</v>
       </c>
       <c r="W7">
@@ -2040,7 +2124,7 @@
       <c r="AA7">
         <v>-10.537499999999998</v>
       </c>
-      <c r="AB7" s="41">
+      <c r="AB7" s="40">
         <v>-18.896249999999998</v>
       </c>
     </row>
@@ -2108,7 +2192,7 @@
       <c r="U8">
         <v>12.75</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="59">
         <v>141.65</v>
       </c>
       <c r="W8">
@@ -2126,7 +2210,7 @@
       <c r="AA8">
         <v>-58.075000000000003</v>
       </c>
-      <c r="AB8" s="41">
+      <c r="AB8" s="40">
         <v>-79.322500000000005</v>
       </c>
     </row>
@@ -2194,7 +2278,7 @@
       <c r="U9">
         <v>18.525000000000002</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="59">
         <v>21.725000000000001</v>
       </c>
       <c r="W9">
@@ -2212,7 +2296,7 @@
       <c r="AA9">
         <v>7.6625000000000014</v>
       </c>
-      <c r="AB9" s="41">
+      <c r="AB9" s="40">
         <v>4.4037500000000005</v>
       </c>
     </row>
@@ -2280,7 +2364,7 @@
       <c r="U10">
         <v>9.4250000000000007</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="59">
         <v>18.024999999999999</v>
       </c>
       <c r="W10">
@@ -2298,7 +2382,7 @@
       <c r="AA10">
         <v>0.41250000000000142</v>
       </c>
-      <c r="AB10" s="41">
+      <c r="AB10" s="40">
         <v>-2.291249999999998</v>
       </c>
     </row>
@@ -2366,7 +2450,7 @@
       <c r="U11">
         <v>10.1</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="59">
         <v>12.5</v>
       </c>
       <c r="W11">
@@ -2384,7 +2468,7 @@
       <c r="AA11">
         <v>3.8499999999999996</v>
       </c>
-      <c r="AB11" s="41">
+      <c r="AB11" s="40">
         <v>1.9749999999999996</v>
       </c>
     </row>
@@ -2452,7 +2536,7 @@
       <c r="U12">
         <v>29</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="59">
         <v>33</v>
       </c>
       <c r="W12">
@@ -2470,7 +2554,7 @@
       <c r="AA12">
         <v>12.5</v>
       </c>
-      <c r="AB12" s="41">
+      <c r="AB12" s="40">
         <v>7.5500000000000007</v>
       </c>
     </row>
@@ -2538,7 +2622,7 @@
       <c r="U13">
         <v>8.5749999999999993</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="59">
         <v>10.574999999999999</v>
       </c>
       <c r="W13">
@@ -2556,7 +2640,7 @@
       <c r="AA13">
         <v>3.2874999999999996</v>
       </c>
-      <c r="AB13" s="41">
+      <c r="AB13" s="40">
         <v>1.7012499999999999</v>
       </c>
     </row>
@@ -2624,7 +2708,7 @@
       <c r="U14">
         <v>6.85</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="59">
         <v>28.85</v>
       </c>
       <c r="W14">
@@ -2642,7 +2726,7 @@
       <c r="AA14">
         <v>-7.5750000000000011</v>
       </c>
-      <c r="AB14" s="41">
+      <c r="AB14" s="40">
         <v>-11.902500000000002</v>
       </c>
     </row>
@@ -2710,7 +2794,7 @@
       <c r="U15">
         <v>20.099999999999998</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="59">
         <v>38</v>
       </c>
       <c r="W15">
@@ -2728,7 +2812,7 @@
       <c r="AA15">
         <v>1.0999999999999979</v>
       </c>
-      <c r="AB15" s="41">
+      <c r="AB15" s="40">
         <v>-4.6000000000000014</v>
       </c>
     </row>
@@ -2796,7 +2880,7 @@
       <c r="U16">
         <v>12.074999999999999</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="59">
         <v>21.074999999999999</v>
       </c>
       <c r="W16">
@@ -2814,7 +2898,7 @@
       <c r="AA16">
         <v>1.5374999999999996</v>
       </c>
-      <c r="AB16" s="41">
+      <c r="AB16" s="40">
         <v>-1.6237500000000011</v>
       </c>
     </row>
@@ -2882,7 +2966,7 @@
       <c r="U17">
         <v>123.05</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="59">
         <v>127.14999999999999</v>
       </c>
       <c r="W17">
@@ -2900,7 +2984,7 @@
       <c r="AA17">
         <v>59.475000000000001</v>
       </c>
-      <c r="AB17" s="41">
+      <c r="AB17" s="40">
         <v>40.402500000000003</v>
       </c>
     </row>
@@ -2968,7 +3052,7 @@
       <c r="U18">
         <v>51.174999999999997</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="59">
         <v>56.375</v>
       </c>
       <c r="W18">
@@ -2986,7 +3070,7 @@
       <c r="AA18">
         <v>22.987499999999997</v>
       </c>
-      <c r="AB18" s="41">
+      <c r="AB18" s="40">
         <v>14.531249999999993</v>
       </c>
     </row>
@@ -3054,7 +3138,7 @@
       <c r="U19">
         <v>46.424999999999997</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="59">
         <v>52.524999999999999</v>
       </c>
       <c r="W19">
@@ -3072,7 +3156,7 @@
       <c r="AA19">
         <v>20.162499999999998</v>
       </c>
-      <c r="AB19" s="41">
+      <c r="AB19" s="40">
         <v>12.283749999999998</v>
       </c>
     </row>
@@ -3140,7 +3224,7 @@
       <c r="U20">
         <v>13.475</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="59">
         <v>14.674999999999999</v>
       </c>
       <c r="W20">
@@ -3158,7 +3242,7 @@
       <c r="AA20">
         <v>6.1375000000000002</v>
       </c>
-      <c r="AB20" s="41">
+      <c r="AB20" s="40">
         <v>3.9362499999999994</v>
       </c>
     </row>
@@ -3226,7 +3310,7 @@
       <c r="U21">
         <v>29</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="59">
         <v>31.9</v>
       </c>
       <c r="W21">
@@ -3244,7 +3328,7 @@
       <c r="AA21">
         <v>13.05</v>
       </c>
-      <c r="AB21" s="41">
+      <c r="AB21" s="40">
         <v>8.2650000000000006</v>
       </c>
     </row>
@@ -3312,7 +3396,7 @@
       <c r="U22">
         <v>50.4</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="59">
         <v>55.7</v>
       </c>
       <c r="W22">
@@ -3330,7 +3414,7 @@
       <c r="AA22">
         <v>22.549999999999997</v>
       </c>
-      <c r="AB22" s="41">
+      <c r="AB22" s="40">
         <v>14.194999999999993</v>
       </c>
     </row>
@@ -3398,7 +3482,7 @@
       <c r="U23">
         <v>29.85</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="59">
         <v>32.65</v>
       </c>
       <c r="W23">
@@ -3416,7 +3500,7 @@
       <c r="AA23">
         <v>13.525000000000002</v>
       </c>
-      <c r="AB23" s="41">
+      <c r="AB23" s="40">
         <v>8.6275000000000013</v>
       </c>
     </row>
@@ -3484,7 +3568,7 @@
       <c r="U24">
         <v>58.225000000000001</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="59">
         <v>61.825000000000003</v>
       </c>
       <c r="W24">
@@ -3502,7 +3586,7 @@
       <c r="AA24">
         <v>27.3125</v>
       </c>
-      <c r="AB24" s="41">
+      <c r="AB24" s="40">
         <v>18.03875</v>
       </c>
     </row>
@@ -3570,7 +3654,7 @@
       <c r="U25">
         <v>53.75</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="59">
         <v>60.65</v>
       </c>
       <c r="W25">
@@ -3588,7 +3672,7 @@
       <c r="AA25">
         <v>23.425000000000001</v>
       </c>
-      <c r="AB25" s="41">
+      <c r="AB25" s="40">
         <v>14.327500000000001</v>
       </c>
     </row>
@@ -3656,7 +3740,7 @@
       <c r="U26">
         <v>26.45</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="59">
         <v>117.85000000000001</v>
       </c>
       <c r="W26">
@@ -3674,7 +3758,7 @@
       <c r="AA26">
         <v>-32.475000000000009</v>
       </c>
-      <c r="AB26" s="41">
+      <c r="AB26" s="40">
         <v>-50.152500000000003</v>
       </c>
     </row>
@@ -3742,7 +3826,7 @@
       <c r="U27">
         <v>17.7</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="59">
         <v>24.299999999999997</v>
       </c>
       <c r="W27">
@@ -3760,7 +3844,7 @@
       <c r="AA27">
         <v>5.5500000000000007</v>
       </c>
-      <c r="AB27" s="41">
+      <c r="AB27" s="40">
         <v>1.9050000000000011</v>
       </c>
     </row>
@@ -3828,7 +3912,7 @@
       <c r="U28">
         <v>71.95</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="59">
         <v>78.55</v>
       </c>
       <c r="W28">
@@ -3846,7 +3930,7 @@
       <c r="AA28">
         <v>32.675000000000004</v>
       </c>
-      <c r="AB28" s="41">
+      <c r="AB28" s="40">
         <v>20.892500000000005</v>
       </c>
     </row>
@@ -3914,7 +3998,7 @@
       <c r="U29">
         <v>10.6</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="59">
         <v>13.399999999999999</v>
       </c>
       <c r="W29">
@@ -3932,7 +4016,7 @@
       <c r="AA29">
         <v>3.9000000000000004</v>
       </c>
-      <c r="AB29" s="41">
+      <c r="AB29" s="40">
         <v>1.8900000000000006</v>
       </c>
     </row>
@@ -4000,7 +4084,7 @@
       <c r="U30">
         <v>15.350000000000001</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="59">
         <v>18.150000000000002</v>
       </c>
       <c r="W30">
@@ -4018,7 +4102,7 @@
       <c r="AA30">
         <v>6.2750000000000004</v>
       </c>
-      <c r="AB30" s="41">
+      <c r="AB30" s="40">
         <v>3.5525000000000002</v>
       </c>
     </row>
@@ -4086,7 +4170,7 @@
       <c r="U31">
         <v>16.324999999999999</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="59">
         <v>19.224999999999998</v>
       </c>
       <c r="W31">
@@ -4104,7 +4188,7 @@
       <c r="AA31">
         <v>6.7125000000000004</v>
       </c>
-      <c r="AB31" s="41">
+      <c r="AB31" s="40">
         <v>3.8287499999999994</v>
       </c>
     </row>
@@ -4172,7 +4256,7 @@
       <c r="U32">
         <v>16.45</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="59">
         <v>20.149999999999999</v>
       </c>
       <c r="W32">
@@ -4190,7 +4274,7 @@
       <c r="AA32">
         <v>6.375</v>
       </c>
-      <c r="AB32" s="41">
+      <c r="AB32" s="40">
         <v>3.3524999999999991</v>
       </c>
     </row>
@@ -4258,7 +4342,7 @@
       <c r="U33">
         <v>15.904999999999999</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="59">
         <v>25.704999999999998</v>
       </c>
       <c r="W33">
@@ -4276,7 +4360,7 @@
       <c r="AA33">
         <v>3.0525000000000002</v>
       </c>
-      <c r="AB33" s="41">
+      <c r="AB33" s="40">
         <v>-0.80325000000000024</v>
       </c>
     </row>
@@ -4344,7 +4428,7 @@
       <c r="U34">
         <v>26.04</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="59">
         <v>33.340000000000003</v>
       </c>
       <c r="W34">
@@ -4362,7 +4446,7 @@
       <c r="AA34">
         <v>9.3699999999999974</v>
       </c>
-      <c r="AB34" s="41">
+      <c r="AB34" s="40">
         <v>4.3689999999999962</v>
       </c>
     </row>
@@ -4430,7 +4514,7 @@
       <c r="U35">
         <v>17.234999999999999</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="59">
         <v>25.435000000000002</v>
       </c>
       <c r="W35">
@@ -4448,7 +4532,7 @@
       <c r="AA35">
         <v>4.5174999999999983</v>
       </c>
-      <c r="AB35" s="41">
+      <c r="AB35" s="40">
         <v>0.70224999999999582</v>
       </c>
     </row>
@@ -4516,7 +4600,7 @@
       <c r="U36">
         <v>16.95</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="59">
         <v>23.45</v>
       </c>
       <c r="W36">
@@ -4534,7 +4618,7 @@
       <c r="AA36">
         <v>5.2249999999999996</v>
       </c>
-      <c r="AB36" s="41">
+      <c r="AB36" s="40">
         <v>1.7074999999999996</v>
       </c>
     </row>
@@ -4602,7 +4686,7 @@
       <c r="U37">
         <v>136.54</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="59">
         <v>181.44</v>
       </c>
       <c r="W37">
@@ -4620,7 +4704,7 @@
       <c r="AA37">
         <v>45.819999999999993</v>
       </c>
-      <c r="AB37" s="41">
+      <c r="AB37" s="40">
         <v>18.603999999999985</v>
       </c>
     </row>
@@ -4688,7 +4772,7 @@
       <c r="U38">
         <v>5.8000000000000007</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="59">
         <v>73.099999999999994</v>
       </c>
       <c r="W38">
@@ -4706,7 +4790,7 @@
       <c r="AA38">
         <v>-30.749999999999996</v>
       </c>
-      <c r="AB38" s="41">
+      <c r="AB38" s="40">
         <v>-41.715000000000003</v>
       </c>
     </row>
@@ -4774,7 +4858,7 @@
       <c r="U39">
         <v>1.575</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="59">
         <v>163.27499999999998</v>
       </c>
       <c r="W39">
@@ -4792,7 +4876,7 @@
       <c r="AA39">
         <v>-80.062499999999986</v>
       </c>
-      <c r="AB39" s="41">
+      <c r="AB39" s="40">
         <v>-104.55374999999998</v>
       </c>
     </row>
@@ -4860,7 +4944,7 @@
       <c r="U40">
         <v>37</v>
       </c>
-      <c r="V40">
+      <c r="V40" s="59">
         <v>182.3</v>
       </c>
       <c r="W40">
@@ -4878,7 +4962,7 @@
       <c r="AA40">
         <v>-54.150000000000006</v>
       </c>
-      <c r="AB40" s="41">
+      <c r="AB40" s="40">
         <v>-81.495000000000005</v>
       </c>
     </row>
@@ -4937,34 +5021,34 @@
       <c r="R41" s="30">
         <v>0</v>
       </c>
-      <c r="S41" s="38">
+      <c r="S41" s="61">
         <v>0.4</v>
       </c>
-      <c r="T41" s="39">
-        <v>0</v>
-      </c>
-      <c r="U41" s="39">
+      <c r="T41" s="38">
+        <v>0</v>
+      </c>
+      <c r="U41" s="38">
         <v>4.7750000000000004</v>
       </c>
-      <c r="V41" s="39">
+      <c r="V41" s="62">
         <v>5.1750000000000007</v>
       </c>
-      <c r="W41" s="39">
+      <c r="W41" s="38">
         <v>-0.27275000000000005</v>
       </c>
-      <c r="X41" s="39">
+      <c r="X41" s="38">
         <v>-0.63500000000000012</v>
       </c>
-      <c r="Y41" s="39">
+      <c r="Y41" s="38">
         <v>-1.0350000000000001</v>
       </c>
-      <c r="Z41" s="39">
+      <c r="Z41" s="38">
         <v>-1.5525000000000002</v>
       </c>
-      <c r="AA41" s="39">
+      <c r="AA41" s="38">
         <v>2.1875</v>
       </c>
-      <c r="AB41" s="42">
+      <c r="AB41" s="41">
         <v>1.4112499999999999</v>
       </c>
     </row>
@@ -4986,8 +5070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24534400-F245-4B3F-A75E-948BF1262C7E}">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView topLeftCell="K1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AC41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5020,20 +5104,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
     </row>
     <row r="2" spans="1:35" ht="235" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
@@ -5151,47 +5235,47 @@
       <c r="D3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="46" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="44" t="s">
+      <c r="M3" s="47"/>
+      <c r="N3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="45"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="44"/>
       <c r="Q3" s="24" t="s">
         <v>110</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="50" t="s">
+      <c r="T3" s="52"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="52"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="51"/>
       <c r="AD3" s="35"/>
       <c r="AE3" s="36"/>
       <c r="AF3" s="36"/>

--- a/backend/食品標準成分表示_野菜類.xlsx
+++ b/backend/食品標準成分表示_野菜類.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive - 名古屋市立大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09B8168-46C5-4EA9-A2AC-8D8E878E82F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DBBA63-5757-441A-BF35-47A40186E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
+    <workbookView xWindow="11280" yWindow="0" windowWidth="11280" windowHeight="14440" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
   </bookViews>
   <sheets>
     <sheet name="計算用のシート" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="168">
   <si>
     <t>元の名前</t>
     <rPh sb="0" eb="1">
@@ -606,6 +606,245 @@
   <si>
     <t>ci-0.65ti</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e-statでのid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01303</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01331</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01332</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01333</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01341</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01401</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01402</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01403</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01405</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01406</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01407</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01409</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01410</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01411</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01412</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01413</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01414</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01415</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01416</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01417</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01419</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01420</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01430</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01432</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01433</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01434</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01435</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01436</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01437</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01438</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01442</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01443</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01462</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01463</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01471</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01472</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01473</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01481</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格の単位重量(計算用)</t>
+    <rPh sb="5" eb="7">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ケイサンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格の単位重量(表示用)</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000ml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>125g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>400g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10個パック</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1kg</t>
+  </si>
+  <si>
+    <t>1kg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛乳(店頭売り,紙容器)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3個パック</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食品名(表示用)</t>
+    <rPh sb="0" eb="1">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1089,7 +1328,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1216,6 +1455,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,35 +1527,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1614,3398 +1868,3627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31283A3F-C3F4-4FA8-B999-817263605465}">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="66.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="25.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
     </row>
-    <row r="2" spans="1:28" ht="199" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:30" ht="199" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
+      <c r="B2" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>157</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="U2" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="V2" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="W2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="60" t="s">
+      <c r="X2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="AA2" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="AB2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AC2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="21"/>
       <c r="B3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="G3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="H3" s="57"/>
+      <c r="I3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="45" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="43" t="s">
+      <c r="O3" s="60"/>
+      <c r="P3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="T3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="55" t="s">
+      <c r="U3" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="35"/>
       <c r="Z3" s="36"/>
       <c r="AA3" s="36"/>
-      <c r="AB3" s="37"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="37"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="2">
         <v>1032</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="1">
         <v>150</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>150</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>110</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>10</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>0.02</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>0.4</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>38</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>0.3</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>0.04</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>0.15</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>0.03</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>5</v>
       </c>
-      <c r="R4" s="3">
+      <c r="T4" s="3">
         <v>1</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>12</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>31.5</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>18.225000000000001</v>
       </c>
-      <c r="V4" s="58">
+      <c r="X4" s="44">
         <v>61.725000000000001</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>3.9757499999999997</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>-0.34500000000000064</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>19.155000000000001</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>12.982500000000002</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>-12.637499999999999</v>
       </c>
-      <c r="AB4" s="39">
+      <c r="AD4" s="39">
         <v>-21.896250000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>21.6</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>60</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>630</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>19</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>0.3</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>3.2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>250</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
         <v>0.03</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>0.38</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>0.01</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>27</v>
       </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5">
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>86.4</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>222.29999999999998</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>4.2750000000000004</v>
       </c>
-      <c r="V5" s="59">
+      <c r="X5" s="45">
         <v>312.97499999999997</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>45.713250000000009</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>23.805000000000007</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>159.70499999999998</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>128.4075</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>-152.21249999999998</v>
       </c>
-      <c r="AB5" s="40">
+      <c r="AD5" s="40">
         <v>-199.15874999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="1">
         <v>125</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>17.7</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>120</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>460</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>20</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>0.2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>2.8</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>240</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>0.2</v>
       </c>
-      <c r="N6" s="2">
+      <c r="P6" s="2">
         <v>0.03</v>
       </c>
-      <c r="O6" s="2">
+      <c r="Q6" s="2">
         <v>0.48</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <v>0.08</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>47</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6">
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>70.8</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>202.5</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>16.649999999999999</v>
       </c>
-      <c r="V6" s="59">
+      <c r="X6" s="45">
         <v>289.95</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>33.106499999999997</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>12.809999999999995</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>144.51</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>115.515</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>-128.32499999999999</v>
       </c>
-      <c r="AB6" s="40">
+      <c r="AD6" s="40">
         <v>-171.8175</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="1">
         <v>400</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>3.3</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>170</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>120</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>12</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
         <v>0.4</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>33</v>
       </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.04</v>
-      </c>
       <c r="O7" s="2">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
         <v>0.04</v>
       </c>
       <c r="Q7" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="S7" s="2">
         <v>11</v>
       </c>
-      <c r="R7" s="3">
+      <c r="T7" s="3">
         <v>1</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>13.2</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>25.2</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>17.324999999999999</v>
       </c>
-      <c r="V7" s="59">
+      <c r="X7" s="45">
         <v>55.724999999999994</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>5.9557500000000001</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>2.0549999999999997</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>14.055</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>8.4825000000000017</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>-10.537499999999998</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AD7" s="40">
         <v>-18.896249999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>630</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <v>60</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>11.3</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
         <v>130</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>46</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>10</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>1.5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>210</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>3.8</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>0.06</v>
       </c>
-      <c r="O8" s="2">
+      <c r="Q8" s="2">
         <v>0.37</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>0.09</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2">
         <v>49</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>45.2</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>83.7</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>12.75</v>
       </c>
-      <c r="V8" s="59">
+      <c r="X8" s="45">
         <v>141.65</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>26.785500000000003</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>16.87</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>55.370000000000005</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>41.205000000000005</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>-58.075000000000003</v>
       </c>
-      <c r="AB8" s="40">
+      <c r="AD8" s="40">
         <v>-79.322500000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="1">
         <v>1000</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <v>70</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>0.8</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>1.8</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>190</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>42</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>14</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>0.3</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
         <v>0.1</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
         <v>0.04</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>0.03</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>66</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>38</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>3.2</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>18.525000000000002</v>
       </c>
-      <c r="V9" s="59">
+      <c r="X9" s="45">
         <v>21.725000000000001</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>0.37575000000000003</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>-1.1450000000000005</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>-4.3450000000000006</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>-6.5175000000000001</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>7.6625000000000014</v>
       </c>
-      <c r="AB9" s="40">
+      <c r="AD9" s="40">
         <v>4.4037500000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="1">
         <v>1000</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <v>60</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>1.7</v>
       </c>
-      <c r="F10" s="2">
+      <c r="H10" s="2">
         <v>2.8</v>
       </c>
-      <c r="G10" s="2">
+      <c r="I10" s="2">
         <v>690</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>49</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>69</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="M10" s="2">
         <v>0.7</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>350</v>
       </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <v>0.11</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>0.2</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>210</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>35</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>6.8</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>1.8</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>9.4250000000000007</v>
       </c>
-      <c r="V10" s="59">
+      <c r="X10" s="45">
         <v>18.024999999999999</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>4.4567499999999995</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>3.1949999999999998</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>-1.8049999999999999</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>-3.6074999999999999</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>0.41250000000000142</v>
       </c>
-      <c r="AB10" s="40">
+      <c r="AD10" s="40">
         <v>-2.291249999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>1000</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <v>70</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>0.6</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
         <v>1.3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="I11" s="2">
         <v>220</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>43</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K11" s="2">
         <v>10</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <v>0.3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="M11" s="2">
         <v>0.2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>8</v>
       </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
         <v>0.03</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <v>0.03</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>0.09</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="2">
         <v>61</v>
       </c>
-      <c r="R11" s="3">
+      <c r="T11" s="3">
         <v>19</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>2.4</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <v>10.1</v>
       </c>
-      <c r="V11" s="59">
+      <c r="X11" s="45">
         <v>12.5</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>0.77499999999999991</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>-0.10000000000000009</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>-2.5</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>-3.75</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>3.8499999999999996</v>
       </c>
-      <c r="AB11" s="40">
+      <c r="AD11" s="40">
         <v>1.9749999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="1">
+      <c r="F12" s="1">
         <v>30</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="H12" s="2">
         <v>2.5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="I12" s="2">
         <v>200</v>
       </c>
-      <c r="H12" s="2">
+      <c r="J12" s="2">
         <v>36</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>13</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <v>0.3</v>
       </c>
-      <c r="K12" s="2">
+      <c r="M12" s="2">
         <v>0.3</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>7</v>
       </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
         <v>0.05</v>
       </c>
-      <c r="O12" s="2">
+      <c r="Q12" s="2">
         <v>0.04</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <v>0.12</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="S12" s="2">
         <v>72</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>14</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>4</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
         <v>29</v>
       </c>
-      <c r="V12" s="59">
+      <c r="X12" s="45">
         <v>33</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
         <v>-0.29000000000000004</v>
       </c>
-      <c r="X12">
+      <c r="Z12">
         <v>-2.6000000000000005</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>-6.6000000000000005</v>
       </c>
-      <c r="Z12">
+      <c r="AB12">
         <v>-9.9</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>12.5</v>
       </c>
-      <c r="AB12" s="40">
+      <c r="AD12" s="40">
         <v>7.5500000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>1000</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1">
+      <c r="F13" s="1">
         <v>50</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <v>0.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="H13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G13" s="2">
+      <c r="I13" s="2">
         <v>200</v>
       </c>
-      <c r="H13" s="2">
+      <c r="J13" s="2">
         <v>19</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>8</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="2">
         <v>0.3</v>
       </c>
-      <c r="K13" s="2">
+      <c r="M13" s="2">
         <v>0.2</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>20</v>
       </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.05</v>
-      </c>
       <c r="O13" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
         <v>0.05</v>
       </c>
       <c r="Q13" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S13" s="2">
         <v>73</v>
       </c>
-      <c r="R13" s="3">
+      <c r="T13" s="3">
         <v>5</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>2</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>8.5749999999999993</v>
       </c>
-      <c r="V13" s="59">
+      <c r="X13" s="45">
         <v>10.574999999999999</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>0.62525000000000008</v>
       </c>
-      <c r="X13">
+      <c r="Z13">
         <v>-0.11499999999999977</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>-2.1149999999999998</v>
       </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>-3.1724999999999999</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>3.2874999999999996</v>
       </c>
-      <c r="AB13" s="40">
+      <c r="AD13" s="40">
         <v>1.7012499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="1">
         <v>1000</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1">
+      <c r="F14" s="1">
         <v>70</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <v>2.8</v>
       </c>
-      <c r="F14" s="2">
+      <c r="H14" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G14" s="2">
+      <c r="I14" s="2">
         <v>160</v>
       </c>
-      <c r="H14" s="2">
+      <c r="J14" s="2">
         <v>25</v>
       </c>
-      <c r="I14" s="2">
+      <c r="K14" s="2">
         <v>23</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="2">
         <v>0.5</v>
       </c>
-      <c r="K14" s="2">
+      <c r="M14" s="2">
         <v>0.3</v>
       </c>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <v>2</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.08</v>
-      </c>
       <c r="O14" s="2">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
         <v>0.08</v>
       </c>
       <c r="Q14" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="S14" s="2">
         <v>44</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>4</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>11.2</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>10.799999999999999</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>6.85</v>
       </c>
-      <c r="V14" s="59">
+      <c r="X14" s="45">
         <v>28.85</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>7.4494999999999987</v>
       </c>
-      <c r="X14">
+      <c r="Z14">
         <v>5.4299999999999988</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>5.0299999999999985</v>
       </c>
-      <c r="Z14">
+      <c r="AB14">
         <v>2.1449999999999996</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>-7.5750000000000011</v>
       </c>
-      <c r="AB14" s="40">
+      <c r="AD14" s="40">
         <v>-11.902500000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="1">
         <v>1000</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1">
+      <c r="F15" s="1">
         <v>70</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <v>3.8</v>
       </c>
-      <c r="F15" s="2">
+      <c r="H15" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G15" s="2">
+      <c r="I15" s="2">
         <v>460</v>
       </c>
-      <c r="H15" s="2">
+      <c r="J15" s="2">
         <v>50</v>
       </c>
-      <c r="I15" s="2">
+      <c r="K15" s="2">
         <v>29</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L15" s="2">
         <v>1.3</v>
       </c>
-      <c r="K15" s="2">
+      <c r="M15" s="2">
         <v>0.8</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <v>75</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
         <v>0.17</v>
       </c>
-      <c r="O15" s="2">
+      <c r="Q15" s="2">
         <v>0.23</v>
       </c>
-      <c r="P15" s="2">
+      <c r="R15" s="2">
         <v>0.3</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="S15" s="2">
         <v>220</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>140</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>15.2</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>2.6999999999999997</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>20.099999999999998</v>
       </c>
-      <c r="V15" s="59">
+      <c r="X15" s="45">
         <v>38</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>10.259999999999998</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>7.5999999999999988</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>-4.9000000000000004</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>-8.7000000000000011</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>1.0999999999999979</v>
       </c>
-      <c r="AB15" s="40">
+      <c r="AD15" s="40">
         <v>-4.6000000000000014</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="1">
         <v>1000</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="1">
+      <c r="F16" s="1">
         <v>60</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <v>1.8</v>
       </c>
-      <c r="F16" s="2">
+      <c r="H16" s="2">
         <v>1.8</v>
       </c>
-      <c r="G16" s="2">
+      <c r="I16" s="2">
         <v>270</v>
       </c>
-      <c r="H16" s="2">
+      <c r="J16" s="2">
         <v>19</v>
       </c>
-      <c r="I16" s="2">
+      <c r="K16" s="2">
         <v>9</v>
       </c>
-      <c r="J16" s="2">
+      <c r="L16" s="2">
         <v>0.7</v>
       </c>
-      <c r="K16" s="2">
+      <c r="M16" s="2">
         <v>0.5</v>
       </c>
-      <c r="L16" s="2">
+      <c r="N16" s="2">
         <v>31</v>
       </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O16" s="2">
+      <c r="Q16" s="2">
         <v>0.15</v>
       </c>
-      <c r="P16" s="2">
+      <c r="R16" s="2">
         <v>0.12</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="S16" s="2">
         <v>190</v>
       </c>
-      <c r="R16" s="3">
+      <c r="T16" s="3">
         <v>15</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>7.2</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>1.8</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>12.074999999999999</v>
       </c>
-      <c r="V16" s="59">
+      <c r="X16" s="45">
         <v>21.074999999999999</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>4.4602500000000003</v>
       </c>
-      <c r="X16">
+      <c r="Z16">
         <v>2.9850000000000003</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>-2.415</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>-4.5225</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>1.5374999999999996</v>
       </c>
-      <c r="AB16" s="40">
+      <c r="AD16" s="40">
         <v>-1.6237500000000011</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="1">
         <v>1000</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="1">
+      <c r="F17" s="1">
         <v>100</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <v>0.8</v>
       </c>
-      <c r="F17" s="2">
+      <c r="H17" s="2">
         <v>2.8</v>
       </c>
-      <c r="G17" s="2">
+      <c r="I17" s="2">
         <v>380</v>
       </c>
-      <c r="H17" s="2">
+      <c r="J17" s="2">
         <v>40</v>
       </c>
-      <c r="I17" s="2">
+      <c r="K17" s="2">
         <v>24</v>
       </c>
-      <c r="J17" s="2">
+      <c r="L17" s="2">
         <v>0.5</v>
       </c>
-      <c r="K17" s="2">
+      <c r="M17" s="2">
         <v>0.2</v>
       </c>
-      <c r="L17" s="2">
+      <c r="N17" s="2">
         <v>3</v>
       </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
         <v>0.1</v>
       </c>
-      <c r="O17" s="2">
+      <c r="Q17" s="2">
         <v>0.02</v>
       </c>
-      <c r="P17" s="2">
+      <c r="R17" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="S17" s="2">
         <v>49</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>25</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>3.2</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>0.9</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>123.05</v>
       </c>
-      <c r="V17" s="59">
+      <c r="X17" s="45">
         <v>127.14999999999999</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>-13.329499999999999</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>-22.23</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>-24.53</v>
       </c>
-      <c r="Z17">
+      <c r="AB17">
         <v>-37.244999999999997</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>59.475000000000001</v>
       </c>
-      <c r="AB17" s="40">
+      <c r="AD17" s="40">
         <v>40.402500000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="1">
         <v>1000</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1">
+      <c r="F18" s="1">
         <v>100</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <v>1.3</v>
       </c>
-      <c r="F18" s="2">
+      <c r="H18" s="2">
         <v>8.9</v>
       </c>
-      <c r="G18" s="2">
+      <c r="I18" s="2">
         <v>410</v>
       </c>
-      <c r="H18" s="2">
+      <c r="J18" s="2">
         <v>4</v>
       </c>
-      <c r="I18" s="2">
+      <c r="K18" s="2">
         <v>19</v>
       </c>
-      <c r="J18" s="2">
+      <c r="L18" s="2">
         <v>0.4</v>
       </c>
-      <c r="K18" s="2">
+      <c r="M18" s="2">
         <v>0.2</v>
       </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
       <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
         <v>0.09</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <v>0.03</v>
       </c>
-      <c r="P18" s="2">
+      <c r="R18" s="2">
         <v>0.2</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="S18" s="2">
         <v>20</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>28</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>5.2</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <v>51.174999999999997</v>
       </c>
-      <c r="V18" s="59">
+      <c r="X18" s="45">
         <v>56.375</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
         <v>-2.1287500000000001</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>-6.0750000000000002</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>-11.275</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>-16.912499999999998</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>22.987499999999997</v>
       </c>
-      <c r="AB18" s="40">
+      <c r="AD18" s="40">
         <v>14.531249999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="1">
         <v>1000</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1">
+      <c r="F19" s="1">
         <v>80</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <v>1.3</v>
       </c>
-      <c r="F19" s="2">
+      <c r="H19" s="2">
         <v>2.4</v>
       </c>
-      <c r="G19" s="2">
+      <c r="I19" s="2">
         <v>560</v>
       </c>
-      <c r="H19" s="2">
+      <c r="J19" s="2">
         <v>14</v>
       </c>
-      <c r="I19" s="2">
+      <c r="K19" s="2">
         <v>17</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="2">
         <v>0.4</v>
       </c>
-      <c r="K19" s="2">
+      <c r="M19" s="2">
         <v>0.3</v>
       </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
       <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
         <v>0.06</v>
       </c>
-      <c r="O19" s="2">
+      <c r="Q19" s="2">
         <v>0.02</v>
       </c>
-      <c r="P19" s="2">
+      <c r="R19" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="S19" s="2">
         <v>28</v>
       </c>
-      <c r="R19" s="3">
+      <c r="T19" s="3">
         <v>5</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>5.2</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>0.9</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>46.424999999999997</v>
       </c>
-      <c r="V19" s="59">
+      <c r="X19" s="45">
         <v>52.524999999999999</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>-1.6282499999999995</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>-5.3050000000000006</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>-9.6050000000000004</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>-14.857499999999998</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>20.162499999999998</v>
       </c>
-      <c r="AB19" s="40">
+      <c r="AD19" s="40">
         <v>12.283749999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="1">
         <v>1000</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1">
+      <c r="F20" s="1">
         <v>70</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <v>0.3</v>
       </c>
-      <c r="F20" s="2">
+      <c r="H20" s="2">
         <v>1.3</v>
       </c>
-      <c r="G20" s="2">
+      <c r="I20" s="2">
         <v>230</v>
       </c>
-      <c r="H20" s="2">
+      <c r="J20" s="2">
         <v>23</v>
       </c>
-      <c r="I20" s="2">
+      <c r="K20" s="2">
         <v>10</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="2">
         <v>0.2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="M20" s="2">
         <v>0.1</v>
       </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
       <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
         <v>0.02</v>
       </c>
-      <c r="O20" s="2">
+      <c r="Q20" s="2">
         <v>0.01</v>
       </c>
-      <c r="P20" s="2">
+      <c r="R20" s="2">
         <v>0.05</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="2">
         <v>33</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>11</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>1.2</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
         <v>13.475</v>
       </c>
-      <c r="V20" s="59">
+      <c r="X20" s="45">
         <v>14.674999999999999</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
         <v>-0.70774999999999988</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>-1.7350000000000001</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>-2.9350000000000001</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>-4.4024999999999999</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>6.1375000000000002</v>
       </c>
-      <c r="AB20" s="40">
+      <c r="AD20" s="40">
         <v>3.9362499999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="1">
         <v>1000</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="1">
+      <c r="F21" s="1">
         <v>50</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>0.5</v>
       </c>
-      <c r="F21" s="2">
+      <c r="H21" s="2">
         <v>2.8</v>
       </c>
-      <c r="G21" s="2">
+      <c r="I21" s="2">
         <v>300</v>
       </c>
-      <c r="H21" s="2">
+      <c r="J21" s="2">
         <v>24</v>
       </c>
-      <c r="I21" s="2">
+      <c r="K21" s="2">
         <v>9</v>
       </c>
-      <c r="J21" s="2">
+      <c r="L21" s="2">
         <v>0.2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="M21" s="2">
         <v>0.2</v>
       </c>
-      <c r="L21" s="2">
+      <c r="N21" s="2">
         <v>630</v>
       </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
         <v>0.04</v>
       </c>
-      <c r="O21" s="2">
+      <c r="Q21" s="2">
         <v>0.03</v>
       </c>
-      <c r="P21" s="2">
+      <c r="R21" s="2">
         <v>0.09</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="S21" s="2">
         <v>23</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>4</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>2</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>0.9</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <v>29</v>
       </c>
-      <c r="V21" s="59">
+      <c r="X21" s="45">
         <v>31.9</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
         <v>-2.1470000000000002</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>-4.38</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>-5.4799999999999995</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>-8.6699999999999982</v>
       </c>
-      <c r="AA21">
+      <c r="AC21">
         <v>13.05</v>
       </c>
-      <c r="AB21" s="40">
+      <c r="AD21" s="40">
         <v>8.2650000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="1">
         <v>1000</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="1">
+      <c r="F22" s="1">
         <v>50</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F22" s="2">
+      <c r="H22" s="2">
         <v>5.7</v>
       </c>
-      <c r="G22" s="2">
+      <c r="I22" s="2">
         <v>320</v>
       </c>
-      <c r="H22" s="2">
+      <c r="J22" s="2">
         <v>46</v>
       </c>
-      <c r="I22" s="2">
+      <c r="K22" s="2">
         <v>54</v>
       </c>
-      <c r="J22" s="2">
+      <c r="L22" s="2">
         <v>0.7</v>
       </c>
-      <c r="K22" s="2">
+      <c r="M22" s="2">
         <v>0.8</v>
       </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
       <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
         <v>0.05</v>
       </c>
-      <c r="O22" s="2">
+      <c r="Q22" s="2">
         <v>0.04</v>
       </c>
-      <c r="P22" s="2">
+      <c r="R22" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="S22" s="2">
         <v>68</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>3</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>4.4000000000000004</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>0.9</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>50.4</v>
       </c>
-      <c r="V22" s="59">
+      <c r="X22" s="45">
         <v>55.7</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>-2.8410000000000002</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>-6.74</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>-10.24</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>-15.81</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>22.549999999999997</v>
       </c>
-      <c r="AB22" s="40">
+      <c r="AD22" s="40">
         <v>14.194999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="1">
         <v>1000</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="1">
+      <c r="F23" s="1">
         <v>50</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <v>0.7</v>
       </c>
-      <c r="F23" s="2">
+      <c r="H23" s="2">
         <v>1.5</v>
       </c>
-      <c r="G23" s="2">
+      <c r="I23" s="2">
         <v>150</v>
       </c>
-      <c r="H23" s="2">
+      <c r="J23" s="2">
         <v>17</v>
       </c>
-      <c r="I23" s="2">
+      <c r="K23" s="2">
         <v>9</v>
       </c>
-      <c r="J23" s="2">
+      <c r="L23" s="2">
         <v>0.3</v>
       </c>
-      <c r="K23" s="2">
+      <c r="M23" s="2">
         <v>0.2</v>
       </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
       <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
         <v>0.04</v>
       </c>
-      <c r="O23" s="2">
+      <c r="Q23" s="2">
         <v>0.01</v>
       </c>
-      <c r="P23" s="2">
+      <c r="R23" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="2">
         <v>15</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>7</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>2.8</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
         <v>29.85</v>
       </c>
-      <c r="V23" s="59">
+      <c r="X23" s="45">
         <v>32.65</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
         <v>-1.4445000000000006</v>
       </c>
-      <c r="X23">
+      <c r="Z23">
         <v>-3.7300000000000004</v>
       </c>
-      <c r="Y23">
+      <c r="AA23">
         <v>-6.53</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <v>-9.7949999999999999</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>13.525000000000002</v>
       </c>
-      <c r="AB23" s="40">
+      <c r="AD23" s="40">
         <v>8.6275000000000013</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="1">
         <v>1000</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="1">
+      <c r="F24" s="1">
         <v>70</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <v>0.9</v>
       </c>
-      <c r="F24" s="2">
+      <c r="H24" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G24" s="2">
+      <c r="I24" s="2">
         <v>240</v>
       </c>
-      <c r="H24" s="2">
+      <c r="J24" s="2">
         <v>20</v>
       </c>
-      <c r="I24" s="2">
+      <c r="K24" s="2">
         <v>13</v>
       </c>
-      <c r="J24" s="2">
+      <c r="L24" s="2">
         <v>0.4</v>
       </c>
-      <c r="K24" s="2">
+      <c r="M24" s="2">
         <v>0.3</v>
       </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
       <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
         <v>0.06</v>
       </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="S24" s="2">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>18</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>3.6</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
         <v>58.225000000000001</v>
       </c>
-      <c r="V24" s="59">
+      <c r="X24" s="45">
         <v>61.825000000000003</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
         <v>-4.4372500000000006</v>
       </c>
-      <c r="X24">
+      <c r="Z24">
         <v>-8.7650000000000023</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <v>-12.365000000000002</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <v>-18.547499999999999</v>
       </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>27.3125</v>
       </c>
-      <c r="AB24" s="40">
+      <c r="AD24" s="40">
         <v>18.03875</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B25" s="1">
         <v>1000</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="1">
+      <c r="F25" s="1">
         <v>80</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <v>1.5</v>
       </c>
-      <c r="F25" s="2">
+      <c r="H25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="2">
+      <c r="I25" s="2">
         <v>430</v>
       </c>
-      <c r="H25" s="2">
+      <c r="J25" s="2">
         <v>17</v>
       </c>
-      <c r="I25" s="2">
+      <c r="K25" s="2">
         <v>17</v>
       </c>
-      <c r="J25" s="2">
+      <c r="L25" s="2">
         <v>0.4</v>
       </c>
-      <c r="K25" s="2">
+      <c r="M25" s="2">
         <v>0.3</v>
       </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
       <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
         <v>0.1</v>
       </c>
-      <c r="O25" s="2">
+      <c r="Q25" s="2">
         <v>0.02</v>
       </c>
-      <c r="P25" s="2">
+      <c r="R25" s="2">
         <v>0.09</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="S25" s="2">
         <v>8</v>
       </c>
-      <c r="R25" s="3">
+      <c r="T25" s="3">
         <v>6</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>6</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>0.9</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>53.75</v>
       </c>
-      <c r="V25" s="59">
+      <c r="X25" s="45">
         <v>60.65</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
         <v>-1.8845000000000001</v>
       </c>
-      <c r="X25">
+      <c r="Z25">
         <v>-6.1300000000000008</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <v>-11.23</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>-17.295000000000002</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>23.425000000000001</v>
       </c>
-      <c r="AB25" s="40">
+      <c r="AD25" s="40">
         <v>14.327500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="1">
         <v>1000</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="1">
+      <c r="F26" s="1">
         <v>60</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F26" s="2">
+      <c r="H26" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G26" s="2">
+      <c r="I26" s="2">
         <v>490</v>
       </c>
-      <c r="H26" s="2">
+      <c r="J26" s="2">
         <v>76</v>
       </c>
-      <c r="I26" s="2">
+      <c r="K26" s="2">
         <v>72</v>
       </c>
-      <c r="J26" s="2">
+      <c r="L26" s="2">
         <v>2.5</v>
       </c>
-      <c r="K26" s="2">
+      <c r="M26" s="2">
         <v>1.3</v>
       </c>
-      <c r="L26" s="2">
+      <c r="N26" s="2">
         <v>24</v>
       </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
         <v>0.24</v>
       </c>
-      <c r="O26" s="2">
+      <c r="Q26" s="2">
         <v>0.13</v>
       </c>
-      <c r="P26" s="2">
+      <c r="R26" s="2">
         <v>0.08</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="S26" s="2">
         <v>260</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>15</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>39.200000000000003</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>52.199999999999996</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>26.45</v>
       </c>
-      <c r="V26" s="59">
+      <c r="X26" s="45">
         <v>117.85000000000001</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>23.8795</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>15.629999999999999</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <v>28.629999999999992</v>
       </c>
-      <c r="Z26">
+      <c r="AB26">
         <v>16.844999999999992</v>
       </c>
-      <c r="AA26">
+      <c r="AC26">
         <v>-32.475000000000009</v>
       </c>
-      <c r="AB26" s="40">
+      <c r="AD26" s="40">
         <v>-50.152500000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B27" s="1">
         <v>1000</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="1">
+      <c r="F27" s="1">
         <v>60</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <v>1.2</v>
       </c>
-      <c r="F27" s="2">
+      <c r="H27" s="2">
         <v>3.9</v>
       </c>
-      <c r="G27" s="2">
+      <c r="I27" s="2">
         <v>270</v>
       </c>
-      <c r="H27" s="2">
+      <c r="J27" s="2">
         <v>53</v>
       </c>
-      <c r="I27" s="2">
+      <c r="K27" s="2">
         <v>22</v>
       </c>
-      <c r="J27" s="2">
+      <c r="L27" s="2">
         <v>0.7</v>
       </c>
-      <c r="K27" s="2">
+      <c r="M27" s="2">
         <v>0.3</v>
       </c>
-      <c r="L27" s="2">
+      <c r="N27" s="2">
         <v>48</v>
       </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2">
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
         <v>0.06</v>
       </c>
-      <c r="O27" s="2">
+      <c r="Q27" s="2">
         <v>0.1</v>
       </c>
-      <c r="P27" s="2">
+      <c r="R27" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="S27" s="2">
         <v>53</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>6</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>4.8</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>1.8</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>17.7</v>
       </c>
-      <c r="V27" s="59">
+      <c r="X27" s="45">
         <v>24.299999999999997</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>1.641</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>-5.9999999999999609E-2</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>-3.0599999999999996</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <v>-5.4899999999999993</v>
       </c>
-      <c r="AA27">
+      <c r="AC27">
         <v>5.5500000000000007</v>
       </c>
-      <c r="AB27" s="40">
+      <c r="AD27" s="40">
         <v>1.9050000000000011</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B28" s="1">
         <v>1000</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="1">
+      <c r="F28" s="1">
         <v>70</v>
       </c>
-      <c r="E28" s="2">
+      <c r="G28" s="2">
         <v>1.2</v>
       </c>
-      <c r="F28" s="2">
+      <c r="H28" s="2">
         <v>3.5</v>
       </c>
-      <c r="G28" s="2">
+      <c r="I28" s="2">
         <v>430</v>
       </c>
-      <c r="H28" s="2">
+      <c r="J28" s="2">
         <v>22</v>
       </c>
-      <c r="I28" s="2">
+      <c r="K28" s="2">
         <v>25</v>
       </c>
-      <c r="J28" s="2">
+      <c r="L28" s="2">
         <v>0.4</v>
       </c>
-      <c r="K28" s="2">
+      <c r="M28" s="2">
         <v>0.3</v>
       </c>
-      <c r="L28" s="2">
+      <c r="N28" s="2">
         <v>210</v>
       </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O28" s="2">
+      <c r="Q28" s="2">
         <v>0.08</v>
       </c>
-      <c r="P28" s="2">
+      <c r="R28" s="2">
         <v>0.23</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="S28" s="2">
         <v>42</v>
       </c>
-      <c r="R28" s="3">
+      <c r="T28" s="3">
         <v>43</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>4.8</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>1.8</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>71.95</v>
       </c>
-      <c r="V28" s="59">
+      <c r="X28" s="45">
         <v>78.55</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
         <v>-5.4114999999999993</v>
       </c>
-      <c r="X28">
+      <c r="Z28">
         <v>-10.91</v>
       </c>
-      <c r="Y28">
+      <c r="AA28">
         <v>-13.91</v>
       </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>-21.764999999999997</v>
       </c>
-      <c r="AA28">
+      <c r="AC28">
         <v>32.675000000000004</v>
       </c>
-      <c r="AB28" s="40">
+      <c r="AD28" s="40">
         <v>20.892500000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="1">
         <v>1000</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="1">
+      <c r="F29" s="1">
         <v>60</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G29" s="2">
         <v>0.7</v>
       </c>
-      <c r="F29" s="2">
+      <c r="H29" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G29" s="2">
+      <c r="I29" s="2">
         <v>200</v>
       </c>
-      <c r="H29" s="2">
+      <c r="J29" s="2">
         <v>26</v>
       </c>
-      <c r="I29" s="2">
+      <c r="K29" s="2">
         <v>15</v>
       </c>
-      <c r="J29" s="2">
+      <c r="L29" s="2">
         <v>0.3</v>
       </c>
-      <c r="K29" s="2">
+      <c r="M29" s="2">
         <v>0.2</v>
       </c>
-      <c r="L29" s="2">
+      <c r="N29" s="2">
         <v>28</v>
       </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2">
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
         <v>0.03</v>
       </c>
-      <c r="O29" s="2">
+      <c r="Q29" s="2">
         <v>0.03</v>
       </c>
-      <c r="P29" s="2">
+      <c r="R29" s="2">
         <v>0.05</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="S29" s="2">
         <v>25</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>14</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>2.8</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
         <v>10.6</v>
       </c>
-      <c r="V29" s="59">
+      <c r="X29" s="45">
         <v>13.399999999999999</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
         <v>1.0580000000000001</v>
       </c>
-      <c r="X29">
+      <c r="Z29">
         <v>0.12000000000000011</v>
       </c>
-      <c r="Y29">
+      <c r="AA29">
         <v>-2.6799999999999997</v>
       </c>
-      <c r="Z29">
+      <c r="AB29">
         <v>-4.0199999999999996</v>
       </c>
-      <c r="AA29">
+      <c r="AC29">
         <v>3.9000000000000004</v>
       </c>
-      <c r="AB29" s="40">
+      <c r="AD29" s="40">
         <v>1.8900000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B30" s="1">
         <v>1000</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="1">
+      <c r="F30" s="1">
         <v>70</v>
       </c>
-      <c r="E30" s="2">
+      <c r="G30" s="2">
         <v>0.7</v>
       </c>
-      <c r="F30" s="2">
+      <c r="H30" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G30" s="2">
+      <c r="I30" s="2">
         <v>220</v>
       </c>
-      <c r="H30" s="2">
+      <c r="J30" s="2">
         <v>18</v>
       </c>
-      <c r="I30" s="2">
+      <c r="K30" s="2">
         <v>17</v>
       </c>
-      <c r="J30" s="2">
+      <c r="L30" s="2">
         <v>0.3</v>
       </c>
-      <c r="K30" s="2">
+      <c r="M30" s="2">
         <v>0.2</v>
       </c>
-      <c r="L30" s="2">
+      <c r="N30" s="2">
         <v>8</v>
       </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0.05</v>
-      </c>
       <c r="O30" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
         <v>0.05</v>
       </c>
       <c r="Q30" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S30" s="2">
         <v>32</v>
       </c>
-      <c r="R30" s="3">
+      <c r="T30" s="3">
         <v>4</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>2.8</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
         <v>15.350000000000001</v>
       </c>
-      <c r="V30" s="59">
+      <c r="X30" s="45">
         <v>18.150000000000002</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
         <v>0.44049999999999967</v>
       </c>
-      <c r="X30">
+      <c r="Z30">
         <v>-0.83000000000000096</v>
       </c>
-      <c r="Y30">
+      <c r="AA30">
         <v>-3.6300000000000008</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
         <v>-5.4450000000000003</v>
       </c>
-      <c r="AA30">
+      <c r="AC30">
         <v>6.2750000000000004</v>
       </c>
-      <c r="AB30" s="40">
+      <c r="AD30" s="40">
         <v>3.5525000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="1">
         <v>1000</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="1">
+      <c r="F31" s="1">
         <v>70</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G31" s="2">
         <v>0.5</v>
       </c>
-      <c r="F31" s="2">
+      <c r="H31" s="2">
         <v>1</v>
       </c>
-      <c r="G31" s="2">
+      <c r="I31" s="2">
         <v>210</v>
       </c>
-      <c r="H31" s="2">
+      <c r="J31" s="2">
         <v>7</v>
       </c>
-      <c r="I31" s="2">
+      <c r="K31" s="2">
         <v>9</v>
       </c>
-      <c r="J31" s="2">
+      <c r="L31" s="2">
         <v>0.2</v>
       </c>
-      <c r="K31" s="2">
+      <c r="M31" s="2">
         <v>0.1</v>
       </c>
-      <c r="L31" s="2">
+      <c r="N31" s="2">
         <v>45</v>
       </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2">
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
         <v>0.05</v>
       </c>
-      <c r="O31" s="2">
+      <c r="Q31" s="2">
         <v>0.02</v>
       </c>
-      <c r="P31" s="2">
+      <c r="R31" s="2">
         <v>0.08</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="S31" s="2">
         <v>22</v>
       </c>
-      <c r="R31" s="3">
+      <c r="T31" s="3">
         <v>15</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>2</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>0.9</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>16.324999999999999</v>
       </c>
-      <c r="V31" s="59">
+      <c r="X31" s="45">
         <v>19.224999999999998</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
         <v>-0.49924999999999997</v>
       </c>
-      <c r="X31">
+      <c r="Z31">
         <v>-1.8449999999999998</v>
       </c>
-      <c r="Y31">
+      <c r="AA31">
         <v>-2.9449999999999998</v>
       </c>
-      <c r="Z31">
+      <c r="AB31">
         <v>-4.8674999999999988</v>
       </c>
-      <c r="AA31">
+      <c r="AC31">
         <v>6.7125000000000004</v>
       </c>
-      <c r="AB31" s="40">
+      <c r="AD31" s="40">
         <v>3.8287499999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B32" s="1">
         <v>1000</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="1">
+      <c r="F32" s="1">
         <v>50</v>
       </c>
-      <c r="E32" s="2">
+      <c r="G32" s="2">
         <v>0.7</v>
       </c>
-      <c r="F32" s="2">
+      <c r="H32" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G32" s="2">
+      <c r="I32" s="2">
         <v>190</v>
       </c>
-      <c r="H32" s="2">
+      <c r="J32" s="2">
         <v>11</v>
       </c>
-      <c r="I32" s="2">
+      <c r="K32" s="2">
         <v>11</v>
       </c>
-      <c r="J32" s="2">
+      <c r="L32" s="2">
         <v>0.4</v>
       </c>
-      <c r="K32" s="2">
+      <c r="M32" s="2">
         <v>0.2</v>
       </c>
-      <c r="L32" s="2">
+      <c r="N32" s="2">
         <v>33</v>
       </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
         <v>0.03</v>
       </c>
-      <c r="O32" s="2">
+      <c r="Q32" s="2">
         <v>0.03</v>
       </c>
-      <c r="P32" s="2">
+      <c r="R32" s="2">
         <v>0.19</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="S32" s="2">
         <v>26</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>76</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>2.8</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>0.9</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>16.45</v>
       </c>
-      <c r="V32" s="59">
+      <c r="X32" s="45">
         <v>20.149999999999999</v>
       </c>
-      <c r="W32">
+      <c r="Y32">
         <v>0.18049999999999988</v>
       </c>
-      <c r="X32">
+      <c r="Z32">
         <v>-1.2300000000000004</v>
       </c>
-      <c r="Y32">
+      <c r="AA32">
         <v>-3.1300000000000003</v>
       </c>
-      <c r="Z32">
+      <c r="AB32">
         <v>-5.1449999999999987</v>
       </c>
-      <c r="AA32">
+      <c r="AC32">
         <v>6.375</v>
       </c>
-      <c r="AB32" s="40">
+      <c r="AD32" s="40">
         <v>3.3524999999999991</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B33" s="1">
         <v>1000</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="1">
+      <c r="F33" s="1">
         <v>30</v>
       </c>
-      <c r="E33" s="2">
+      <c r="G33" s="2">
         <v>2</v>
       </c>
-      <c r="F33" s="2">
+      <c r="H33" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G33" s="2">
+      <c r="I33" s="2">
         <v>290</v>
       </c>
-      <c r="H33" s="2">
+      <c r="J33" s="2">
         <v>1</v>
       </c>
-      <c r="I33" s="2">
+      <c r="K33" s="2">
         <v>14</v>
       </c>
-      <c r="J33" s="2">
+      <c r="L33" s="2">
         <v>0.4</v>
       </c>
-      <c r="K33" s="2">
+      <c r="M33" s="2">
         <v>0.9</v>
       </c>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
         <v>0.3</v>
       </c>
-      <c r="N33" s="2">
+      <c r="P33" s="2">
         <v>0.13</v>
       </c>
-      <c r="O33" s="2">
+      <c r="Q33" s="2">
         <v>0.21</v>
       </c>
-      <c r="P33" s="2">
+      <c r="R33" s="2">
         <v>0.21</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="S33" s="2">
         <v>49</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33">
         <v>8</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <v>1.8</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>15.904999999999999</v>
       </c>
-      <c r="V33" s="59">
+      <c r="X33" s="45">
         <v>25.704999999999998</v>
       </c>
-      <c r="W33">
+      <c r="Y33">
         <v>4.6583500000000004</v>
       </c>
-      <c r="X33">
+      <c r="Z33">
         <v>2.859</v>
       </c>
-      <c r="Y33">
+      <c r="AA33">
         <v>-3.3410000000000002</v>
       </c>
-      <c r="Z33">
+      <c r="AB33">
         <v>-5.9114999999999993</v>
       </c>
-      <c r="AA33">
+      <c r="AC33">
         <v>3.0525000000000002</v>
       </c>
-      <c r="AB33" s="40">
+      <c r="AD33" s="40">
         <v>-0.80325000000000024</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B34" s="1">
         <v>1000</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="1">
+      <c r="F34" s="1">
         <v>30</v>
       </c>
-      <c r="E34" s="2">
+      <c r="G34" s="2">
         <v>1.6</v>
       </c>
-      <c r="F34" s="2">
+      <c r="H34" s="2">
         <v>3.9</v>
       </c>
-      <c r="G34" s="2">
+      <c r="I34" s="2">
         <v>340</v>
       </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
         <v>15</v>
       </c>
-      <c r="J34" s="2">
+      <c r="L34" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K34" s="2">
+      <c r="M34" s="2">
         <v>0.6</v>
       </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
         <v>0.9</v>
       </c>
-      <c r="N34" s="2">
+      <c r="P34" s="2">
         <v>0.24</v>
       </c>
-      <c r="O34" s="2">
+      <c r="Q34" s="2">
         <v>0.17</v>
       </c>
-      <c r="P34" s="2">
+      <c r="R34" s="2">
         <v>0.12</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="S34" s="2">
         <v>75</v>
       </c>
-      <c r="R34" s="3">
-        <v>0</v>
-      </c>
-      <c r="S34">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34">
         <v>6.4</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>0.9</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>26.04</v>
       </c>
-      <c r="V34" s="59">
+      <c r="X34" s="45">
         <v>33.340000000000003</v>
       </c>
-      <c r="W34">
+      <c r="Y34">
         <v>2.0657999999999994</v>
       </c>
-      <c r="X34">
+      <c r="Z34">
         <v>-0.26800000000000068</v>
       </c>
-      <c r="Y34">
+      <c r="AA34">
         <v>-5.7680000000000007</v>
       </c>
-      <c r="Z34">
+      <c r="AB34">
         <v>-9.1020000000000003</v>
       </c>
-      <c r="AA34">
+      <c r="AC34">
         <v>9.3699999999999974</v>
       </c>
-      <c r="AB34" s="40">
+      <c r="AD34" s="40">
         <v>4.3689999999999962</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="1">
         <v>1000</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="1">
+      <c r="F35" s="1">
         <v>30</v>
       </c>
-      <c r="E35" s="2">
+      <c r="G35" s="2">
         <v>1.6</v>
       </c>
-      <c r="F35" s="2">
+      <c r="H35" s="2">
         <v>3</v>
       </c>
-      <c r="G35" s="2">
+      <c r="I35" s="2">
         <v>370</v>
       </c>
-      <c r="H35" s="2">
+      <c r="J35" s="2">
         <v>1</v>
       </c>
-      <c r="I35" s="2">
+      <c r="K35" s="2">
         <v>11</v>
       </c>
-      <c r="J35" s="2">
+      <c r="L35" s="2">
         <v>0.5</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
       </c>
       <c r="M35" s="2">
         <v>0.5</v>
       </c>
       <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P35" s="2">
         <v>0.15</v>
       </c>
-      <c r="O35" s="2">
+      <c r="Q35" s="2">
         <v>0.17</v>
       </c>
-      <c r="P35" s="2">
+      <c r="R35" s="2">
         <v>0.09</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="S35" s="2">
         <v>29</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35">
         <v>6.4</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>1.8</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>17.234999999999999</v>
       </c>
-      <c r="V35" s="59">
+      <c r="X35" s="45">
         <v>25.435000000000002</v>
       </c>
-      <c r="W35">
+      <c r="Y35">
         <v>3.0934499999999998</v>
       </c>
-      <c r="X35">
+      <c r="Z35">
         <v>1.3129999999999997</v>
       </c>
-      <c r="Y35">
+      <c r="AA35">
         <v>-3.2870000000000008</v>
       </c>
-      <c r="Z35">
+      <c r="AB35">
         <v>-5.8305000000000007</v>
       </c>
-      <c r="AA35">
+      <c r="AC35">
         <v>4.5174999999999983</v>
       </c>
-      <c r="AB35" s="40">
+      <c r="AD35" s="40">
         <v>0.70224999999999582</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="1">
         <v>100</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="1">
+      <c r="F36" s="1">
         <v>30</v>
       </c>
-      <c r="E36" s="2">
+      <c r="G36" s="2">
         <v>1.4</v>
       </c>
-      <c r="F36" s="2">
+      <c r="H36" s="2">
         <v>3.6</v>
       </c>
-      <c r="G36" s="2">
+      <c r="I36" s="2">
         <v>730</v>
       </c>
-      <c r="H36" s="2">
+      <c r="J36" s="2">
         <v>100</v>
       </c>
-      <c r="I36" s="2">
+      <c r="K36" s="2">
         <v>110</v>
       </c>
-      <c r="J36" s="2">
+      <c r="L36" s="2">
         <v>0.7</v>
       </c>
-      <c r="K36" s="2">
+      <c r="M36" s="2">
         <v>0.3</v>
       </c>
-      <c r="L36" s="2">
+      <c r="N36" s="2">
         <v>79</v>
       </c>
-      <c r="M36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2">
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O36" s="2">
+      <c r="Q36" s="2">
         <v>0.18</v>
       </c>
-      <c r="P36" s="2">
+      <c r="R36" s="2">
         <v>0.03</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="S36" s="2">
         <v>29</v>
       </c>
-      <c r="R36" s="3">
+      <c r="T36" s="3">
         <v>15</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <v>5.6</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <v>0.9</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <v>16.95</v>
       </c>
-      <c r="V36" s="59">
+      <c r="X36" s="45">
         <v>23.45</v>
       </c>
-      <c r="W36">
+      <c r="Y36">
         <v>2.5514999999999994</v>
       </c>
-      <c r="X36">
+      <c r="Z36">
         <v>0.90999999999999925</v>
       </c>
-      <c r="Y36">
+      <c r="AA36">
         <v>-3.7900000000000005</v>
       </c>
-      <c r="Z36">
+      <c r="AB36">
         <v>-6.1349999999999989</v>
       </c>
-      <c r="AA36">
+      <c r="AC36">
         <v>5.2249999999999996</v>
       </c>
-      <c r="AB36" s="40">
+      <c r="AD36" s="40">
         <v>1.7074999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B37" s="1">
         <v>100</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="1">
+      <c r="F37" s="1">
         <v>10</v>
       </c>
-      <c r="E37" s="2">
+      <c r="G37" s="2">
         <v>7.4</v>
       </c>
-      <c r="F37" s="2">
+      <c r="H37" s="2">
         <v>51.8</v>
       </c>
-      <c r="G37" s="2">
+      <c r="I37" s="2">
         <v>6400</v>
       </c>
-      <c r="H37" s="2">
+      <c r="J37" s="2">
         <v>1000</v>
       </c>
-      <c r="I37" s="2">
+      <c r="K37" s="2">
         <v>640</v>
       </c>
-      <c r="J37" s="2">
+      <c r="L37" s="2">
         <v>6.2</v>
       </c>
-      <c r="K37" s="2">
+      <c r="M37" s="2">
         <v>1</v>
       </c>
-      <c r="L37" s="2">
+      <c r="N37" s="2">
         <v>360</v>
       </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
         <v>0.09</v>
       </c>
-      <c r="O37" s="2">
+      <c r="Q37" s="2">
         <v>0.42</v>
       </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
         <v>93</v>
       </c>
-      <c r="R37" s="3">
-        <v>0</v>
-      </c>
-      <c r="S37">
+      <c r="T37" s="3">
+        <v>0</v>
+      </c>
+      <c r="U37">
         <v>29.6</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <v>15.299999999999999</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <v>136.54</v>
       </c>
-      <c r="V37" s="59">
+      <c r="X37" s="45">
         <v>181.44</v>
       </c>
-      <c r="W37">
+      <c r="Y37">
         <v>6.0128000000000021</v>
       </c>
-      <c r="X37">
+      <c r="Z37">
         <v>-6.6880000000000024</v>
       </c>
-      <c r="Y37">
+      <c r="AA37">
         <v>-20.988000000000007</v>
       </c>
-      <c r="Z37">
+      <c r="AB37">
         <v>-39.131999999999998</v>
       </c>
-      <c r="AA37">
+      <c r="AC37">
         <v>45.819999999999993</v>
       </c>
-      <c r="AB37" s="40">
+      <c r="AD37" s="40">
         <v>18.603999999999985</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B38" s="1">
         <v>1000</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D38" s="1">
+      <c r="F38" s="1">
         <v>100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>6.7</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>110</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>93</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>57</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>1.5</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>0.6</v>
       </c>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>0</v>
-      </c>
       <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
         <v>0.09</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>0.04</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>0.05</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>12</v>
       </c>
-      <c r="R38" s="3">
-        <v>0</v>
-      </c>
-      <c r="S38">
+      <c r="T38" s="3">
+        <v>0</v>
+      </c>
+      <c r="U38">
         <v>26.8</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>40.5</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <v>5.8000000000000007</v>
       </c>
-      <c r="V38" s="59">
+      <c r="X38" s="45">
         <v>73.099999999999994</v>
       </c>
-      <c r="W38">
+      <c r="Y38">
         <v>17.297000000000001</v>
       </c>
-      <c r="X38">
+      <c r="Z38">
         <v>12.180000000000001</v>
       </c>
-      <c r="Y38">
+      <c r="AA38">
         <v>25.880000000000003</v>
       </c>
-      <c r="Z38">
+      <c r="AB38">
         <v>18.570000000000004</v>
       </c>
-      <c r="AA38">
+      <c r="AC38">
         <v>-30.749999999999996</v>
       </c>
-      <c r="AB38" s="40">
+      <c r="AD38" s="40">
         <v>-41.715000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B39" s="1">
         <v>1000</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="1">
+      <c r="F39" s="1">
         <v>30</v>
       </c>
-      <c r="E39" s="2">
+      <c r="G39" s="2">
         <v>12.3</v>
       </c>
-      <c r="F39" s="2">
+      <c r="H39" s="2">
         <v>0.6</v>
       </c>
-      <c r="G39" s="2">
+      <c r="I39" s="2">
         <v>12</v>
       </c>
-      <c r="H39" s="2">
+      <c r="J39" s="2">
         <v>140</v>
       </c>
-      <c r="I39" s="2">
+      <c r="K39" s="2">
         <v>59</v>
       </c>
-      <c r="J39" s="2">
+      <c r="L39" s="2">
         <v>1.6</v>
       </c>
-      <c r="K39" s="2">
+      <c r="M39" s="2">
         <v>1.4</v>
       </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
       <c r="N39" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2">
         <v>0.01</v>
       </c>
       <c r="Q39" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="S39" s="2">
         <v>3</v>
       </c>
-      <c r="R39" s="3">
-        <v>0</v>
-      </c>
-      <c r="S39">
+      <c r="T39" s="3">
+        <v>0</v>
+      </c>
+      <c r="U39">
         <v>49.2</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>112.5</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <v>1.575</v>
       </c>
-      <c r="V39" s="59">
+      <c r="X39" s="45">
         <v>163.27499999999998</v>
       </c>
-      <c r="W39">
+      <c r="Y39">
         <v>27.974250000000005</v>
       </c>
-      <c r="X39">
+      <c r="Z39">
         <v>16.545000000000009</v>
       </c>
-      <c r="Y39">
+      <c r="AA39">
         <v>79.844999999999999</v>
       </c>
-      <c r="Z39">
+      <c r="AB39">
         <v>63.517500000000005</v>
       </c>
-      <c r="AA39">
+      <c r="AC39">
         <v>-80.062499999999986</v>
       </c>
-      <c r="AB39" s="40">
+      <c r="AD39" s="40">
         <v>-104.55374999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B40" s="1">
         <v>150</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="1">
+      <c r="F40" s="1">
         <v>40</v>
       </c>
-      <c r="E40" s="2">
+      <c r="G40" s="2">
         <v>14.5</v>
       </c>
-      <c r="F40" s="2">
+      <c r="H40" s="2">
         <v>9.5</v>
       </c>
-      <c r="G40" s="2">
+      <c r="I40" s="2">
         <v>690</v>
       </c>
-      <c r="H40" s="2">
+      <c r="J40" s="2">
         <v>91</v>
       </c>
-      <c r="I40" s="2">
+      <c r="K40" s="2">
         <v>100</v>
       </c>
-      <c r="J40" s="2">
+      <c r="L40" s="2">
         <v>3.3</v>
       </c>
-      <c r="K40" s="2">
+      <c r="M40" s="2">
         <v>1.9</v>
       </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
       <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
         <v>0.13</v>
       </c>
-      <c r="O40" s="2">
+      <c r="Q40" s="2">
         <v>0.3</v>
       </c>
-      <c r="P40" s="2">
+      <c r="R40" s="2">
         <v>0.24</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="S40" s="2">
         <v>130</v>
       </c>
-      <c r="R40" s="3">
+      <c r="T40" s="3">
         <v>3</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <v>58</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <v>87.3</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <v>37</v>
       </c>
-      <c r="V40" s="59">
+      <c r="X40" s="45">
         <v>182.3</v>
       </c>
-      <c r="W40">
+      <c r="Y40">
         <v>34.301000000000002</v>
       </c>
-      <c r="X40">
+      <c r="Z40">
         <v>21.54</v>
       </c>
-      <c r="Y40">
+      <c r="AA40">
         <v>50.839999999999996</v>
       </c>
-      <c r="Z40">
+      <c r="AB40">
         <v>32.609999999999992</v>
       </c>
-      <c r="AA40">
+      <c r="AC40">
         <v>-54.150000000000006</v>
       </c>
-      <c r="AB40" s="40">
+      <c r="AD40" s="40">
         <v>-81.495000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B41" s="28">
         <v>1000</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="28">
+      <c r="F41" s="28">
         <v>80</v>
       </c>
-      <c r="E41" s="29">
+      <c r="G41" s="29">
         <v>0.1</v>
       </c>
-      <c r="F41" s="29">
+      <c r="H41" s="29">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G41" s="29">
+      <c r="I41" s="29">
         <v>33</v>
       </c>
-      <c r="H41" s="29">
+      <c r="J41" s="29">
         <v>43</v>
       </c>
-      <c r="I41" s="29">
+      <c r="K41" s="29">
         <v>2</v>
       </c>
-      <c r="J41" s="29">
+      <c r="L41" s="29">
         <v>0.4</v>
       </c>
-      <c r="K41" s="29">
+      <c r="M41" s="29">
         <v>0.1</v>
       </c>
-      <c r="L41" s="29">
-        <v>0</v>
-      </c>
-      <c r="M41" s="29">
-        <v>0</v>
-      </c>
       <c r="N41" s="29">
         <v>0</v>
       </c>
@@ -5013,53 +5496,59 @@
         <v>0</v>
       </c>
       <c r="P41" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="29">
+        <v>0</v>
+      </c>
+      <c r="R41" s="29">
         <v>0.02</v>
       </c>
-      <c r="Q41" s="29">
+      <c r="S41" s="29">
         <v>1</v>
       </c>
-      <c r="R41" s="30">
-        <v>0</v>
-      </c>
-      <c r="S41" s="61">
+      <c r="T41" s="30">
+        <v>0</v>
+      </c>
+      <c r="U41" s="47">
         <v>0.4</v>
       </c>
-      <c r="T41" s="38">
-        <v>0</v>
-      </c>
-      <c r="U41" s="38">
+      <c r="V41" s="38">
+        <v>0</v>
+      </c>
+      <c r="W41" s="38">
         <v>4.7750000000000004</v>
       </c>
-      <c r="V41" s="62">
+      <c r="X41" s="48">
         <v>5.1750000000000007</v>
       </c>
-      <c r="W41" s="38">
+      <c r="Y41" s="38">
         <v>-0.27275000000000005</v>
       </c>
-      <c r="X41" s="38">
+      <c r="Z41" s="38">
         <v>-0.63500000000000012</v>
       </c>
-      <c r="Y41" s="38">
+      <c r="AA41" s="38">
         <v>-1.0350000000000001</v>
       </c>
-      <c r="Z41" s="38">
+      <c r="AB41" s="38">
         <v>-1.5525000000000002</v>
       </c>
-      <c r="AA41" s="38">
+      <c r="AC41" s="38">
         <v>2.1875</v>
       </c>
-      <c r="AB41" s="41">
+      <c r="AD41" s="41">
         <v>1.4112499999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="E1:R1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="G1:T1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5104,20 +5593,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:35" ht="235" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
@@ -5235,47 +5724,47 @@
       <c r="D3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="45" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="43" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="44"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="57"/>
       <c r="Q3" s="24" t="s">
         <v>110</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="46" t="s">
+      <c r="S3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="49" t="s">
+      <c r="T3" s="65"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="51"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="64"/>
       <c r="AD3" s="35"/>
       <c r="AE3" s="36"/>
       <c r="AF3" s="36"/>
@@ -9753,23 +10242,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="244a7ad3-a0db-4619-bbba-3295dded226c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C273417C32EE73408E48E513F217986A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62a7f7174c56a381a41af6fa1d0b628a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="244a7ad3-a0db-4619-bbba-3295dded226c" xmlns:ns4="9442e86f-28af-4442-b499-1773e63a2666" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="82313285e41da162022f8d3795ab2905" ns3:_="" ns4:_="">
     <xsd:import namespace="244a7ad3-a0db-4619-bbba-3295dded226c"/>
@@ -10008,32 +10480,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872AC729-7E41-4293-AF44-C7EC03E2F950}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="244a7ad3-a0db-4619-bbba-3295dded226c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9442e86f-28af-4442-b499-1773e63a2666"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010B90E3-006A-427C-83FC-319096909427}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="244a7ad3-a0db-4619-bbba-3295dded226c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60536CCD-6482-45FF-839E-57F87AD0D959}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10050,4 +10514,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010B90E3-006A-427C-83FC-319096909427}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872AC729-7E41-4293-AF44-C7EC03E2F950}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="244a7ad3-a0db-4619-bbba-3295dded226c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9442e86f-28af-4442-b499-1773e63a2666"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/backend/食品標準成分表示_野菜類.xlsx
+++ b/backend/食品標準成分表示_野菜類.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive - 名古屋市立大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DBBA63-5757-441A-BF35-47A40186E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E44741-36DC-4C5D-B966-A04E04B8D156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="0" windowWidth="11280" windowHeight="14440" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
+    <workbookView xWindow="4990" yWindow="220" windowWidth="12330" windowHeight="10540" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
   </bookViews>
   <sheets>
     <sheet name="計算用のシート" sheetId="3" r:id="rId1"/>
@@ -1485,6 +1485,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1526,12 +1532,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1888,29 +1888,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
     </row>
     <row r="2" spans="1:30" ht="199" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="53" t="s">
         <v>157</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2006,38 +2006,38 @@
       <c r="F3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="58" t="s">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="62"/>
+      <c r="P3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="57"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="59"/>
       <c r="S3" s="24" t="s">
         <v>110</v>
       </c>
       <c r="T3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="54"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="35"/>
       <c r="Z3" s="36"/>
       <c r="AA3" s="36"/>
@@ -5593,20 +5593,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
     </row>
     <row r="2" spans="1:35" ht="235" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
@@ -5724,47 +5724,47 @@
       <c r="D3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="58" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="56" t="s">
+      <c r="M3" s="62"/>
+      <c r="N3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="57"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="59"/>
       <c r="Q3" s="24" t="s">
         <v>110</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="59" t="s">
+      <c r="S3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="65"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="62" t="s">
+      <c r="T3" s="67"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="64"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="66"/>
       <c r="AD3" s="35"/>
       <c r="AE3" s="36"/>
       <c r="AF3" s="36"/>
@@ -10242,6 +10242,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="244a7ad3-a0db-4619-bbba-3295dded226c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C273417C32EE73408E48E513F217986A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62a7f7174c56a381a41af6fa1d0b628a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="244a7ad3-a0db-4619-bbba-3295dded226c" xmlns:ns4="9442e86f-28af-4442-b499-1773e63a2666" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="82313285e41da162022f8d3795ab2905" ns3:_="" ns4:_="">
     <xsd:import namespace="244a7ad3-a0db-4619-bbba-3295dded226c"/>
@@ -10480,24 +10497,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872AC729-7E41-4293-AF44-C7EC03E2F950}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="244a7ad3-a0db-4619-bbba-3295dded226c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9442e86f-28af-4442-b499-1773e63a2666"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="244a7ad3-a0db-4619-bbba-3295dded226c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010B90E3-006A-427C-83FC-319096909427}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60536CCD-6482-45FF-839E-57F87AD0D959}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10514,29 +10539,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010B90E3-006A-427C-83FC-319096909427}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872AC729-7E41-4293-AF44-C7EC03E2F950}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="244a7ad3-a0db-4619-bbba-3295dded226c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9442e86f-28af-4442-b499-1773e63a2666"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/backend/食品標準成分表示_野菜類.xlsx
+++ b/backend/食品標準成分表示_野菜類.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive - 名古屋市立大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E44741-36DC-4C5D-B966-A04E04B8D156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649F4DEA-575F-46DD-9890-51B59909143B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4990" yWindow="220" windowWidth="12330" windowHeight="10540" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
+    <workbookView xWindow="7430" yWindow="460" windowWidth="16540" windowHeight="13820" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
   </bookViews>
   <sheets>
     <sheet name="計算用のシート" sheetId="3" r:id="rId1"/>
@@ -5374,7 +5374,7 @@
         <v>104</v>
       </c>
       <c r="F40" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G40" s="2">
         <v>14.5</v>
@@ -10242,23 +10242,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="244a7ad3-a0db-4619-bbba-3295dded226c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C273417C32EE73408E48E513F217986A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62a7f7174c56a381a41af6fa1d0b628a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="244a7ad3-a0db-4619-bbba-3295dded226c" xmlns:ns4="9442e86f-28af-4442-b499-1773e63a2666" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="82313285e41da162022f8d3795ab2905" ns3:_="" ns4:_="">
     <xsd:import namespace="244a7ad3-a0db-4619-bbba-3295dded226c"/>
@@ -10497,32 +10480,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872AC729-7E41-4293-AF44-C7EC03E2F950}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="244a7ad3-a0db-4619-bbba-3295dded226c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9442e86f-28af-4442-b499-1773e63a2666"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010B90E3-006A-427C-83FC-319096909427}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="244a7ad3-a0db-4619-bbba-3295dded226c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60536CCD-6482-45FF-839E-57F87AD0D959}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10539,4 +10514,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010B90E3-006A-427C-83FC-319096909427}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872AC729-7E41-4293-AF44-C7EC03E2F950}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="244a7ad3-a0db-4619-bbba-3295dded226c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9442e86f-28af-4442-b499-1773e63a2666"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/backend/食品標準成分表示_野菜類.xlsx
+++ b/backend/食品標準成分表示_野菜類.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive - 名古屋市立大学\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649F4DEA-575F-46DD-9890-51B59909143B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676BB4B6-B42B-4EB7-80FC-B2538C4A8C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7430" yWindow="460" windowWidth="16540" windowHeight="13820" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{8E572BDD-BF0F-4465-9796-C155346E940A}"/>
   </bookViews>
   <sheets>
     <sheet name="計算用のシート" sheetId="3" r:id="rId1"/>
@@ -764,16 +764,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>価格の単位重量(計算用)</t>
-    <rPh sb="5" eb="7">
-      <t>ジュウリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ケイサンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>価格の単位重量(表示用)</t>
     <rPh sb="0" eb="2">
       <t>カカク</t>
@@ -845,6 +835,25 @@
       <t>ヒョウジヨウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>価格の単位重量(計算用、廃棄率を加味)</t>
+    <rPh sb="5" eb="7">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ケイサンヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -910,12 +919,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="34">
@@ -1328,7 +1343,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1532,6 +1547,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1870,7 +1888,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31283A3F-C3F4-4FA8-B999-817263605465}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1908,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="53" t="s">
         <v>156</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>157</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -2053,13 +2073,13 @@
         <v>1032</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" s="1">
         <v>150</v>
@@ -2145,7 +2165,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="50" t="s">
         <v>119</v>
@@ -2237,7 +2257,7 @@
         <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>120</v>
@@ -2329,7 +2349,7 @@
         <v>400</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>121</v>
@@ -2421,7 +2441,7 @@
         <v>630</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>122</v>
@@ -2510,10 +2530,10 @@
         <v>41</v>
       </c>
       <c r="B9" s="1">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>123</v>
@@ -2602,10 +2622,10 @@
         <v>43</v>
       </c>
       <c r="B10" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>124</v>
@@ -2694,10 +2714,10 @@
         <v>45</v>
       </c>
       <c r="B11" s="1">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>125</v>
@@ -2786,10 +2806,10 @@
         <v>47</v>
       </c>
       <c r="B12" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="50" t="s">
         <v>126</v>
@@ -2878,10 +2898,10 @@
         <v>49</v>
       </c>
       <c r="B13" s="1">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>127</v>
@@ -2970,10 +2990,10 @@
         <v>51</v>
       </c>
       <c r="B14" s="1">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="50" t="s">
         <v>128</v>
@@ -3062,10 +3082,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="1">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>129</v>
@@ -3154,10 +3174,10 @@
         <v>55</v>
       </c>
       <c r="B16" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="50" t="s">
         <v>130</v>
@@ -3246,10 +3266,10 @@
         <v>57</v>
       </c>
       <c r="B17" s="1">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>131</v>
@@ -3338,10 +3358,10 @@
         <v>59</v>
       </c>
       <c r="B18" s="1">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>132</v>
@@ -3433,7 +3453,7 @@
         <v>1000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" s="50" t="s">
         <v>133</v>
@@ -3525,7 +3545,7 @@
         <v>1000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D20" s="50" t="s">
         <v>134</v>
@@ -3617,7 +3637,7 @@
         <v>1000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D21" s="50" t="s">
         <v>135</v>
@@ -3709,7 +3729,7 @@
         <v>1000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="50" t="s">
         <v>136</v>
@@ -3801,7 +3821,7 @@
         <v>1000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D23" s="50" t="s">
         <v>137</v>
@@ -3893,7 +3913,7 @@
         <v>1000</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="50" t="s">
         <v>138</v>
@@ -3985,7 +4005,7 @@
         <v>1000</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D25" s="50" t="s">
         <v>139</v>
@@ -4077,7 +4097,7 @@
         <v>1000</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>140</v>
@@ -4169,7 +4189,7 @@
         <v>1000</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D27" s="50" t="s">
         <v>141</v>
@@ -4261,7 +4281,7 @@
         <v>1000</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="50" t="s">
         <v>142</v>
@@ -4353,7 +4373,7 @@
         <v>1000</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D29" s="50" t="s">
         <v>143</v>
@@ -4445,7 +4465,7 @@
         <v>1000</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="50" t="s">
         <v>144</v>
@@ -4537,7 +4557,7 @@
         <v>1000</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" s="50" t="s">
         <v>145</v>
@@ -4629,7 +4649,7 @@
         <v>1000</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" s="50" t="s">
         <v>146</v>
@@ -4721,7 +4741,7 @@
         <v>1000</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" s="50" t="s">
         <v>147</v>
@@ -4813,7 +4833,7 @@
         <v>1000</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="50" t="s">
         <v>148</v>
@@ -4905,7 +4925,7 @@
         <v>1000</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D35" s="50" t="s">
         <v>149</v>
@@ -4997,7 +5017,7 @@
         <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D36" s="50" t="s">
         <v>150</v>
@@ -5089,7 +5109,7 @@
         <v>100</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="50" t="s">
         <v>151</v>
@@ -5181,7 +5201,7 @@
         <v>1000</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" s="50" t="s">
         <v>152</v>
@@ -5273,7 +5293,7 @@
         <v>1000</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D39" s="50" t="s">
         <v>153</v>
@@ -5365,7 +5385,7 @@
         <v>150</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D40" s="50" t="s">
         <v>154</v>
@@ -5457,7 +5477,7 @@
         <v>1000</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D41" s="51" t="s">
         <v>155</v>
@@ -5559,9 +5579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24534400-F245-4B3F-A75E-948BF1262C7E}">
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AC41"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7528,11 +7546,11 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="68" t="s">
         <v>61</v>
       </c>
       <c r="B19" s="1">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>62</v>
@@ -7649,7 +7667,7 @@
         <v>63</v>
       </c>
       <c r="B20" s="1">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>64</v>
@@ -7766,7 +7784,7 @@
         <v>65</v>
       </c>
       <c r="B21" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>66</v>
@@ -7883,7 +7901,7 @@
         <v>67</v>
       </c>
       <c r="B22" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>68</v>
@@ -8000,7 +8018,7 @@
         <v>69</v>
       </c>
       <c r="B23" s="1">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>70</v>
@@ -8113,11 +8131,11 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="68" t="s">
         <v>71</v>
       </c>
       <c r="B24" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>72</v>
@@ -8347,11 +8365,11 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="68" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="1">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>76</v>
@@ -8464,11 +8482,11 @@
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="68" t="s">
         <v>77</v>
       </c>
       <c r="B27" s="1">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>78</v>
@@ -8585,7 +8603,7 @@
         <v>79</v>
       </c>
       <c r="B28" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>80</v>
@@ -8702,7 +8720,7 @@
         <v>81</v>
       </c>
       <c r="B29" s="1">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>82</v>
@@ -8819,7 +8837,7 @@
         <v>83</v>
       </c>
       <c r="B30" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>84</v>
@@ -8936,7 +8954,7 @@
         <v>85</v>
       </c>
       <c r="B31" s="1">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>86</v>
@@ -9053,7 +9071,7 @@
         <v>87</v>
       </c>
       <c r="B32" s="1">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>88</v>
@@ -9170,7 +9188,7 @@
         <v>89</v>
       </c>
       <c r="B33" s="1">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>90</v>
@@ -9287,7 +9305,7 @@
         <v>91</v>
       </c>
       <c r="B34" s="1">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>92</v>
@@ -9404,7 +9422,7 @@
         <v>93</v>
       </c>
       <c r="B35" s="1">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>94</v>
@@ -9521,7 +9539,7 @@
         <v>95</v>
       </c>
       <c r="B36" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>96</v>
@@ -10242,6 +10260,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="244a7ad3-a0db-4619-bbba-3295dded226c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C273417C32EE73408E48E513F217986A" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="62a7f7174c56a381a41af6fa1d0b628a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="244a7ad3-a0db-4619-bbba-3295dded226c" xmlns:ns4="9442e86f-28af-4442-b499-1773e63a2666" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="82313285e41da162022f8d3795ab2905" ns3:_="" ns4:_="">
     <xsd:import namespace="244a7ad3-a0db-4619-bbba-3295dded226c"/>
@@ -10480,24 +10515,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872AC729-7E41-4293-AF44-C7EC03E2F950}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="244a7ad3-a0db-4619-bbba-3295dded226c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9442e86f-28af-4442-b499-1773e63a2666"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="244a7ad3-a0db-4619-bbba-3295dded226c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010B90E3-006A-427C-83FC-319096909427}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60536CCD-6482-45FF-839E-57F87AD0D959}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10514,29 +10557,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{010B90E3-006A-427C-83FC-319096909427}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872AC729-7E41-4293-AF44-C7EC03E2F950}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="244a7ad3-a0db-4619-bbba-3295dded226c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9442e86f-28af-4442-b499-1773e63a2666"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>